--- a/COVID19/COVID19_Microbiology_Metadata_Sheet_1.0.xlsx
+++ b/COVID19/COVID19_Microbiology_Metadata_Sheet_1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marie/Downloads/metadata-doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marie/Downloads/metadata-doc/COVID19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CBFB15-79A0-2841-9D0C-529406720B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A86AF7-E8CE-6349-9DC0-14D1EC109482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,120 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{7C5E7203-EDBE-3A4B-8808-DDDBCF095E33}">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{1B3C2080-5B7A-4540-B8AB-2C8863BBA05D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="34"/>
+          </rPr>
+          <t>T0: For admission (equals T1 for Tropical Medicine)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="34"/>
+          </rPr>
+          <t>T2: 2 days</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="34"/>
+          </rPr>
+          <t>T4: 4 days</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="34"/>
+          </rPr>
+          <t>T7: 7 days
+T14: 14 days or after</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="34"/>
+          </rPr>
+          <t>T28: (potentially needed for Tropical Medicine)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="34"/>
+          </rPr>
+          <t>TR : 6 months or after recovery</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{7C5E7203-EDBE-3A4B-8808-DDDBCF095E33}">
       <text>
         <r>
           <rPr>
@@ -206,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{CF7E0DBD-6847-0E46-81D1-CC9C01935F06}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{CF7E0DBD-6847-0E46-81D1-CC9C01935F06}">
       <text>
         <r>
           <rPr>
@@ -220,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{C7E4D8F5-CE3D-2C44-BC53-DDB5CB7BC604}">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{C7E4D8F5-CE3D-2C44-BC53-DDB5CB7BC604}">
       <text>
         <r>
           <rPr>
@@ -234,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{D1F5C5F6-5670-784E-B382-C2C19DEE2D48}">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{D1F5C5F6-5670-784E-B382-C2C19DEE2D48}">
       <text>
         <r>
           <rPr>
@@ -247,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{CBE3EFC1-5DE6-D44D-BF0A-FBB08384FD04}">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{CBE3EFC1-5DE6-D44D-BF0A-FBB08384FD04}">
       <text>
         <r>
           <rPr>
@@ -260,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{9443CFCD-AABD-1B49-B15A-E5CA35CC49A8}">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{9443CFCD-AABD-1B49-B15A-E5CA35CC49A8}">
       <text>
         <r>
           <rPr>
@@ -273,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{746DDF37-DE73-6240-B019-991FC1646EA9}">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{746DDF37-DE73-6240-B019-991FC1646EA9}">
       <text>
         <r>
           <rPr>
@@ -287,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{31FE5738-647E-C044-8276-BC9610215468}">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{31FE5738-647E-C044-8276-BC9610215468}">
       <text>
         <r>
           <rPr>
@@ -300,7 +413,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{6D0D0C53-BD73-BA4A-8217-0F83DF07B690}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{6D0D0C53-BD73-BA4A-8217-0F83DF07B690}">
       <text>
         <r>
           <rPr>
@@ -313,7 +426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{904F1478-142A-E745-A156-EE8539BA3BEF}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{904F1478-142A-E745-A156-EE8539BA3BEF}">
       <text>
         <r>
           <rPr>
@@ -326,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="0" shapeId="0" xr:uid="{600EDEB9-2A4C-BA4D-A4D2-5626A0D68910}">
+    <comment ref="AI2" authorId="0" shapeId="0" xr:uid="{600EDEB9-2A4C-BA4D-A4D2-5626A0D68910}">
       <text>
         <r>
           <rPr>
@@ -353,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>Please fill in all needed TABS</t>
   </si>
@@ -767,12 +880,15 @@
   <si>
     <t>The project will only start with a quotation and a completely filled metadata sheet.</t>
   </si>
+  <si>
+    <t>Time Point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -930,6 +1046,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="34"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1532,30 +1659,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -1563,6 +1666,23 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1583,16 +1703,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1615,7 +1742,44 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2577,45 +2741,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:AJ502" totalsRowShown="0" dataDxfId="36" headerRowBorderDxfId="37">
-  <autoFilter ref="A2:AJ502" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="36">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sample Number" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="QBiC Barcode (filled by QBiC)" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Secondary Name (filled by sequencing facility)" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{2078FC4B-83E6-D946-A4CB-825E1594EDEC}" name="Analysis to be performed" dataDxfId="32"/>
-    <tableColumn id="24" xr3:uid="{20E79FCA-5767-474C-88ED-32339D167E60}" name="Plate Position (e.g. A1)" dataDxfId="31"/>
-    <tableColumn id="22" xr3:uid="{D4B90B31-D2D6-284F-B553-268EE18286DF}" name="Plate Title" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sample Name" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sample Grouping" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sample Source/_x000a_Species" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sample Tissue" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Analyte" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sex" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Age" dataDxfId="23"/>
-    <tableColumn id="38" xr3:uid="{35045B2B-03A3-B047-BE55-C65453BCA40D}" name="Country" dataDxfId="22"/>
-    <tableColumn id="39" xr3:uid="{6A9D4245-9BDA-B447-9894-CAF302847A55}" name="City" dataDxfId="21"/>
-    <tableColumn id="40" xr3:uid="{32FBEA44-DF3B-6946-9521-4342C1A0578D}" name="Principal Investigator (PI)" dataDxfId="20"/>
-    <tableColumn id="41" xr3:uid="{BE9AA982-5A90-204B-9AFA-E689D1F193B4}" name="Collecting Institution" dataDxfId="19"/>
-    <tableColumn id="42" xr3:uid="{6B01D458-B5E0-9042-A925-B6C593998597}" name="Host Health State" dataDxfId="18"/>
-    <tableColumn id="43" xr3:uid="{66140319-D321-E349-BBC3-F758D4F54021}" name="Hospitalization" dataDxfId="17"/>
-    <tableColumn id="32" xr3:uid="{E78D9CD9-A940-6F43-A71A-B53217C35736}" name="ICU_x000a_Admit" dataDxfId="16"/>
-    <tableColumn id="33" xr3:uid="{E0683C38-FBD2-B24D-A765-521797FC9D40}" name="ICU_x000a_Duration" dataDxfId="15"/>
-    <tableColumn id="34" xr3:uid="{78C89C96-769E-C048-9AB8-CB9800C0F240}" name="Symptoms At Admission" dataDxfId="14"/>
-    <tableColumn id="35" xr3:uid="{A7D69380-1F68-2D4A-B8C4-42417C467933}" name="Covid 19 Test" dataDxfId="13"/>
-    <tableColumn id="36" xr3:uid="{5CE8B53A-E497-1F45-AD64-159B6C8FA725}" name="Covid 19 Ct Test Results" dataDxfId="12"/>
-    <tableColumn id="44" xr3:uid="{9CC27EA7-6A36-A044-96D5-43990ABA9F01}" name="Fever Days" dataDxfId="11"/>
-    <tableColumn id="37" xr3:uid="{512508EA-9E4A-6E41-9065-805498437BE9}" name="Cough Day" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Elution Buffer" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Sample volume_x000a_[µL]" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Purity (OD 260nm/280nm)" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Purity (OD 260nm/230nm)" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Concentration ng/µl*" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="TotalVolume [µL]" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Total amount [µg]" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Method_x000a_(Nanodrop, Bradford)" dataDxfId="2"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="RIN/DIN" dataDxfId="1"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Comment" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A2:AK502" totalsRowShown="0" dataDxfId="37" headerRowBorderDxfId="38">
+  <autoFilter ref="A2:AK502" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="37">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sample Number" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="QBiC Barcode (filled by QBiC)" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Secondary Name (filled by sequencing facility)" dataDxfId="34"/>
+    <tableColumn id="26" xr3:uid="{2078FC4B-83E6-D946-A4CB-825E1594EDEC}" name="Analysis to be performed" dataDxfId="33"/>
+    <tableColumn id="24" xr3:uid="{20E79FCA-5767-474C-88ED-32339D167E60}" name="Plate Position (e.g. A1)" dataDxfId="32"/>
+    <tableColumn id="22" xr3:uid="{D4B90B31-D2D6-284F-B553-268EE18286DF}" name="Plate Title" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sample Name" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sample Grouping" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sample Source/_x000a_Species" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sample Tissue" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Analyte" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sex" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Age" dataDxfId="24"/>
+    <tableColumn id="23" xr3:uid="{476EE448-04D7-FA4F-9EED-9A605A951656}" name="Time Point" dataDxfId="0"/>
+    <tableColumn id="38" xr3:uid="{35045B2B-03A3-B047-BE55-C65453BCA40D}" name="Country" dataDxfId="23"/>
+    <tableColumn id="39" xr3:uid="{6A9D4245-9BDA-B447-9894-CAF302847A55}" name="City" dataDxfId="22"/>
+    <tableColumn id="40" xr3:uid="{32FBEA44-DF3B-6946-9521-4342C1A0578D}" name="Principal Investigator (PI)" dataDxfId="21"/>
+    <tableColumn id="41" xr3:uid="{BE9AA982-5A90-204B-9AFA-E689D1F193B4}" name="Collecting Institution" dataDxfId="20"/>
+    <tableColumn id="42" xr3:uid="{6B01D458-B5E0-9042-A925-B6C593998597}" name="Host Health State" dataDxfId="19"/>
+    <tableColumn id="43" xr3:uid="{66140319-D321-E349-BBC3-F758D4F54021}" name="Hospitalization" dataDxfId="18"/>
+    <tableColumn id="32" xr3:uid="{E78D9CD9-A940-6F43-A71A-B53217C35736}" name="ICU_x000a_Admit" dataDxfId="17"/>
+    <tableColumn id="33" xr3:uid="{E0683C38-FBD2-B24D-A765-521797FC9D40}" name="ICU_x000a_Duration" dataDxfId="16"/>
+    <tableColumn id="34" xr3:uid="{78C89C96-769E-C048-9AB8-CB9800C0F240}" name="Symptoms At Admission" dataDxfId="15"/>
+    <tableColumn id="35" xr3:uid="{A7D69380-1F68-2D4A-B8C4-42417C467933}" name="Covid 19 Test" dataDxfId="14"/>
+    <tableColumn id="36" xr3:uid="{5CE8B53A-E497-1F45-AD64-159B6C8FA725}" name="Covid 19 Ct Test Results" dataDxfId="13"/>
+    <tableColumn id="44" xr3:uid="{9CC27EA7-6A36-A044-96D5-43990ABA9F01}" name="Fever Days" dataDxfId="12"/>
+    <tableColumn id="37" xr3:uid="{512508EA-9E4A-6E41-9065-805498437BE9}" name="Cough Day" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Elution Buffer" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Sample volume_x000a_[µL]" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Purity (OD 260nm/280nm)" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Purity (OD 260nm/230nm)" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Concentration ng/µl*" dataDxfId="6"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="TotalVolume [µL]" dataDxfId="5"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Total amount [µg]" dataDxfId="4"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Method_x000a_(Nanodrop, Bradford)" dataDxfId="3"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="RIN/DIN" dataDxfId="2"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Comment" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2923,7 +3088,7 @@
   </sheetPr>
   <dimension ref="A1:AMK39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -3454,15 +3619,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="103" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
       <c r="F1" s="78"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
@@ -3470,20 +3635,20 @@
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
       <c r="B2" s="37"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="103"/>
+      <c r="D2" s="91"/>
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="101"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3517,65 +3682,65 @@
       <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="3"/>
       <c r="F6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="3"/>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="3"/>
       <c r="F8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3585,9 +3750,9 @@
       <c r="A11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3617,13 +3782,13 @@
       <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
@@ -3631,11 +3796,11 @@
       <c r="A15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
@@ -3677,9 +3842,9 @@
       <c r="A19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="89"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3689,9 +3854,9 @@
       <c r="A20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3701,9 +3866,9 @@
       <c r="A21" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="61"/>
       <c r="F21" s="61"/>
       <c r="G21" s="61"/>
@@ -4730,9 +4895,9 @@
       <c r="A22" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4764,8 +4929,8 @@
       <c r="A25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4798,53 +4963,53 @@
       <c r="A28" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="103" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="92"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="103"/>
     </row>
     <row r="29" spans="1:1025" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
     </row>
     <row r="30" spans="1:1025" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="93"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
     </row>
     <row r="31" spans="1:1025" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
     </row>
     <row r="32" spans="1:1025" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
@@ -5923,28 +6088,22 @@
       <c r="A37" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:H28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:H30"/>
     <mergeCell ref="B10:D10"/>
@@ -5954,12 +6113,18 @@
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:C25" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5985,26 +6150,26 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AO502"/>
+  <dimension ref="A1:AP502"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="7" width="14" customWidth="1"/>
-    <col min="8" max="31" width="14.5" customWidth="1"/>
-    <col min="32" max="32" width="20.5" customWidth="1"/>
-    <col min="33" max="33" width="15" customWidth="1"/>
-    <col min="34" max="34" width="20" customWidth="1"/>
-    <col min="35" max="35" width="18.5" customWidth="1"/>
-    <col min="36" max="36" width="12.5" customWidth="1"/>
-    <col min="37" max="37" width="11" style="22"/>
+    <col min="8" max="32" width="14.5" customWidth="1"/>
+    <col min="33" max="33" width="20.5" customWidth="1"/>
+    <col min="34" max="34" width="15" customWidth="1"/>
+    <col min="35" max="35" width="20" customWidth="1"/>
+    <col min="36" max="36" width="18.5" customWidth="1"/>
+    <col min="37" max="37" width="12.5" customWidth="1"/>
+    <col min="38" max="38" width="11" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="43"/>
       <c r="B1" s="104" t="s">
         <v>68</v>
@@ -6034,11 +6199,11 @@
       <c r="W1" s="107"/>
       <c r="X1" s="107"/>
       <c r="Y1" s="107"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="105" t="s">
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="105"/>
       <c r="AC1" s="105"/>
       <c r="AD1" s="105"/>
       <c r="AE1" s="105"/>
@@ -6046,10 +6211,11 @@
       <c r="AG1" s="105"/>
       <c r="AH1" s="105"/>
       <c r="AI1" s="105"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="41"/>
-    </row>
-    <row r="2" spans="1:41" ht="75" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="41"/>
+    </row>
+    <row r="2" spans="1:42" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>71</v>
       </c>
@@ -6090,81 +6256,84 @@
         <v>115</v>
       </c>
       <c r="N2" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="P2" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="Q2" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="35" t="s">
+      <c r="S2" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="S2" s="35" t="s">
+      <c r="T2" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="U2" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="V2" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="W2" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="X2" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="Y2" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="Y2" s="35" t="s">
+      <c r="Z2" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="AA2" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AB2" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AC2" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AD2" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AD2" s="36" t="s">
+      <c r="AE2" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AF2" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AG2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="AG2" s="36" t="s">
+      <c r="AH2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH2" s="36" t="s">
+      <c r="AI2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AJ2" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="AJ2" s="40" t="s">
+      <c r="AK2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="23"/>
+      <c r="AL2" s="42"/>
       <c r="AM2" s="23"/>
       <c r="AN2" s="23"/>
       <c r="AO2" s="23"/>
-    </row>
-    <row r="3" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="27">
         <v>1</v>
       </c>
@@ -6197,19 +6366,20 @@
       <c r="AB3" s="44"/>
       <c r="AC3" s="44"/>
       <c r="AD3" s="44"/>
-      <c r="AE3" s="28"/>
+      <c r="AE3" s="44"/>
       <c r="AF3" s="28"/>
       <c r="AG3" s="28"/>
       <c r="AH3" s="28"/>
       <c r="AI3" s="28"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="26"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="25"/>
       <c r="AN3" s="26"/>
       <c r="AO3" s="26"/>
-    </row>
-    <row r="4" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AP3" s="26"/>
+    </row>
+    <row r="4" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="27">
         <v>2</v>
       </c>
@@ -6247,14 +6417,15 @@
       <c r="AG4" s="28"/>
       <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="26"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="25"/>
       <c r="AN4" s="26"/>
       <c r="AO4" s="26"/>
-    </row>
-    <row r="5" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AP4" s="26"/>
+    </row>
+    <row r="5" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="27">
         <v>3</v>
       </c>
@@ -6292,14 +6463,15 @@
       <c r="AG5" s="28"/>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="25"/>
+      <c r="AJ5" s="28"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="30"/>
       <c r="AM5" s="25"/>
-      <c r="AN5" s="26"/>
+      <c r="AN5" s="25"/>
       <c r="AO5" s="26"/>
-    </row>
-    <row r="6" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AP5" s="26"/>
+    </row>
+    <row r="6" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="27">
         <v>4</v>
       </c>
@@ -6337,14 +6509,15 @@
       <c r="AG6" s="28"/>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="25"/>
-      <c r="AM6" s="26"/>
-      <c r="AN6" s="25"/>
-      <c r="AO6" s="26"/>
-    </row>
-    <row r="7" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="30"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="26"/>
+    </row>
+    <row r="7" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="27">
         <v>5</v>
       </c>
@@ -6382,14 +6555,15 @@
       <c r="AG7" s="28"/>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="25"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="25"/>
-      <c r="AO7" s="26"/>
-    </row>
-    <row r="8" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="24"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="26"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="26"/>
+    </row>
+    <row r="8" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="27">
         <v>6</v>
       </c>
@@ -6427,14 +6601,15 @@
       <c r="AG8" s="28"/>
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="25"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="24"/>
       <c r="AM8" s="25"/>
       <c r="AN8" s="25"/>
-      <c r="AO8" s="26"/>
-    </row>
-    <row r="9" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="26"/>
+    </row>
+    <row r="9" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="27">
         <v>7</v>
       </c>
@@ -6472,14 +6647,15 @@
       <c r="AG9" s="28"/>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
-      <c r="AJ9" s="29"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="26"/>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="31"/>
-    </row>
-    <row r="10" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="28"/>
+      <c r="AK9" s="29"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="31"/>
+    </row>
+    <row r="10" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="27">
         <v>8</v>
       </c>
@@ -6517,14 +6693,15 @@
       <c r="AG10" s="28"/>
       <c r="AH10" s="28"/>
       <c r="AI10" s="28"/>
-      <c r="AJ10" s="29"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="25"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="25"/>
-      <c r="AO10" s="31"/>
-    </row>
-    <row r="11" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="28"/>
+      <c r="AK10" s="29"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="26"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="31"/>
+    </row>
+    <row r="11" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="27">
         <v>9</v>
       </c>
@@ -6562,14 +6739,15 @@
       <c r="AG11" s="28"/>
       <c r="AH11" s="28"/>
       <c r="AI11" s="28"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="25"/>
-      <c r="AM11" s="26"/>
-      <c r="AN11" s="25"/>
-      <c r="AO11" s="31"/>
-    </row>
-    <row r="12" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="28"/>
+      <c r="AK11" s="29"/>
+      <c r="AL11" s="24"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="26"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="31"/>
+    </row>
+    <row r="12" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="27">
         <v>10</v>
       </c>
@@ -6607,10 +6785,11 @@
       <c r="AG12" s="28"/>
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="24"/>
-    </row>
-    <row r="13" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="29"/>
+      <c r="AL12" s="24"/>
+    </row>
+    <row r="13" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="27">
         <v>11</v>
       </c>
@@ -6648,10 +6827,11 @@
       <c r="AG13" s="28"/>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="24"/>
-    </row>
-    <row r="14" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="24"/>
+    </row>
+    <row r="14" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>12</v>
       </c>
@@ -6689,10 +6869,11 @@
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
       <c r="AI14" s="28"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="24"/>
-    </row>
-    <row r="15" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="29"/>
+      <c r="AL14" s="24"/>
+    </row>
+    <row r="15" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="27">
         <v>13</v>
       </c>
@@ -6730,10 +6911,11 @@
       <c r="AG15" s="28"/>
       <c r="AH15" s="28"/>
       <c r="AI15" s="28"/>
-      <c r="AJ15" s="29"/>
-      <c r="AK15" s="24"/>
-    </row>
-    <row r="16" spans="1:41" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="28"/>
+      <c r="AK15" s="29"/>
+      <c r="AL15" s="24"/>
+    </row>
+    <row r="16" spans="1:42" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>14</v>
       </c>
@@ -6771,10 +6953,11 @@
       <c r="AG16" s="28"/>
       <c r="AH16" s="28"/>
       <c r="AI16" s="28"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="24"/>
-    </row>
-    <row r="17" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="29"/>
+      <c r="AL16" s="24"/>
+    </row>
+    <row r="17" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="27">
         <v>15</v>
       </c>
@@ -6812,10 +6995,11 @@
       <c r="AG17" s="28"/>
       <c r="AH17" s="28"/>
       <c r="AI17" s="28"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="24"/>
-    </row>
-    <row r="18" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="24"/>
+    </row>
+    <row r="18" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="27">
         <v>16</v>
       </c>
@@ -6853,10 +7037,11 @@
       <c r="AG18" s="28"/>
       <c r="AH18" s="28"/>
       <c r="AI18" s="28"/>
-      <c r="AJ18" s="29"/>
-      <c r="AK18" s="24"/>
-    </row>
-    <row r="19" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="29"/>
+      <c r="AL18" s="24"/>
+    </row>
+    <row r="19" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="27">
         <v>17</v>
       </c>
@@ -6894,10 +7079,11 @@
       <c r="AG19" s="28"/>
       <c r="AH19" s="28"/>
       <c r="AI19" s="28"/>
-      <c r="AJ19" s="29"/>
-      <c r="AK19" s="24"/>
-    </row>
-    <row r="20" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="29"/>
+      <c r="AL19" s="24"/>
+    </row>
+    <row r="20" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="27">
         <v>18</v>
       </c>
@@ -6935,11 +7121,12 @@
       <c r="AG20" s="28"/>
       <c r="AH20" s="28"/>
       <c r="AI20" s="28"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="1"/>
-    </row>
-    <row r="21" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="29"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="1"/>
+    </row>
+    <row r="21" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="27">
         <v>19</v>
       </c>
@@ -6977,10 +7164,11 @@
       <c r="AG21" s="28"/>
       <c r="AH21" s="28"/>
       <c r="AI21" s="28"/>
-      <c r="AJ21" s="29"/>
-      <c r="AK21" s="24"/>
-    </row>
-    <row r="22" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ21" s="28"/>
+      <c r="AK21" s="29"/>
+      <c r="AL21" s="24"/>
+    </row>
+    <row r="22" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="27">
         <v>20</v>
       </c>
@@ -7018,10 +7206,11 @@
       <c r="AG22" s="28"/>
       <c r="AH22" s="28"/>
       <c r="AI22" s="28"/>
-      <c r="AJ22" s="29"/>
-      <c r="AK22" s="24"/>
-    </row>
-    <row r="23" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="24"/>
+    </row>
+    <row r="23" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="27">
         <v>21</v>
       </c>
@@ -7059,10 +7248,11 @@
       <c r="AG23" s="28"/>
       <c r="AH23" s="28"/>
       <c r="AI23" s="28"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="24"/>
-    </row>
-    <row r="24" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="29"/>
+      <c r="AL23" s="24"/>
+    </row>
+    <row r="24" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="27">
         <v>22</v>
       </c>
@@ -7100,10 +7290,11 @@
       <c r="AG24" s="28"/>
       <c r="AH24" s="28"/>
       <c r="AI24" s="28"/>
-      <c r="AJ24" s="29"/>
-      <c r="AK24" s="24"/>
-    </row>
-    <row r="25" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="29"/>
+      <c r="AL24" s="24"/>
+    </row>
+    <row r="25" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="27">
         <v>23</v>
       </c>
@@ -7141,10 +7332,11 @@
       <c r="AG25" s="28"/>
       <c r="AH25" s="28"/>
       <c r="AI25" s="28"/>
-      <c r="AJ25" s="29"/>
-      <c r="AK25" s="24"/>
-    </row>
-    <row r="26" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="29"/>
+      <c r="AL25" s="24"/>
+    </row>
+    <row r="26" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="27">
         <v>24</v>
       </c>
@@ -7182,10 +7374,11 @@
       <c r="AG26" s="28"/>
       <c r="AH26" s="28"/>
       <c r="AI26" s="28"/>
-      <c r="AJ26" s="29"/>
-      <c r="AK26" s="24"/>
-    </row>
-    <row r="27" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="29"/>
+      <c r="AL26" s="24"/>
+    </row>
+    <row r="27" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="27">
         <v>25</v>
       </c>
@@ -7223,10 +7416,11 @@
       <c r="AG27" s="28"/>
       <c r="AH27" s="28"/>
       <c r="AI27" s="28"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="24"/>
-    </row>
-    <row r="28" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="29"/>
+      <c r="AL27" s="24"/>
+    </row>
+    <row r="28" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="27">
         <v>26</v>
       </c>
@@ -7264,10 +7458,11 @@
       <c r="AG28" s="28"/>
       <c r="AH28" s="28"/>
       <c r="AI28" s="28"/>
-      <c r="AJ28" s="29"/>
-      <c r="AK28" s="24"/>
-    </row>
-    <row r="29" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="29"/>
+      <c r="AL28" s="24"/>
+    </row>
+    <row r="29" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
         <v>27</v>
       </c>
@@ -7305,10 +7500,11 @@
       <c r="AG29" s="28"/>
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
-      <c r="AJ29" s="29"/>
-      <c r="AK29" s="24"/>
-    </row>
-    <row r="30" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="29"/>
+      <c r="AL29" s="24"/>
+    </row>
+    <row r="30" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
         <v>28</v>
       </c>
@@ -7346,10 +7542,11 @@
       <c r="AG30" s="28"/>
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
-      <c r="AJ30" s="29"/>
-      <c r="AK30" s="24"/>
-    </row>
-    <row r="31" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="29"/>
+      <c r="AL30" s="24"/>
+    </row>
+    <row r="31" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
         <v>29</v>
       </c>
@@ -7387,10 +7584,11 @@
       <c r="AG31" s="28"/>
       <c r="AH31" s="28"/>
       <c r="AI31" s="28"/>
-      <c r="AJ31" s="29"/>
-      <c r="AK31" s="24"/>
-    </row>
-    <row r="32" spans="1:38" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ31" s="28"/>
+      <c r="AK31" s="29"/>
+      <c r="AL31" s="24"/>
+    </row>
+    <row r="32" spans="1:39" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
         <v>30</v>
       </c>
@@ -7428,10 +7626,11 @@
       <c r="AG32" s="28"/>
       <c r="AH32" s="28"/>
       <c r="AI32" s="28"/>
-      <c r="AJ32" s="29"/>
-      <c r="AK32" s="24"/>
-    </row>
-    <row r="33" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="29"/>
+      <c r="AL32" s="24"/>
+    </row>
+    <row r="33" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
         <v>31</v>
       </c>
@@ -7469,10 +7668,11 @@
       <c r="AG33" s="28"/>
       <c r="AH33" s="28"/>
       <c r="AI33" s="28"/>
-      <c r="AJ33" s="29"/>
-      <c r="AK33" s="24"/>
-    </row>
-    <row r="34" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="24"/>
+    </row>
+    <row r="34" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
         <v>32</v>
       </c>
@@ -7510,10 +7710,11 @@
       <c r="AG34" s="28"/>
       <c r="AH34" s="28"/>
       <c r="AI34" s="28"/>
-      <c r="AJ34" s="29"/>
-      <c r="AK34" s="24"/>
-    </row>
-    <row r="35" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="29"/>
+      <c r="AL34" s="24"/>
+    </row>
+    <row r="35" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
         <v>33</v>
       </c>
@@ -7551,10 +7752,11 @@
       <c r="AG35" s="28"/>
       <c r="AH35" s="28"/>
       <c r="AI35" s="28"/>
-      <c r="AJ35" s="29"/>
-      <c r="AK35" s="24"/>
-    </row>
-    <row r="36" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="24"/>
+    </row>
+    <row r="36" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
         <v>34</v>
       </c>
@@ -7592,10 +7794,11 @@
       <c r="AG36" s="28"/>
       <c r="AH36" s="28"/>
       <c r="AI36" s="28"/>
-      <c r="AJ36" s="29"/>
-      <c r="AK36" s="24"/>
-    </row>
-    <row r="37" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="24"/>
+    </row>
+    <row r="37" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
         <v>35</v>
       </c>
@@ -7633,10 +7836,11 @@
       <c r="AG37" s="28"/>
       <c r="AH37" s="28"/>
       <c r="AI37" s="28"/>
-      <c r="AJ37" s="29"/>
-      <c r="AK37" s="24"/>
-    </row>
-    <row r="38" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="24"/>
+    </row>
+    <row r="38" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
         <v>36</v>
       </c>
@@ -7674,10 +7878,11 @@
       <c r="AG38" s="28"/>
       <c r="AH38" s="28"/>
       <c r="AI38" s="28"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="24"/>
-    </row>
-    <row r="39" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="24"/>
+    </row>
+    <row r="39" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
         <v>37</v>
       </c>
@@ -7715,10 +7920,11 @@
       <c r="AG39" s="28"/>
       <c r="AH39" s="28"/>
       <c r="AI39" s="28"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="24"/>
-    </row>
-    <row r="40" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="29"/>
+      <c r="AL39" s="24"/>
+    </row>
+    <row r="40" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
         <v>38</v>
       </c>
@@ -7756,10 +7962,11 @@
       <c r="AG40" s="28"/>
       <c r="AH40" s="28"/>
       <c r="AI40" s="28"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="24"/>
-    </row>
-    <row r="41" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="29"/>
+      <c r="AL40" s="24"/>
+    </row>
+    <row r="41" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
         <v>39</v>
       </c>
@@ -7797,10 +8004,11 @@
       <c r="AG41" s="28"/>
       <c r="AH41" s="28"/>
       <c r="AI41" s="28"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="24"/>
-    </row>
-    <row r="42" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ41" s="28"/>
+      <c r="AK41" s="29"/>
+      <c r="AL41" s="24"/>
+    </row>
+    <row r="42" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
         <v>40</v>
       </c>
@@ -7838,10 +8046,11 @@
       <c r="AG42" s="28"/>
       <c r="AH42" s="28"/>
       <c r="AI42" s="28"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="24"/>
-    </row>
-    <row r="43" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="29"/>
+      <c r="AL42" s="24"/>
+    </row>
+    <row r="43" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
         <v>41</v>
       </c>
@@ -7879,10 +8088,11 @@
       <c r="AG43" s="28"/>
       <c r="AH43" s="28"/>
       <c r="AI43" s="28"/>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="24"/>
-    </row>
-    <row r="44" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="29"/>
+      <c r="AL43" s="24"/>
+    </row>
+    <row r="44" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
         <v>42</v>
       </c>
@@ -7920,10 +8130,11 @@
       <c r="AG44" s="28"/>
       <c r="AH44" s="28"/>
       <c r="AI44" s="28"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="24"/>
-    </row>
-    <row r="45" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="29"/>
+      <c r="AL44" s="24"/>
+    </row>
+    <row r="45" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
         <v>43</v>
       </c>
@@ -7961,10 +8172,11 @@
       <c r="AG45" s="28"/>
       <c r="AH45" s="28"/>
       <c r="AI45" s="28"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="24"/>
-    </row>
-    <row r="46" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="29"/>
+      <c r="AL45" s="24"/>
+    </row>
+    <row r="46" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
         <v>44</v>
       </c>
@@ -8002,10 +8214,11 @@
       <c r="AG46" s="28"/>
       <c r="AH46" s="28"/>
       <c r="AI46" s="28"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="24"/>
-    </row>
-    <row r="47" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="29"/>
+      <c r="AL46" s="24"/>
+    </row>
+    <row r="47" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="27">
         <v>45</v>
       </c>
@@ -8043,10 +8256,11 @@
       <c r="AG47" s="28"/>
       <c r="AH47" s="28"/>
       <c r="AI47" s="28"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="24"/>
-    </row>
-    <row r="48" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ47" s="28"/>
+      <c r="AK47" s="29"/>
+      <c r="AL47" s="24"/>
+    </row>
+    <row r="48" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="27">
         <v>46</v>
       </c>
@@ -8084,10 +8298,11 @@
       <c r="AG48" s="28"/>
       <c r="AH48" s="28"/>
       <c r="AI48" s="28"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="24"/>
-    </row>
-    <row r="49" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="29"/>
+      <c r="AL48" s="24"/>
+    </row>
+    <row r="49" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="27">
         <v>47</v>
       </c>
@@ -8125,10 +8340,11 @@
       <c r="AG49" s="28"/>
       <c r="AH49" s="28"/>
       <c r="AI49" s="28"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="24"/>
-    </row>
-    <row r="50" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ49" s="28"/>
+      <c r="AK49" s="29"/>
+      <c r="AL49" s="24"/>
+    </row>
+    <row r="50" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
         <v>48</v>
       </c>
@@ -8166,10 +8382,11 @@
       <c r="AG50" s="28"/>
       <c r="AH50" s="28"/>
       <c r="AI50" s="28"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="24"/>
-    </row>
-    <row r="51" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="29"/>
+      <c r="AL50" s="24"/>
+    </row>
+    <row r="51" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="27">
         <v>49</v>
       </c>
@@ -8207,10 +8424,11 @@
       <c r="AG51" s="28"/>
       <c r="AH51" s="28"/>
       <c r="AI51" s="28"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="24"/>
-    </row>
-    <row r="52" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="29"/>
+      <c r="AL51" s="24"/>
+    </row>
+    <row r="52" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="27">
         <v>50</v>
       </c>
@@ -8248,10 +8466,11 @@
       <c r="AG52" s="28"/>
       <c r="AH52" s="28"/>
       <c r="AI52" s="28"/>
-      <c r="AJ52" s="29"/>
-      <c r="AK52" s="24"/>
-    </row>
-    <row r="53" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ52" s="28"/>
+      <c r="AK52" s="29"/>
+      <c r="AL52" s="24"/>
+    </row>
+    <row r="53" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
         <v>51</v>
       </c>
@@ -8289,10 +8508,11 @@
       <c r="AG53" s="28"/>
       <c r="AH53" s="28"/>
       <c r="AI53" s="28"/>
-      <c r="AJ53" s="29"/>
-      <c r="AK53" s="24"/>
-    </row>
-    <row r="54" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ53" s="28"/>
+      <c r="AK53" s="29"/>
+      <c r="AL53" s="24"/>
+    </row>
+    <row r="54" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="27">
         <v>52</v>
       </c>
@@ -8330,10 +8550,11 @@
       <c r="AG54" s="28"/>
       <c r="AH54" s="28"/>
       <c r="AI54" s="28"/>
-      <c r="AJ54" s="29"/>
-      <c r="AK54" s="24"/>
-    </row>
-    <row r="55" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="29"/>
+      <c r="AL54" s="24"/>
+    </row>
+    <row r="55" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="27">
         <v>53</v>
       </c>
@@ -8371,10 +8592,11 @@
       <c r="AG55" s="28"/>
       <c r="AH55" s="28"/>
       <c r="AI55" s="28"/>
-      <c r="AJ55" s="29"/>
-      <c r="AK55" s="24"/>
-    </row>
-    <row r="56" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ55" s="28"/>
+      <c r="AK55" s="29"/>
+      <c r="AL55" s="24"/>
+    </row>
+    <row r="56" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="27">
         <v>54</v>
       </c>
@@ -8412,10 +8634,11 @@
       <c r="AG56" s="28"/>
       <c r="AH56" s="28"/>
       <c r="AI56" s="28"/>
-      <c r="AJ56" s="29"/>
-      <c r="AK56" s="24"/>
-    </row>
-    <row r="57" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="29"/>
+      <c r="AL56" s="24"/>
+    </row>
+    <row r="57" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="27">
         <v>55</v>
       </c>
@@ -8453,10 +8676,11 @@
       <c r="AG57" s="28"/>
       <c r="AH57" s="28"/>
       <c r="AI57" s="28"/>
-      <c r="AJ57" s="29"/>
-      <c r="AK57" s="24"/>
-    </row>
-    <row r="58" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ57" s="28"/>
+      <c r="AK57" s="29"/>
+      <c r="AL57" s="24"/>
+    </row>
+    <row r="58" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="27">
         <v>56</v>
       </c>
@@ -8494,10 +8718,11 @@
       <c r="AG58" s="28"/>
       <c r="AH58" s="28"/>
       <c r="AI58" s="28"/>
-      <c r="AJ58" s="29"/>
-      <c r="AK58" s="24"/>
-    </row>
-    <row r="59" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ58" s="28"/>
+      <c r="AK58" s="29"/>
+      <c r="AL58" s="24"/>
+    </row>
+    <row r="59" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="27">
         <v>57</v>
       </c>
@@ -8535,10 +8760,11 @@
       <c r="AG59" s="28"/>
       <c r="AH59" s="28"/>
       <c r="AI59" s="28"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="24"/>
-    </row>
-    <row r="60" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ59" s="28"/>
+      <c r="AK59" s="29"/>
+      <c r="AL59" s="24"/>
+    </row>
+    <row r="60" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="27">
         <v>58</v>
       </c>
@@ -8576,10 +8802,11 @@
       <c r="AG60" s="28"/>
       <c r="AH60" s="28"/>
       <c r="AI60" s="28"/>
-      <c r="AJ60" s="29"/>
-      <c r="AK60" s="24"/>
-    </row>
-    <row r="61" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ60" s="28"/>
+      <c r="AK60" s="29"/>
+      <c r="AL60" s="24"/>
+    </row>
+    <row r="61" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="27">
         <v>59</v>
       </c>
@@ -8617,10 +8844,11 @@
       <c r="AG61" s="28"/>
       <c r="AH61" s="28"/>
       <c r="AI61" s="28"/>
-      <c r="AJ61" s="29"/>
-      <c r="AK61" s="24"/>
-    </row>
-    <row r="62" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ61" s="28"/>
+      <c r="AK61" s="29"/>
+      <c r="AL61" s="24"/>
+    </row>
+    <row r="62" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="27">
         <v>60</v>
       </c>
@@ -8658,10 +8886,11 @@
       <c r="AG62" s="28"/>
       <c r="AH62" s="28"/>
       <c r="AI62" s="28"/>
-      <c r="AJ62" s="29"/>
-      <c r="AK62" s="24"/>
-    </row>
-    <row r="63" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ62" s="28"/>
+      <c r="AK62" s="29"/>
+      <c r="AL62" s="24"/>
+    </row>
+    <row r="63" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="27">
         <v>61</v>
       </c>
@@ -8699,10 +8928,11 @@
       <c r="AG63" s="28"/>
       <c r="AH63" s="28"/>
       <c r="AI63" s="28"/>
-      <c r="AJ63" s="29"/>
-      <c r="AK63" s="24"/>
-    </row>
-    <row r="64" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ63" s="28"/>
+      <c r="AK63" s="29"/>
+      <c r="AL63" s="24"/>
+    </row>
+    <row r="64" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="27">
         <v>62</v>
       </c>
@@ -8740,10 +8970,11 @@
       <c r="AG64" s="28"/>
       <c r="AH64" s="28"/>
       <c r="AI64" s="28"/>
-      <c r="AJ64" s="29"/>
-      <c r="AK64" s="24"/>
-    </row>
-    <row r="65" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ64" s="28"/>
+      <c r="AK64" s="29"/>
+      <c r="AL64" s="24"/>
+    </row>
+    <row r="65" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="27">
         <v>63</v>
       </c>
@@ -8781,10 +9012,11 @@
       <c r="AG65" s="28"/>
       <c r="AH65" s="28"/>
       <c r="AI65" s="28"/>
-      <c r="AJ65" s="29"/>
-      <c r="AK65" s="24"/>
-    </row>
-    <row r="66" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ65" s="28"/>
+      <c r="AK65" s="29"/>
+      <c r="AL65" s="24"/>
+    </row>
+    <row r="66" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="27">
         <v>64</v>
       </c>
@@ -8822,10 +9054,11 @@
       <c r="AG66" s="28"/>
       <c r="AH66" s="28"/>
       <c r="AI66" s="28"/>
-      <c r="AJ66" s="29"/>
-      <c r="AK66" s="24"/>
-    </row>
-    <row r="67" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ66" s="28"/>
+      <c r="AK66" s="29"/>
+      <c r="AL66" s="24"/>
+    </row>
+    <row r="67" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="27">
         <v>65</v>
       </c>
@@ -8863,10 +9096,11 @@
       <c r="AG67" s="28"/>
       <c r="AH67" s="28"/>
       <c r="AI67" s="28"/>
-      <c r="AJ67" s="29"/>
-      <c r="AK67" s="24"/>
-    </row>
-    <row r="68" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ67" s="28"/>
+      <c r="AK67" s="29"/>
+      <c r="AL67" s="24"/>
+    </row>
+    <row r="68" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="27">
         <v>66</v>
       </c>
@@ -8904,10 +9138,11 @@
       <c r="AG68" s="28"/>
       <c r="AH68" s="28"/>
       <c r="AI68" s="28"/>
-      <c r="AJ68" s="29"/>
-      <c r="AK68" s="24"/>
-    </row>
-    <row r="69" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ68" s="28"/>
+      <c r="AK68" s="29"/>
+      <c r="AL68" s="24"/>
+    </row>
+    <row r="69" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="27">
         <v>67</v>
       </c>
@@ -8945,10 +9180,11 @@
       <c r="AG69" s="28"/>
       <c r="AH69" s="28"/>
       <c r="AI69" s="28"/>
-      <c r="AJ69" s="29"/>
-      <c r="AK69" s="24"/>
-    </row>
-    <row r="70" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ69" s="28"/>
+      <c r="AK69" s="29"/>
+      <c r="AL69" s="24"/>
+    </row>
+    <row r="70" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="27">
         <v>68</v>
       </c>
@@ -8986,10 +9222,11 @@
       <c r="AG70" s="28"/>
       <c r="AH70" s="28"/>
       <c r="AI70" s="28"/>
-      <c r="AJ70" s="29"/>
-      <c r="AK70" s="24"/>
-    </row>
-    <row r="71" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ70" s="28"/>
+      <c r="AK70" s="29"/>
+      <c r="AL70" s="24"/>
+    </row>
+    <row r="71" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="27">
         <v>69</v>
       </c>
@@ -9027,10 +9264,11 @@
       <c r="AG71" s="28"/>
       <c r="AH71" s="28"/>
       <c r="AI71" s="28"/>
-      <c r="AJ71" s="29"/>
-      <c r="AK71" s="24"/>
-    </row>
-    <row r="72" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ71" s="28"/>
+      <c r="AK71" s="29"/>
+      <c r="AL71" s="24"/>
+    </row>
+    <row r="72" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="27">
         <v>70</v>
       </c>
@@ -9068,10 +9306,11 @@
       <c r="AG72" s="28"/>
       <c r="AH72" s="28"/>
       <c r="AI72" s="28"/>
-      <c r="AJ72" s="29"/>
-      <c r="AK72" s="24"/>
-    </row>
-    <row r="73" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ72" s="28"/>
+      <c r="AK72" s="29"/>
+      <c r="AL72" s="24"/>
+    </row>
+    <row r="73" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="27">
         <v>71</v>
       </c>
@@ -9109,10 +9348,11 @@
       <c r="AG73" s="28"/>
       <c r="AH73" s="28"/>
       <c r="AI73" s="28"/>
-      <c r="AJ73" s="29"/>
-      <c r="AK73" s="24"/>
-    </row>
-    <row r="74" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ73" s="28"/>
+      <c r="AK73" s="29"/>
+      <c r="AL73" s="24"/>
+    </row>
+    <row r="74" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="27">
         <v>72</v>
       </c>
@@ -9150,10 +9390,11 @@
       <c r="AG74" s="28"/>
       <c r="AH74" s="28"/>
       <c r="AI74" s="28"/>
-      <c r="AJ74" s="29"/>
-      <c r="AK74" s="24"/>
-    </row>
-    <row r="75" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ74" s="28"/>
+      <c r="AK74" s="29"/>
+      <c r="AL74" s="24"/>
+    </row>
+    <row r="75" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="27">
         <v>73</v>
       </c>
@@ -9191,10 +9432,11 @@
       <c r="AG75" s="28"/>
       <c r="AH75" s="28"/>
       <c r="AI75" s="28"/>
-      <c r="AJ75" s="29"/>
-      <c r="AK75" s="24"/>
-    </row>
-    <row r="76" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ75" s="28"/>
+      <c r="AK75" s="29"/>
+      <c r="AL75" s="24"/>
+    </row>
+    <row r="76" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="27">
         <v>74</v>
       </c>
@@ -9232,10 +9474,11 @@
       <c r="AG76" s="28"/>
       <c r="AH76" s="28"/>
       <c r="AI76" s="28"/>
-      <c r="AJ76" s="29"/>
-      <c r="AK76" s="24"/>
-    </row>
-    <row r="77" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ76" s="28"/>
+      <c r="AK76" s="29"/>
+      <c r="AL76" s="24"/>
+    </row>
+    <row r="77" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="27">
         <v>75</v>
       </c>
@@ -9273,10 +9516,11 @@
       <c r="AG77" s="28"/>
       <c r="AH77" s="28"/>
       <c r="AI77" s="28"/>
-      <c r="AJ77" s="29"/>
-      <c r="AK77" s="24"/>
-    </row>
-    <row r="78" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ77" s="28"/>
+      <c r="AK77" s="29"/>
+      <c r="AL77" s="24"/>
+    </row>
+    <row r="78" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="27">
         <v>76</v>
       </c>
@@ -9314,10 +9558,11 @@
       <c r="AG78" s="28"/>
       <c r="AH78" s="28"/>
       <c r="AI78" s="28"/>
-      <c r="AJ78" s="29"/>
-      <c r="AK78" s="24"/>
-    </row>
-    <row r="79" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ78" s="28"/>
+      <c r="AK78" s="29"/>
+      <c r="AL78" s="24"/>
+    </row>
+    <row r="79" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="27">
         <v>77</v>
       </c>
@@ -9355,10 +9600,11 @@
       <c r="AG79" s="28"/>
       <c r="AH79" s="28"/>
       <c r="AI79" s="28"/>
-      <c r="AJ79" s="29"/>
-      <c r="AK79" s="24"/>
-    </row>
-    <row r="80" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ79" s="28"/>
+      <c r="AK79" s="29"/>
+      <c r="AL79" s="24"/>
+    </row>
+    <row r="80" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="27">
         <v>78</v>
       </c>
@@ -9396,10 +9642,11 @@
       <c r="AG80" s="28"/>
       <c r="AH80" s="28"/>
       <c r="AI80" s="28"/>
-      <c r="AJ80" s="29"/>
-      <c r="AK80" s="24"/>
-    </row>
-    <row r="81" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ80" s="28"/>
+      <c r="AK80" s="29"/>
+      <c r="AL80" s="24"/>
+    </row>
+    <row r="81" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="27">
         <v>79</v>
       </c>
@@ -9437,10 +9684,11 @@
       <c r="AG81" s="28"/>
       <c r="AH81" s="28"/>
       <c r="AI81" s="28"/>
-      <c r="AJ81" s="29"/>
-      <c r="AK81" s="24"/>
-    </row>
-    <row r="82" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ81" s="28"/>
+      <c r="AK81" s="29"/>
+      <c r="AL81" s="24"/>
+    </row>
+    <row r="82" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="27">
         <v>80</v>
       </c>
@@ -9478,10 +9726,11 @@
       <c r="AG82" s="28"/>
       <c r="AH82" s="28"/>
       <c r="AI82" s="28"/>
-      <c r="AJ82" s="29"/>
-      <c r="AK82" s="24"/>
-    </row>
-    <row r="83" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ82" s="28"/>
+      <c r="AK82" s="29"/>
+      <c r="AL82" s="24"/>
+    </row>
+    <row r="83" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="27">
         <v>81</v>
       </c>
@@ -9519,10 +9768,11 @@
       <c r="AG83" s="28"/>
       <c r="AH83" s="28"/>
       <c r="AI83" s="28"/>
-      <c r="AJ83" s="29"/>
-      <c r="AK83" s="24"/>
-    </row>
-    <row r="84" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ83" s="28"/>
+      <c r="AK83" s="29"/>
+      <c r="AL83" s="24"/>
+    </row>
+    <row r="84" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="27">
         <v>82</v>
       </c>
@@ -9560,10 +9810,11 @@
       <c r="AG84" s="28"/>
       <c r="AH84" s="28"/>
       <c r="AI84" s="28"/>
-      <c r="AJ84" s="29"/>
-      <c r="AK84" s="24"/>
-    </row>
-    <row r="85" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ84" s="28"/>
+      <c r="AK84" s="29"/>
+      <c r="AL84" s="24"/>
+    </row>
+    <row r="85" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="27">
         <v>83</v>
       </c>
@@ -9601,10 +9852,11 @@
       <c r="AG85" s="28"/>
       <c r="AH85" s="28"/>
       <c r="AI85" s="28"/>
-      <c r="AJ85" s="29"/>
-      <c r="AK85" s="24"/>
-    </row>
-    <row r="86" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ85" s="28"/>
+      <c r="AK85" s="29"/>
+      <c r="AL85" s="24"/>
+    </row>
+    <row r="86" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="27">
         <v>84</v>
       </c>
@@ -9642,10 +9894,11 @@
       <c r="AG86" s="28"/>
       <c r="AH86" s="28"/>
       <c r="AI86" s="28"/>
-      <c r="AJ86" s="29"/>
-      <c r="AK86" s="24"/>
-    </row>
-    <row r="87" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ86" s="28"/>
+      <c r="AK86" s="29"/>
+      <c r="AL86" s="24"/>
+    </row>
+    <row r="87" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="27">
         <v>85</v>
       </c>
@@ -9683,10 +9936,11 @@
       <c r="AG87" s="28"/>
       <c r="AH87" s="28"/>
       <c r="AI87" s="28"/>
-      <c r="AJ87" s="29"/>
-      <c r="AK87" s="24"/>
-    </row>
-    <row r="88" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ87" s="28"/>
+      <c r="AK87" s="29"/>
+      <c r="AL87" s="24"/>
+    </row>
+    <row r="88" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="27">
         <v>86</v>
       </c>
@@ -9724,10 +9978,11 @@
       <c r="AG88" s="28"/>
       <c r="AH88" s="28"/>
       <c r="AI88" s="28"/>
-      <c r="AJ88" s="29"/>
-      <c r="AK88" s="24"/>
-    </row>
-    <row r="89" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ88" s="28"/>
+      <c r="AK88" s="29"/>
+      <c r="AL88" s="24"/>
+    </row>
+    <row r="89" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="27">
         <v>87</v>
       </c>
@@ -9765,10 +10020,11 @@
       <c r="AG89" s="28"/>
       <c r="AH89" s="28"/>
       <c r="AI89" s="28"/>
-      <c r="AJ89" s="29"/>
-      <c r="AK89" s="24"/>
-    </row>
-    <row r="90" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ89" s="28"/>
+      <c r="AK89" s="29"/>
+      <c r="AL89" s="24"/>
+    </row>
+    <row r="90" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="27">
         <v>88</v>
       </c>
@@ -9806,10 +10062,11 @@
       <c r="AG90" s="28"/>
       <c r="AH90" s="28"/>
       <c r="AI90" s="28"/>
-      <c r="AJ90" s="29"/>
-      <c r="AK90" s="24"/>
-    </row>
-    <row r="91" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ90" s="28"/>
+      <c r="AK90" s="29"/>
+      <c r="AL90" s="24"/>
+    </row>
+    <row r="91" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="27">
         <v>89</v>
       </c>
@@ -9847,10 +10104,11 @@
       <c r="AG91" s="28"/>
       <c r="AH91" s="28"/>
       <c r="AI91" s="28"/>
-      <c r="AJ91" s="29"/>
-      <c r="AK91" s="24"/>
-    </row>
-    <row r="92" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ91" s="28"/>
+      <c r="AK91" s="29"/>
+      <c r="AL91" s="24"/>
+    </row>
+    <row r="92" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="27">
         <v>90</v>
       </c>
@@ -9888,10 +10146,11 @@
       <c r="AG92" s="28"/>
       <c r="AH92" s="28"/>
       <c r="AI92" s="28"/>
-      <c r="AJ92" s="29"/>
-      <c r="AK92" s="24"/>
-    </row>
-    <row r="93" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ92" s="28"/>
+      <c r="AK92" s="29"/>
+      <c r="AL92" s="24"/>
+    </row>
+    <row r="93" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="27">
         <v>91</v>
       </c>
@@ -9929,10 +10188,11 @@
       <c r="AG93" s="28"/>
       <c r="AH93" s="28"/>
       <c r="AI93" s="28"/>
-      <c r="AJ93" s="29"/>
-      <c r="AK93" s="24"/>
-    </row>
-    <row r="94" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ93" s="28"/>
+      <c r="AK93" s="29"/>
+      <c r="AL93" s="24"/>
+    </row>
+    <row r="94" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="27">
         <v>92</v>
       </c>
@@ -9970,10 +10230,11 @@
       <c r="AG94" s="28"/>
       <c r="AH94" s="28"/>
       <c r="AI94" s="28"/>
-      <c r="AJ94" s="29"/>
-      <c r="AK94" s="24"/>
-    </row>
-    <row r="95" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ94" s="28"/>
+      <c r="AK94" s="29"/>
+      <c r="AL94" s="24"/>
+    </row>
+    <row r="95" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="27">
         <v>93</v>
       </c>
@@ -10011,10 +10272,11 @@
       <c r="AG95" s="28"/>
       <c r="AH95" s="28"/>
       <c r="AI95" s="28"/>
-      <c r="AJ95" s="29"/>
-      <c r="AK95" s="24"/>
-    </row>
-    <row r="96" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ95" s="28"/>
+      <c r="AK95" s="29"/>
+      <c r="AL95" s="24"/>
+    </row>
+    <row r="96" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="27">
         <v>94</v>
       </c>
@@ -10052,10 +10314,11 @@
       <c r="AG96" s="28"/>
       <c r="AH96" s="28"/>
       <c r="AI96" s="28"/>
-      <c r="AJ96" s="29"/>
-      <c r="AK96" s="24"/>
-    </row>
-    <row r="97" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ96" s="28"/>
+      <c r="AK96" s="29"/>
+      <c r="AL96" s="24"/>
+    </row>
+    <row r="97" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="27">
         <v>95</v>
       </c>
@@ -10093,10 +10356,11 @@
       <c r="AG97" s="28"/>
       <c r="AH97" s="28"/>
       <c r="AI97" s="28"/>
-      <c r="AJ97" s="29"/>
-      <c r="AK97" s="24"/>
-    </row>
-    <row r="98" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ97" s="28"/>
+      <c r="AK97" s="29"/>
+      <c r="AL97" s="24"/>
+    </row>
+    <row r="98" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="27">
         <v>96</v>
       </c>
@@ -10134,10 +10398,11 @@
       <c r="AG98" s="28"/>
       <c r="AH98" s="28"/>
       <c r="AI98" s="28"/>
-      <c r="AJ98" s="29"/>
-      <c r="AK98" s="24"/>
-    </row>
-    <row r="99" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ98" s="28"/>
+      <c r="AK98" s="29"/>
+      <c r="AL98" s="24"/>
+    </row>
+    <row r="99" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="27">
         <v>97</v>
       </c>
@@ -10175,10 +10440,11 @@
       <c r="AG99" s="28"/>
       <c r="AH99" s="28"/>
       <c r="AI99" s="28"/>
-      <c r="AJ99" s="29"/>
-      <c r="AK99" s="24"/>
-    </row>
-    <row r="100" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ99" s="28"/>
+      <c r="AK99" s="29"/>
+      <c r="AL99" s="24"/>
+    </row>
+    <row r="100" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="27">
         <v>98</v>
       </c>
@@ -10216,10 +10482,11 @@
       <c r="AG100" s="28"/>
       <c r="AH100" s="28"/>
       <c r="AI100" s="28"/>
-      <c r="AJ100" s="29"/>
-      <c r="AK100" s="24"/>
-    </row>
-    <row r="101" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ100" s="28"/>
+      <c r="AK100" s="29"/>
+      <c r="AL100" s="24"/>
+    </row>
+    <row r="101" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="27">
         <v>99</v>
       </c>
@@ -10257,10 +10524,11 @@
       <c r="AG101" s="28"/>
       <c r="AH101" s="28"/>
       <c r="AI101" s="28"/>
-      <c r="AJ101" s="29"/>
-      <c r="AK101" s="24"/>
-    </row>
-    <row r="102" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ101" s="28"/>
+      <c r="AK101" s="29"/>
+      <c r="AL101" s="24"/>
+    </row>
+    <row r="102" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="27">
         <v>100</v>
       </c>
@@ -10298,10 +10566,11 @@
       <c r="AG102" s="28"/>
       <c r="AH102" s="28"/>
       <c r="AI102" s="28"/>
-      <c r="AJ102" s="29"/>
-      <c r="AK102" s="24"/>
-    </row>
-    <row r="103" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ102" s="28"/>
+      <c r="AK102" s="29"/>
+      <c r="AL102" s="24"/>
+    </row>
+    <row r="103" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="27">
         <v>101</v>
       </c>
@@ -10339,10 +10608,11 @@
       <c r="AG103" s="28"/>
       <c r="AH103" s="28"/>
       <c r="AI103" s="28"/>
-      <c r="AJ103" s="29"/>
-      <c r="AK103" s="24"/>
-    </row>
-    <row r="104" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ103" s="28"/>
+      <c r="AK103" s="29"/>
+      <c r="AL103" s="24"/>
+    </row>
+    <row r="104" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="27">
         <v>102</v>
       </c>
@@ -10380,10 +10650,11 @@
       <c r="AG104" s="28"/>
       <c r="AH104" s="28"/>
       <c r="AI104" s="28"/>
-      <c r="AJ104" s="29"/>
-      <c r="AK104" s="24"/>
-    </row>
-    <row r="105" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ104" s="28"/>
+      <c r="AK104" s="29"/>
+      <c r="AL104" s="24"/>
+    </row>
+    <row r="105" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="27">
         <v>103</v>
       </c>
@@ -10421,10 +10692,11 @@
       <c r="AG105" s="28"/>
       <c r="AH105" s="28"/>
       <c r="AI105" s="28"/>
-      <c r="AJ105" s="29"/>
-      <c r="AK105" s="24"/>
-    </row>
-    <row r="106" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ105" s="28"/>
+      <c r="AK105" s="29"/>
+      <c r="AL105" s="24"/>
+    </row>
+    <row r="106" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="27">
         <v>104</v>
       </c>
@@ -10462,10 +10734,11 @@
       <c r="AG106" s="28"/>
       <c r="AH106" s="28"/>
       <c r="AI106" s="28"/>
-      <c r="AJ106" s="29"/>
-      <c r="AK106" s="24"/>
-    </row>
-    <row r="107" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ106" s="28"/>
+      <c r="AK106" s="29"/>
+      <c r="AL106" s="24"/>
+    </row>
+    <row r="107" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="27">
         <v>105</v>
       </c>
@@ -10503,10 +10776,11 @@
       <c r="AG107" s="28"/>
       <c r="AH107" s="28"/>
       <c r="AI107" s="28"/>
-      <c r="AJ107" s="29"/>
-      <c r="AK107" s="24"/>
-    </row>
-    <row r="108" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ107" s="28"/>
+      <c r="AK107" s="29"/>
+      <c r="AL107" s="24"/>
+    </row>
+    <row r="108" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="27">
         <v>106</v>
       </c>
@@ -10544,10 +10818,11 @@
       <c r="AG108" s="28"/>
       <c r="AH108" s="28"/>
       <c r="AI108" s="28"/>
-      <c r="AJ108" s="29"/>
-      <c r="AK108" s="24"/>
-    </row>
-    <row r="109" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ108" s="28"/>
+      <c r="AK108" s="29"/>
+      <c r="AL108" s="24"/>
+    </row>
+    <row r="109" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="27">
         <v>107</v>
       </c>
@@ -10585,10 +10860,11 @@
       <c r="AG109" s="28"/>
       <c r="AH109" s="28"/>
       <c r="AI109" s="28"/>
-      <c r="AJ109" s="29"/>
-      <c r="AK109" s="24"/>
-    </row>
-    <row r="110" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ109" s="28"/>
+      <c r="AK109" s="29"/>
+      <c r="AL109" s="24"/>
+    </row>
+    <row r="110" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="27">
         <v>108</v>
       </c>
@@ -10626,10 +10902,11 @@
       <c r="AG110" s="28"/>
       <c r="AH110" s="28"/>
       <c r="AI110" s="28"/>
-      <c r="AJ110" s="29"/>
-      <c r="AK110" s="24"/>
-    </row>
-    <row r="111" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ110" s="28"/>
+      <c r="AK110" s="29"/>
+      <c r="AL110" s="24"/>
+    </row>
+    <row r="111" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="27">
         <v>109</v>
       </c>
@@ -10667,10 +10944,11 @@
       <c r="AG111" s="28"/>
       <c r="AH111" s="28"/>
       <c r="AI111" s="28"/>
-      <c r="AJ111" s="29"/>
-      <c r="AK111" s="24"/>
-    </row>
-    <row r="112" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ111" s="28"/>
+      <c r="AK111" s="29"/>
+      <c r="AL111" s="24"/>
+    </row>
+    <row r="112" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="27">
         <v>110</v>
       </c>
@@ -10708,10 +10986,11 @@
       <c r="AG112" s="28"/>
       <c r="AH112" s="28"/>
       <c r="AI112" s="28"/>
-      <c r="AJ112" s="29"/>
-      <c r="AK112" s="24"/>
-    </row>
-    <row r="113" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ112" s="28"/>
+      <c r="AK112" s="29"/>
+      <c r="AL112" s="24"/>
+    </row>
+    <row r="113" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="27">
         <v>111</v>
       </c>
@@ -10749,10 +11028,11 @@
       <c r="AG113" s="28"/>
       <c r="AH113" s="28"/>
       <c r="AI113" s="28"/>
-      <c r="AJ113" s="29"/>
-      <c r="AK113" s="24"/>
-    </row>
-    <row r="114" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ113" s="28"/>
+      <c r="AK113" s="29"/>
+      <c r="AL113" s="24"/>
+    </row>
+    <row r="114" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="27">
         <v>112</v>
       </c>
@@ -10790,10 +11070,11 @@
       <c r="AG114" s="28"/>
       <c r="AH114" s="28"/>
       <c r="AI114" s="28"/>
-      <c r="AJ114" s="29"/>
-      <c r="AK114" s="24"/>
-    </row>
-    <row r="115" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ114" s="28"/>
+      <c r="AK114" s="29"/>
+      <c r="AL114" s="24"/>
+    </row>
+    <row r="115" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="27">
         <v>113</v>
       </c>
@@ -10831,10 +11112,11 @@
       <c r="AG115" s="28"/>
       <c r="AH115" s="28"/>
       <c r="AI115" s="28"/>
-      <c r="AJ115" s="29"/>
-      <c r="AK115" s="24"/>
-    </row>
-    <row r="116" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ115" s="28"/>
+      <c r="AK115" s="29"/>
+      <c r="AL115" s="24"/>
+    </row>
+    <row r="116" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="27">
         <v>114</v>
       </c>
@@ -10872,10 +11154,11 @@
       <c r="AG116" s="28"/>
       <c r="AH116" s="28"/>
       <c r="AI116" s="28"/>
-      <c r="AJ116" s="29"/>
-      <c r="AK116" s="24"/>
-    </row>
-    <row r="117" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ116" s="28"/>
+      <c r="AK116" s="29"/>
+      <c r="AL116" s="24"/>
+    </row>
+    <row r="117" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="27">
         <v>115</v>
       </c>
@@ -10913,10 +11196,11 @@
       <c r="AG117" s="28"/>
       <c r="AH117" s="28"/>
       <c r="AI117" s="28"/>
-      <c r="AJ117" s="29"/>
-      <c r="AK117" s="24"/>
-    </row>
-    <row r="118" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ117" s="28"/>
+      <c r="AK117" s="29"/>
+      <c r="AL117" s="24"/>
+    </row>
+    <row r="118" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="27">
         <v>116</v>
       </c>
@@ -10954,10 +11238,11 @@
       <c r="AG118" s="28"/>
       <c r="AH118" s="28"/>
       <c r="AI118" s="28"/>
-      <c r="AJ118" s="29"/>
-      <c r="AK118" s="24"/>
-    </row>
-    <row r="119" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ118" s="28"/>
+      <c r="AK118" s="29"/>
+      <c r="AL118" s="24"/>
+    </row>
+    <row r="119" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="27">
         <v>117</v>
       </c>
@@ -10995,10 +11280,11 @@
       <c r="AG119" s="28"/>
       <c r="AH119" s="28"/>
       <c r="AI119" s="28"/>
-      <c r="AJ119" s="29"/>
-      <c r="AK119" s="24"/>
-    </row>
-    <row r="120" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ119" s="28"/>
+      <c r="AK119" s="29"/>
+      <c r="AL119" s="24"/>
+    </row>
+    <row r="120" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="27">
         <v>118</v>
       </c>
@@ -11036,10 +11322,11 @@
       <c r="AG120" s="28"/>
       <c r="AH120" s="28"/>
       <c r="AI120" s="28"/>
-      <c r="AJ120" s="29"/>
-      <c r="AK120" s="24"/>
-    </row>
-    <row r="121" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ120" s="28"/>
+      <c r="AK120" s="29"/>
+      <c r="AL120" s="24"/>
+    </row>
+    <row r="121" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="27">
         <v>119</v>
       </c>
@@ -11077,10 +11364,11 @@
       <c r="AG121" s="28"/>
       <c r="AH121" s="28"/>
       <c r="AI121" s="28"/>
-      <c r="AJ121" s="29"/>
-      <c r="AK121" s="24"/>
-    </row>
-    <row r="122" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ121" s="28"/>
+      <c r="AK121" s="29"/>
+      <c r="AL121" s="24"/>
+    </row>
+    <row r="122" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="27">
         <v>120</v>
       </c>
@@ -11118,10 +11406,11 @@
       <c r="AG122" s="28"/>
       <c r="AH122" s="28"/>
       <c r="AI122" s="28"/>
-      <c r="AJ122" s="29"/>
-      <c r="AK122" s="24"/>
-    </row>
-    <row r="123" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ122" s="28"/>
+      <c r="AK122" s="29"/>
+      <c r="AL122" s="24"/>
+    </row>
+    <row r="123" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="27">
         <v>121</v>
       </c>
@@ -11159,10 +11448,11 @@
       <c r="AG123" s="28"/>
       <c r="AH123" s="28"/>
       <c r="AI123" s="28"/>
-      <c r="AJ123" s="29"/>
-      <c r="AK123" s="24"/>
-    </row>
-    <row r="124" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ123" s="28"/>
+      <c r="AK123" s="29"/>
+      <c r="AL123" s="24"/>
+    </row>
+    <row r="124" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="27">
         <v>122</v>
       </c>
@@ -11200,10 +11490,11 @@
       <c r="AG124" s="28"/>
       <c r="AH124" s="28"/>
       <c r="AI124" s="28"/>
-      <c r="AJ124" s="29"/>
-      <c r="AK124" s="24"/>
-    </row>
-    <row r="125" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ124" s="28"/>
+      <c r="AK124" s="29"/>
+      <c r="AL124" s="24"/>
+    </row>
+    <row r="125" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="27">
         <v>123</v>
       </c>
@@ -11241,10 +11532,11 @@
       <c r="AG125" s="28"/>
       <c r="AH125" s="28"/>
       <c r="AI125" s="28"/>
-      <c r="AJ125" s="29"/>
-      <c r="AK125" s="24"/>
-    </row>
-    <row r="126" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ125" s="28"/>
+      <c r="AK125" s="29"/>
+      <c r="AL125" s="24"/>
+    </row>
+    <row r="126" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="27">
         <v>124</v>
       </c>
@@ -11282,10 +11574,11 @@
       <c r="AG126" s="28"/>
       <c r="AH126" s="28"/>
       <c r="AI126" s="28"/>
-      <c r="AJ126" s="29"/>
-      <c r="AK126" s="24"/>
-    </row>
-    <row r="127" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ126" s="28"/>
+      <c r="AK126" s="29"/>
+      <c r="AL126" s="24"/>
+    </row>
+    <row r="127" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="27">
         <v>125</v>
       </c>
@@ -11323,10 +11616,11 @@
       <c r="AG127" s="28"/>
       <c r="AH127" s="28"/>
       <c r="AI127" s="28"/>
-      <c r="AJ127" s="29"/>
-      <c r="AK127" s="24"/>
-    </row>
-    <row r="128" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ127" s="28"/>
+      <c r="AK127" s="29"/>
+      <c r="AL127" s="24"/>
+    </row>
+    <row r="128" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="27">
         <v>126</v>
       </c>
@@ -11364,10 +11658,11 @@
       <c r="AG128" s="28"/>
       <c r="AH128" s="28"/>
       <c r="AI128" s="28"/>
-      <c r="AJ128" s="29"/>
-      <c r="AK128" s="24"/>
-    </row>
-    <row r="129" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ128" s="28"/>
+      <c r="AK128" s="29"/>
+      <c r="AL128" s="24"/>
+    </row>
+    <row r="129" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="27">
         <v>127</v>
       </c>
@@ -11405,10 +11700,11 @@
       <c r="AG129" s="28"/>
       <c r="AH129" s="28"/>
       <c r="AI129" s="28"/>
-      <c r="AJ129" s="29"/>
-      <c r="AK129" s="24"/>
-    </row>
-    <row r="130" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ129" s="28"/>
+      <c r="AK129" s="29"/>
+      <c r="AL129" s="24"/>
+    </row>
+    <row r="130" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="27">
         <v>128</v>
       </c>
@@ -11446,10 +11742,11 @@
       <c r="AG130" s="28"/>
       <c r="AH130" s="28"/>
       <c r="AI130" s="28"/>
-      <c r="AJ130" s="29"/>
-      <c r="AK130" s="24"/>
-    </row>
-    <row r="131" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ130" s="28"/>
+      <c r="AK130" s="29"/>
+      <c r="AL130" s="24"/>
+    </row>
+    <row r="131" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="27">
         <v>129</v>
       </c>
@@ -11487,10 +11784,11 @@
       <c r="AG131" s="28"/>
       <c r="AH131" s="28"/>
       <c r="AI131" s="28"/>
-      <c r="AJ131" s="29"/>
-      <c r="AK131" s="24"/>
-    </row>
-    <row r="132" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ131" s="28"/>
+      <c r="AK131" s="29"/>
+      <c r="AL131" s="24"/>
+    </row>
+    <row r="132" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="27">
         <v>130</v>
       </c>
@@ -11528,10 +11826,11 @@
       <c r="AG132" s="28"/>
       <c r="AH132" s="28"/>
       <c r="AI132" s="28"/>
-      <c r="AJ132" s="29"/>
-      <c r="AK132" s="24"/>
-    </row>
-    <row r="133" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ132" s="28"/>
+      <c r="AK132" s="29"/>
+      <c r="AL132" s="24"/>
+    </row>
+    <row r="133" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="27">
         <v>131</v>
       </c>
@@ -11569,10 +11868,11 @@
       <c r="AG133" s="28"/>
       <c r="AH133" s="28"/>
       <c r="AI133" s="28"/>
-      <c r="AJ133" s="29"/>
-      <c r="AK133" s="24"/>
-    </row>
-    <row r="134" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ133" s="28"/>
+      <c r="AK133" s="29"/>
+      <c r="AL133" s="24"/>
+    </row>
+    <row r="134" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="27">
         <v>132</v>
       </c>
@@ -11610,10 +11910,11 @@
       <c r="AG134" s="28"/>
       <c r="AH134" s="28"/>
       <c r="AI134" s="28"/>
-      <c r="AJ134" s="29"/>
-      <c r="AK134" s="24"/>
-    </row>
-    <row r="135" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ134" s="28"/>
+      <c r="AK134" s="29"/>
+      <c r="AL134" s="24"/>
+    </row>
+    <row r="135" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="27">
         <v>133</v>
       </c>
@@ -11651,10 +11952,11 @@
       <c r="AG135" s="28"/>
       <c r="AH135" s="28"/>
       <c r="AI135" s="28"/>
-      <c r="AJ135" s="29"/>
-      <c r="AK135" s="24"/>
-    </row>
-    <row r="136" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ135" s="28"/>
+      <c r="AK135" s="29"/>
+      <c r="AL135" s="24"/>
+    </row>
+    <row r="136" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="27">
         <v>134</v>
       </c>
@@ -11692,10 +11994,11 @@
       <c r="AG136" s="28"/>
       <c r="AH136" s="28"/>
       <c r="AI136" s="28"/>
-      <c r="AJ136" s="29"/>
-      <c r="AK136" s="24"/>
-    </row>
-    <row r="137" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ136" s="28"/>
+      <c r="AK136" s="29"/>
+      <c r="AL136" s="24"/>
+    </row>
+    <row r="137" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="27">
         <v>135</v>
       </c>
@@ -11733,10 +12036,11 @@
       <c r="AG137" s="28"/>
       <c r="AH137" s="28"/>
       <c r="AI137" s="28"/>
-      <c r="AJ137" s="29"/>
-      <c r="AK137" s="24"/>
-    </row>
-    <row r="138" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ137" s="28"/>
+      <c r="AK137" s="29"/>
+      <c r="AL137" s="24"/>
+    </row>
+    <row r="138" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="27">
         <v>136</v>
       </c>
@@ -11774,10 +12078,11 @@
       <c r="AG138" s="28"/>
       <c r="AH138" s="28"/>
       <c r="AI138" s="28"/>
-      <c r="AJ138" s="29"/>
-      <c r="AK138" s="24"/>
-    </row>
-    <row r="139" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ138" s="28"/>
+      <c r="AK138" s="29"/>
+      <c r="AL138" s="24"/>
+    </row>
+    <row r="139" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="27">
         <v>137</v>
       </c>
@@ -11815,10 +12120,11 @@
       <c r="AG139" s="28"/>
       <c r="AH139" s="28"/>
       <c r="AI139" s="28"/>
-      <c r="AJ139" s="29"/>
-      <c r="AK139" s="24"/>
-    </row>
-    <row r="140" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ139" s="28"/>
+      <c r="AK139" s="29"/>
+      <c r="AL139" s="24"/>
+    </row>
+    <row r="140" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="27">
         <v>138</v>
       </c>
@@ -11856,10 +12162,11 @@
       <c r="AG140" s="28"/>
       <c r="AH140" s="28"/>
       <c r="AI140" s="28"/>
-      <c r="AJ140" s="29"/>
-      <c r="AK140" s="24"/>
-    </row>
-    <row r="141" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ140" s="28"/>
+      <c r="AK140" s="29"/>
+      <c r="AL140" s="24"/>
+    </row>
+    <row r="141" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="27">
         <v>139</v>
       </c>
@@ -11897,10 +12204,11 @@
       <c r="AG141" s="28"/>
       <c r="AH141" s="28"/>
       <c r="AI141" s="28"/>
-      <c r="AJ141" s="29"/>
-      <c r="AK141" s="24"/>
-    </row>
-    <row r="142" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ141" s="28"/>
+      <c r="AK141" s="29"/>
+      <c r="AL141" s="24"/>
+    </row>
+    <row r="142" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="27">
         <v>140</v>
       </c>
@@ -11938,10 +12246,11 @@
       <c r="AG142" s="28"/>
       <c r="AH142" s="28"/>
       <c r="AI142" s="28"/>
-      <c r="AJ142" s="29"/>
-      <c r="AK142" s="24"/>
-    </row>
-    <row r="143" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ142" s="28"/>
+      <c r="AK142" s="29"/>
+      <c r="AL142" s="24"/>
+    </row>
+    <row r="143" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="27">
         <v>141</v>
       </c>
@@ -11979,10 +12288,11 @@
       <c r="AG143" s="28"/>
       <c r="AH143" s="28"/>
       <c r="AI143" s="28"/>
-      <c r="AJ143" s="29"/>
-      <c r="AK143" s="24"/>
-    </row>
-    <row r="144" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ143" s="28"/>
+      <c r="AK143" s="29"/>
+      <c r="AL143" s="24"/>
+    </row>
+    <row r="144" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="27">
         <v>142</v>
       </c>
@@ -12020,10 +12330,11 @@
       <c r="AG144" s="28"/>
       <c r="AH144" s="28"/>
       <c r="AI144" s="28"/>
-      <c r="AJ144" s="29"/>
-      <c r="AK144" s="24"/>
-    </row>
-    <row r="145" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ144" s="28"/>
+      <c r="AK144" s="29"/>
+      <c r="AL144" s="24"/>
+    </row>
+    <row r="145" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="27">
         <v>143</v>
       </c>
@@ -12061,10 +12372,11 @@
       <c r="AG145" s="28"/>
       <c r="AH145" s="28"/>
       <c r="AI145" s="28"/>
-      <c r="AJ145" s="29"/>
-      <c r="AK145" s="24"/>
-    </row>
-    <row r="146" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ145" s="28"/>
+      <c r="AK145" s="29"/>
+      <c r="AL145" s="24"/>
+    </row>
+    <row r="146" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="27">
         <v>144</v>
       </c>
@@ -12102,10 +12414,11 @@
       <c r="AG146" s="28"/>
       <c r="AH146" s="28"/>
       <c r="AI146" s="28"/>
-      <c r="AJ146" s="29"/>
-      <c r="AK146" s="24"/>
-    </row>
-    <row r="147" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ146" s="28"/>
+      <c r="AK146" s="29"/>
+      <c r="AL146" s="24"/>
+    </row>
+    <row r="147" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="27">
         <v>145</v>
       </c>
@@ -12143,10 +12456,11 @@
       <c r="AG147" s="28"/>
       <c r="AH147" s="28"/>
       <c r="AI147" s="28"/>
-      <c r="AJ147" s="29"/>
-      <c r="AK147" s="24"/>
-    </row>
-    <row r="148" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ147" s="28"/>
+      <c r="AK147" s="29"/>
+      <c r="AL147" s="24"/>
+    </row>
+    <row r="148" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="27">
         <v>146</v>
       </c>
@@ -12184,10 +12498,11 @@
       <c r="AG148" s="28"/>
       <c r="AH148" s="28"/>
       <c r="AI148" s="28"/>
-      <c r="AJ148" s="29"/>
-      <c r="AK148" s="24"/>
-    </row>
-    <row r="149" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ148" s="28"/>
+      <c r="AK148" s="29"/>
+      <c r="AL148" s="24"/>
+    </row>
+    <row r="149" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="27">
         <v>147</v>
       </c>
@@ -12225,10 +12540,11 @@
       <c r="AG149" s="28"/>
       <c r="AH149" s="28"/>
       <c r="AI149" s="28"/>
-      <c r="AJ149" s="29"/>
-      <c r="AK149" s="24"/>
-    </row>
-    <row r="150" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ149" s="28"/>
+      <c r="AK149" s="29"/>
+      <c r="AL149" s="24"/>
+    </row>
+    <row r="150" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="27">
         <v>148</v>
       </c>
@@ -12266,10 +12582,11 @@
       <c r="AG150" s="28"/>
       <c r="AH150" s="28"/>
       <c r="AI150" s="28"/>
-      <c r="AJ150" s="29"/>
-      <c r="AK150" s="24"/>
-    </row>
-    <row r="151" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ150" s="28"/>
+      <c r="AK150" s="29"/>
+      <c r="AL150" s="24"/>
+    </row>
+    <row r="151" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="27">
         <v>149</v>
       </c>
@@ -12307,10 +12624,11 @@
       <c r="AG151" s="28"/>
       <c r="AH151" s="28"/>
       <c r="AI151" s="28"/>
-      <c r="AJ151" s="29"/>
-      <c r="AK151" s="24"/>
-    </row>
-    <row r="152" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ151" s="28"/>
+      <c r="AK151" s="29"/>
+      <c r="AL151" s="24"/>
+    </row>
+    <row r="152" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="27">
         <v>150</v>
       </c>
@@ -12348,10 +12666,11 @@
       <c r="AG152" s="28"/>
       <c r="AH152" s="28"/>
       <c r="AI152" s="28"/>
-      <c r="AJ152" s="29"/>
-      <c r="AK152" s="24"/>
-    </row>
-    <row r="153" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ152" s="28"/>
+      <c r="AK152" s="29"/>
+      <c r="AL152" s="24"/>
+    </row>
+    <row r="153" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="27">
         <v>151</v>
       </c>
@@ -12389,10 +12708,11 @@
       <c r="AG153" s="28"/>
       <c r="AH153" s="28"/>
       <c r="AI153" s="28"/>
-      <c r="AJ153" s="29"/>
-      <c r="AK153" s="24"/>
-    </row>
-    <row r="154" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ153" s="28"/>
+      <c r="AK153" s="29"/>
+      <c r="AL153" s="24"/>
+    </row>
+    <row r="154" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="27">
         <v>152</v>
       </c>
@@ -12430,10 +12750,11 @@
       <c r="AG154" s="28"/>
       <c r="AH154" s="28"/>
       <c r="AI154" s="28"/>
-      <c r="AJ154" s="29"/>
-      <c r="AK154" s="24"/>
-    </row>
-    <row r="155" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ154" s="28"/>
+      <c r="AK154" s="29"/>
+      <c r="AL154" s="24"/>
+    </row>
+    <row r="155" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="27">
         <v>153</v>
       </c>
@@ -12471,10 +12792,11 @@
       <c r="AG155" s="28"/>
       <c r="AH155" s="28"/>
       <c r="AI155" s="28"/>
-      <c r="AJ155" s="29"/>
-      <c r="AK155" s="24"/>
-    </row>
-    <row r="156" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ155" s="28"/>
+      <c r="AK155" s="29"/>
+      <c r="AL155" s="24"/>
+    </row>
+    <row r="156" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="27">
         <v>154</v>
       </c>
@@ -12512,10 +12834,11 @@
       <c r="AG156" s="28"/>
       <c r="AH156" s="28"/>
       <c r="AI156" s="28"/>
-      <c r="AJ156" s="29"/>
-      <c r="AK156" s="24"/>
-    </row>
-    <row r="157" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ156" s="28"/>
+      <c r="AK156" s="29"/>
+      <c r="AL156" s="24"/>
+    </row>
+    <row r="157" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="27">
         <v>155</v>
       </c>
@@ -12553,10 +12876,11 @@
       <c r="AG157" s="28"/>
       <c r="AH157" s="28"/>
       <c r="AI157" s="28"/>
-      <c r="AJ157" s="29"/>
-      <c r="AK157" s="24"/>
-    </row>
-    <row r="158" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ157" s="28"/>
+      <c r="AK157" s="29"/>
+      <c r="AL157" s="24"/>
+    </row>
+    <row r="158" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="27">
         <v>156</v>
       </c>
@@ -12594,10 +12918,11 @@
       <c r="AG158" s="28"/>
       <c r="AH158" s="28"/>
       <c r="AI158" s="28"/>
-      <c r="AJ158" s="29"/>
-      <c r="AK158" s="24"/>
-    </row>
-    <row r="159" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ158" s="28"/>
+      <c r="AK158" s="29"/>
+      <c r="AL158" s="24"/>
+    </row>
+    <row r="159" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="27">
         <v>157</v>
       </c>
@@ -12635,10 +12960,11 @@
       <c r="AG159" s="28"/>
       <c r="AH159" s="28"/>
       <c r="AI159" s="28"/>
-      <c r="AJ159" s="29"/>
-      <c r="AK159" s="24"/>
-    </row>
-    <row r="160" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ159" s="28"/>
+      <c r="AK159" s="29"/>
+      <c r="AL159" s="24"/>
+    </row>
+    <row r="160" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="27">
         <v>158</v>
       </c>
@@ -12676,10 +13002,11 @@
       <c r="AG160" s="28"/>
       <c r="AH160" s="28"/>
       <c r="AI160" s="28"/>
-      <c r="AJ160" s="29"/>
-      <c r="AK160" s="24"/>
-    </row>
-    <row r="161" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ160" s="28"/>
+      <c r="AK160" s="29"/>
+      <c r="AL160" s="24"/>
+    </row>
+    <row r="161" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="27">
         <v>159</v>
       </c>
@@ -12717,10 +13044,11 @@
       <c r="AG161" s="28"/>
       <c r="AH161" s="28"/>
       <c r="AI161" s="28"/>
-      <c r="AJ161" s="29"/>
-      <c r="AK161" s="24"/>
-    </row>
-    <row r="162" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ161" s="28"/>
+      <c r="AK161" s="29"/>
+      <c r="AL161" s="24"/>
+    </row>
+    <row r="162" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="27">
         <v>160</v>
       </c>
@@ -12758,10 +13086,11 @@
       <c r="AG162" s="28"/>
       <c r="AH162" s="28"/>
       <c r="AI162" s="28"/>
-      <c r="AJ162" s="29"/>
-      <c r="AK162" s="24"/>
-    </row>
-    <row r="163" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ162" s="28"/>
+      <c r="AK162" s="29"/>
+      <c r="AL162" s="24"/>
+    </row>
+    <row r="163" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="27">
         <v>161</v>
       </c>
@@ -12799,10 +13128,11 @@
       <c r="AG163" s="28"/>
       <c r="AH163" s="28"/>
       <c r="AI163" s="28"/>
-      <c r="AJ163" s="29"/>
-      <c r="AK163" s="24"/>
-    </row>
-    <row r="164" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ163" s="28"/>
+      <c r="AK163" s="29"/>
+      <c r="AL163" s="24"/>
+    </row>
+    <row r="164" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="27">
         <v>162</v>
       </c>
@@ -12840,10 +13170,11 @@
       <c r="AG164" s="28"/>
       <c r="AH164" s="28"/>
       <c r="AI164" s="28"/>
-      <c r="AJ164" s="29"/>
-      <c r="AK164" s="24"/>
-    </row>
-    <row r="165" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ164" s="28"/>
+      <c r="AK164" s="29"/>
+      <c r="AL164" s="24"/>
+    </row>
+    <row r="165" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="27">
         <v>163</v>
       </c>
@@ -12881,10 +13212,11 @@
       <c r="AG165" s="28"/>
       <c r="AH165" s="28"/>
       <c r="AI165" s="28"/>
-      <c r="AJ165" s="29"/>
-      <c r="AK165" s="24"/>
-    </row>
-    <row r="166" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ165" s="28"/>
+      <c r="AK165" s="29"/>
+      <c r="AL165" s="24"/>
+    </row>
+    <row r="166" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="27">
         <v>164</v>
       </c>
@@ -12922,10 +13254,11 @@
       <c r="AG166" s="28"/>
       <c r="AH166" s="28"/>
       <c r="AI166" s="28"/>
-      <c r="AJ166" s="29"/>
-      <c r="AK166" s="24"/>
-    </row>
-    <row r="167" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ166" s="28"/>
+      <c r="AK166" s="29"/>
+      <c r="AL166" s="24"/>
+    </row>
+    <row r="167" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="27">
         <v>165</v>
       </c>
@@ -12963,10 +13296,11 @@
       <c r="AG167" s="28"/>
       <c r="AH167" s="28"/>
       <c r="AI167" s="28"/>
-      <c r="AJ167" s="29"/>
-      <c r="AK167" s="24"/>
-    </row>
-    <row r="168" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ167" s="28"/>
+      <c r="AK167" s="29"/>
+      <c r="AL167" s="24"/>
+    </row>
+    <row r="168" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="27">
         <v>166</v>
       </c>
@@ -13004,10 +13338,11 @@
       <c r="AG168" s="28"/>
       <c r="AH168" s="28"/>
       <c r="AI168" s="28"/>
-      <c r="AJ168" s="29"/>
-      <c r="AK168" s="24"/>
-    </row>
-    <row r="169" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ168" s="28"/>
+      <c r="AK168" s="29"/>
+      <c r="AL168" s="24"/>
+    </row>
+    <row r="169" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="27">
         <v>167</v>
       </c>
@@ -13045,10 +13380,11 @@
       <c r="AG169" s="28"/>
       <c r="AH169" s="28"/>
       <c r="AI169" s="28"/>
-      <c r="AJ169" s="29"/>
-      <c r="AK169" s="24"/>
-    </row>
-    <row r="170" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ169" s="28"/>
+      <c r="AK169" s="29"/>
+      <c r="AL169" s="24"/>
+    </row>
+    <row r="170" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="27">
         <v>168</v>
       </c>
@@ -13086,10 +13422,11 @@
       <c r="AG170" s="28"/>
       <c r="AH170" s="28"/>
       <c r="AI170" s="28"/>
-      <c r="AJ170" s="29"/>
-      <c r="AK170" s="24"/>
-    </row>
-    <row r="171" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ170" s="28"/>
+      <c r="AK170" s="29"/>
+      <c r="AL170" s="24"/>
+    </row>
+    <row r="171" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="27">
         <v>169</v>
       </c>
@@ -13127,10 +13464,11 @@
       <c r="AG171" s="28"/>
       <c r="AH171" s="28"/>
       <c r="AI171" s="28"/>
-      <c r="AJ171" s="29"/>
-      <c r="AK171" s="24"/>
-    </row>
-    <row r="172" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ171" s="28"/>
+      <c r="AK171" s="29"/>
+      <c r="AL171" s="24"/>
+    </row>
+    <row r="172" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="27">
         <v>170</v>
       </c>
@@ -13168,10 +13506,11 @@
       <c r="AG172" s="28"/>
       <c r="AH172" s="28"/>
       <c r="AI172" s="28"/>
-      <c r="AJ172" s="29"/>
-      <c r="AK172" s="24"/>
-    </row>
-    <row r="173" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ172" s="28"/>
+      <c r="AK172" s="29"/>
+      <c r="AL172" s="24"/>
+    </row>
+    <row r="173" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="27">
         <v>171</v>
       </c>
@@ -13209,10 +13548,11 @@
       <c r="AG173" s="28"/>
       <c r="AH173" s="28"/>
       <c r="AI173" s="28"/>
-      <c r="AJ173" s="29"/>
-      <c r="AK173" s="24"/>
-    </row>
-    <row r="174" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ173" s="28"/>
+      <c r="AK173" s="29"/>
+      <c r="AL173" s="24"/>
+    </row>
+    <row r="174" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="27">
         <v>172</v>
       </c>
@@ -13250,10 +13590,11 @@
       <c r="AG174" s="28"/>
       <c r="AH174" s="28"/>
       <c r="AI174" s="28"/>
-      <c r="AJ174" s="29"/>
-      <c r="AK174" s="24"/>
-    </row>
-    <row r="175" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ174" s="28"/>
+      <c r="AK174" s="29"/>
+      <c r="AL174" s="24"/>
+    </row>
+    <row r="175" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="27">
         <v>173</v>
       </c>
@@ -13291,10 +13632,11 @@
       <c r="AG175" s="28"/>
       <c r="AH175" s="28"/>
       <c r="AI175" s="28"/>
-      <c r="AJ175" s="29"/>
-      <c r="AK175" s="24"/>
-    </row>
-    <row r="176" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ175" s="28"/>
+      <c r="AK175" s="29"/>
+      <c r="AL175" s="24"/>
+    </row>
+    <row r="176" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="27">
         <v>174</v>
       </c>
@@ -13332,10 +13674,11 @@
       <c r="AG176" s="28"/>
       <c r="AH176" s="28"/>
       <c r="AI176" s="28"/>
-      <c r="AJ176" s="29"/>
-      <c r="AK176" s="24"/>
-    </row>
-    <row r="177" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ176" s="28"/>
+      <c r="AK176" s="29"/>
+      <c r="AL176" s="24"/>
+    </row>
+    <row r="177" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="27">
         <v>175</v>
       </c>
@@ -13373,10 +13716,11 @@
       <c r="AG177" s="28"/>
       <c r="AH177" s="28"/>
       <c r="AI177" s="28"/>
-      <c r="AJ177" s="29"/>
-      <c r="AK177" s="24"/>
-    </row>
-    <row r="178" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ177" s="28"/>
+      <c r="AK177" s="29"/>
+      <c r="AL177" s="24"/>
+    </row>
+    <row r="178" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="27">
         <v>176</v>
       </c>
@@ -13414,10 +13758,11 @@
       <c r="AG178" s="28"/>
       <c r="AH178" s="28"/>
       <c r="AI178" s="28"/>
-      <c r="AJ178" s="29"/>
-      <c r="AK178" s="24"/>
-    </row>
-    <row r="179" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ178" s="28"/>
+      <c r="AK178" s="29"/>
+      <c r="AL178" s="24"/>
+    </row>
+    <row r="179" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="27">
         <v>177</v>
       </c>
@@ -13455,10 +13800,11 @@
       <c r="AG179" s="28"/>
       <c r="AH179" s="28"/>
       <c r="AI179" s="28"/>
-      <c r="AJ179" s="29"/>
-      <c r="AK179" s="24"/>
-    </row>
-    <row r="180" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ179" s="28"/>
+      <c r="AK179" s="29"/>
+      <c r="AL179" s="24"/>
+    </row>
+    <row r="180" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="27">
         <v>178</v>
       </c>
@@ -13496,10 +13842,11 @@
       <c r="AG180" s="28"/>
       <c r="AH180" s="28"/>
       <c r="AI180" s="28"/>
-      <c r="AJ180" s="29"/>
-      <c r="AK180" s="24"/>
-    </row>
-    <row r="181" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ180" s="28"/>
+      <c r="AK180" s="29"/>
+      <c r="AL180" s="24"/>
+    </row>
+    <row r="181" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="27">
         <v>179</v>
       </c>
@@ -13537,10 +13884,11 @@
       <c r="AG181" s="28"/>
       <c r="AH181" s="28"/>
       <c r="AI181" s="28"/>
-      <c r="AJ181" s="29"/>
-      <c r="AK181" s="24"/>
-    </row>
-    <row r="182" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ181" s="28"/>
+      <c r="AK181" s="29"/>
+      <c r="AL181" s="24"/>
+    </row>
+    <row r="182" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="27">
         <v>180</v>
       </c>
@@ -13578,10 +13926,11 @@
       <c r="AG182" s="28"/>
       <c r="AH182" s="28"/>
       <c r="AI182" s="28"/>
-      <c r="AJ182" s="29"/>
-      <c r="AK182" s="24"/>
-    </row>
-    <row r="183" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ182" s="28"/>
+      <c r="AK182" s="29"/>
+      <c r="AL182" s="24"/>
+    </row>
+    <row r="183" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="27">
         <v>181</v>
       </c>
@@ -13619,10 +13968,11 @@
       <c r="AG183" s="28"/>
       <c r="AH183" s="28"/>
       <c r="AI183" s="28"/>
-      <c r="AJ183" s="29"/>
-      <c r="AK183" s="24"/>
-    </row>
-    <row r="184" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ183" s="28"/>
+      <c r="AK183" s="29"/>
+      <c r="AL183" s="24"/>
+    </row>
+    <row r="184" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="27">
         <v>182</v>
       </c>
@@ -13660,10 +14010,11 @@
       <c r="AG184" s="28"/>
       <c r="AH184" s="28"/>
       <c r="AI184" s="28"/>
-      <c r="AJ184" s="29"/>
-      <c r="AK184" s="24"/>
-    </row>
-    <row r="185" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ184" s="28"/>
+      <c r="AK184" s="29"/>
+      <c r="AL184" s="24"/>
+    </row>
+    <row r="185" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="27">
         <v>183</v>
       </c>
@@ -13701,10 +14052,11 @@
       <c r="AG185" s="28"/>
       <c r="AH185" s="28"/>
       <c r="AI185" s="28"/>
-      <c r="AJ185" s="29"/>
-      <c r="AK185" s="24"/>
-    </row>
-    <row r="186" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ185" s="28"/>
+      <c r="AK185" s="29"/>
+      <c r="AL185" s="24"/>
+    </row>
+    <row r="186" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="27">
         <v>184</v>
       </c>
@@ -13742,10 +14094,11 @@
       <c r="AG186" s="28"/>
       <c r="AH186" s="28"/>
       <c r="AI186" s="28"/>
-      <c r="AJ186" s="29"/>
-      <c r="AK186" s="24"/>
-    </row>
-    <row r="187" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ186" s="28"/>
+      <c r="AK186" s="29"/>
+      <c r="AL186" s="24"/>
+    </row>
+    <row r="187" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="27">
         <v>185</v>
       </c>
@@ -13783,10 +14136,11 @@
       <c r="AG187" s="28"/>
       <c r="AH187" s="28"/>
       <c r="AI187" s="28"/>
-      <c r="AJ187" s="29"/>
-      <c r="AK187" s="24"/>
-    </row>
-    <row r="188" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ187" s="28"/>
+      <c r="AK187" s="29"/>
+      <c r="AL187" s="24"/>
+    </row>
+    <row r="188" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="27">
         <v>186</v>
       </c>
@@ -13824,10 +14178,11 @@
       <c r="AG188" s="28"/>
       <c r="AH188" s="28"/>
       <c r="AI188" s="28"/>
-      <c r="AJ188" s="29"/>
-      <c r="AK188" s="24"/>
-    </row>
-    <row r="189" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ188" s="28"/>
+      <c r="AK188" s="29"/>
+      <c r="AL188" s="24"/>
+    </row>
+    <row r="189" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="27">
         <v>187</v>
       </c>
@@ -13865,10 +14220,11 @@
       <c r="AG189" s="28"/>
       <c r="AH189" s="28"/>
       <c r="AI189" s="28"/>
-      <c r="AJ189" s="29"/>
-      <c r="AK189" s="24"/>
-    </row>
-    <row r="190" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ189" s="28"/>
+      <c r="AK189" s="29"/>
+      <c r="AL189" s="24"/>
+    </row>
+    <row r="190" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="27">
         <v>188</v>
       </c>
@@ -13906,10 +14262,11 @@
       <c r="AG190" s="28"/>
       <c r="AH190" s="28"/>
       <c r="AI190" s="28"/>
-      <c r="AJ190" s="29"/>
-      <c r="AK190" s="24"/>
-    </row>
-    <row r="191" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ190" s="28"/>
+      <c r="AK190" s="29"/>
+      <c r="AL190" s="24"/>
+    </row>
+    <row r="191" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="27">
         <v>189</v>
       </c>
@@ -13947,10 +14304,11 @@
       <c r="AG191" s="28"/>
       <c r="AH191" s="28"/>
       <c r="AI191" s="28"/>
-      <c r="AJ191" s="29"/>
-      <c r="AK191" s="24"/>
-    </row>
-    <row r="192" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ191" s="28"/>
+      <c r="AK191" s="29"/>
+      <c r="AL191" s="24"/>
+    </row>
+    <row r="192" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="27">
         <v>190</v>
       </c>
@@ -13988,10 +14346,11 @@
       <c r="AG192" s="28"/>
       <c r="AH192" s="28"/>
       <c r="AI192" s="28"/>
-      <c r="AJ192" s="29"/>
-      <c r="AK192" s="24"/>
-    </row>
-    <row r="193" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ192" s="28"/>
+      <c r="AK192" s="29"/>
+      <c r="AL192" s="24"/>
+    </row>
+    <row r="193" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="27">
         <v>191</v>
       </c>
@@ -14029,10 +14388,11 @@
       <c r="AG193" s="28"/>
       <c r="AH193" s="28"/>
       <c r="AI193" s="28"/>
-      <c r="AJ193" s="29"/>
-      <c r="AK193" s="24"/>
-    </row>
-    <row r="194" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ193" s="28"/>
+      <c r="AK193" s="29"/>
+      <c r="AL193" s="24"/>
+    </row>
+    <row r="194" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="27">
         <v>192</v>
       </c>
@@ -14070,10 +14430,11 @@
       <c r="AG194" s="28"/>
       <c r="AH194" s="28"/>
       <c r="AI194" s="28"/>
-      <c r="AJ194" s="29"/>
-      <c r="AK194" s="24"/>
-    </row>
-    <row r="195" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ194" s="28"/>
+      <c r="AK194" s="29"/>
+      <c r="AL194" s="24"/>
+    </row>
+    <row r="195" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="27">
         <v>193</v>
       </c>
@@ -14111,10 +14472,11 @@
       <c r="AG195" s="28"/>
       <c r="AH195" s="28"/>
       <c r="AI195" s="28"/>
-      <c r="AJ195" s="29"/>
-      <c r="AK195" s="24"/>
-    </row>
-    <row r="196" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ195" s="28"/>
+      <c r="AK195" s="29"/>
+      <c r="AL195" s="24"/>
+    </row>
+    <row r="196" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="27">
         <v>194</v>
       </c>
@@ -14152,10 +14514,11 @@
       <c r="AG196" s="28"/>
       <c r="AH196" s="28"/>
       <c r="AI196" s="28"/>
-      <c r="AJ196" s="29"/>
-      <c r="AK196" s="24"/>
-    </row>
-    <row r="197" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ196" s="28"/>
+      <c r="AK196" s="29"/>
+      <c r="AL196" s="24"/>
+    </row>
+    <row r="197" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="27">
         <v>195</v>
       </c>
@@ -14193,10 +14556,11 @@
       <c r="AG197" s="28"/>
       <c r="AH197" s="28"/>
       <c r="AI197" s="28"/>
-      <c r="AJ197" s="29"/>
-      <c r="AK197" s="24"/>
-    </row>
-    <row r="198" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ197" s="28"/>
+      <c r="AK197" s="29"/>
+      <c r="AL197" s="24"/>
+    </row>
+    <row r="198" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="27">
         <v>196</v>
       </c>
@@ -14234,10 +14598,11 @@
       <c r="AG198" s="28"/>
       <c r="AH198" s="28"/>
       <c r="AI198" s="28"/>
-      <c r="AJ198" s="29"/>
-      <c r="AK198" s="24"/>
-    </row>
-    <row r="199" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ198" s="28"/>
+      <c r="AK198" s="29"/>
+      <c r="AL198" s="24"/>
+    </row>
+    <row r="199" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="27">
         <v>197</v>
       </c>
@@ -14275,10 +14640,11 @@
       <c r="AG199" s="28"/>
       <c r="AH199" s="28"/>
       <c r="AI199" s="28"/>
-      <c r="AJ199" s="29"/>
-      <c r="AK199" s="24"/>
-    </row>
-    <row r="200" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ199" s="28"/>
+      <c r="AK199" s="29"/>
+      <c r="AL199" s="24"/>
+    </row>
+    <row r="200" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="27">
         <v>198</v>
       </c>
@@ -14316,10 +14682,11 @@
       <c r="AG200" s="28"/>
       <c r="AH200" s="28"/>
       <c r="AI200" s="28"/>
-      <c r="AJ200" s="29"/>
-      <c r="AK200" s="24"/>
-    </row>
-    <row r="201" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ200" s="28"/>
+      <c r="AK200" s="29"/>
+      <c r="AL200" s="24"/>
+    </row>
+    <row r="201" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="27">
         <v>199</v>
       </c>
@@ -14357,10 +14724,11 @@
       <c r="AG201" s="28"/>
       <c r="AH201" s="28"/>
       <c r="AI201" s="28"/>
-      <c r="AJ201" s="29"/>
-      <c r="AK201" s="24"/>
-    </row>
-    <row r="202" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ201" s="28"/>
+      <c r="AK201" s="29"/>
+      <c r="AL201" s="24"/>
+    </row>
+    <row r="202" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="27">
         <v>200</v>
       </c>
@@ -14398,10 +14766,11 @@
       <c r="AG202" s="28"/>
       <c r="AH202" s="28"/>
       <c r="AI202" s="28"/>
-      <c r="AJ202" s="29"/>
-      <c r="AK202" s="24"/>
-    </row>
-    <row r="203" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ202" s="28"/>
+      <c r="AK202" s="29"/>
+      <c r="AL202" s="24"/>
+    </row>
+    <row r="203" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="27">
         <v>201</v>
       </c>
@@ -14439,10 +14808,11 @@
       <c r="AG203" s="28"/>
       <c r="AH203" s="28"/>
       <c r="AI203" s="28"/>
-      <c r="AJ203" s="29"/>
-      <c r="AK203" s="24"/>
-    </row>
-    <row r="204" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ203" s="28"/>
+      <c r="AK203" s="29"/>
+      <c r="AL203" s="24"/>
+    </row>
+    <row r="204" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="27">
         <v>202</v>
       </c>
@@ -14480,10 +14850,11 @@
       <c r="AG204" s="28"/>
       <c r="AH204" s="28"/>
       <c r="AI204" s="28"/>
-      <c r="AJ204" s="29"/>
-      <c r="AK204" s="24"/>
-    </row>
-    <row r="205" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ204" s="28"/>
+      <c r="AK204" s="29"/>
+      <c r="AL204" s="24"/>
+    </row>
+    <row r="205" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="27">
         <v>203</v>
       </c>
@@ -14521,10 +14892,11 @@
       <c r="AG205" s="28"/>
       <c r="AH205" s="28"/>
       <c r="AI205" s="28"/>
-      <c r="AJ205" s="29"/>
-      <c r="AK205" s="24"/>
-    </row>
-    <row r="206" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ205" s="28"/>
+      <c r="AK205" s="29"/>
+      <c r="AL205" s="24"/>
+    </row>
+    <row r="206" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="27">
         <v>204</v>
       </c>
@@ -14562,10 +14934,11 @@
       <c r="AG206" s="28"/>
       <c r="AH206" s="28"/>
       <c r="AI206" s="28"/>
-      <c r="AJ206" s="29"/>
-      <c r="AK206" s="24"/>
-    </row>
-    <row r="207" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ206" s="28"/>
+      <c r="AK206" s="29"/>
+      <c r="AL206" s="24"/>
+    </row>
+    <row r="207" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="27">
         <v>205</v>
       </c>
@@ -14603,10 +14976,11 @@
       <c r="AG207" s="28"/>
       <c r="AH207" s="28"/>
       <c r="AI207" s="28"/>
-      <c r="AJ207" s="29"/>
-      <c r="AK207" s="24"/>
-    </row>
-    <row r="208" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ207" s="28"/>
+      <c r="AK207" s="29"/>
+      <c r="AL207" s="24"/>
+    </row>
+    <row r="208" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="27">
         <v>206</v>
       </c>
@@ -14644,10 +15018,11 @@
       <c r="AG208" s="28"/>
       <c r="AH208" s="28"/>
       <c r="AI208" s="28"/>
-      <c r="AJ208" s="29"/>
-      <c r="AK208" s="24"/>
-    </row>
-    <row r="209" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ208" s="28"/>
+      <c r="AK208" s="29"/>
+      <c r="AL208" s="24"/>
+    </row>
+    <row r="209" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="27">
         <v>207</v>
       </c>
@@ -14685,10 +15060,11 @@
       <c r="AG209" s="28"/>
       <c r="AH209" s="28"/>
       <c r="AI209" s="28"/>
-      <c r="AJ209" s="29"/>
-      <c r="AK209" s="24"/>
-    </row>
-    <row r="210" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ209" s="28"/>
+      <c r="AK209" s="29"/>
+      <c r="AL209" s="24"/>
+    </row>
+    <row r="210" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="27">
         <v>208</v>
       </c>
@@ -14726,10 +15102,11 @@
       <c r="AG210" s="28"/>
       <c r="AH210" s="28"/>
       <c r="AI210" s="28"/>
-      <c r="AJ210" s="29"/>
-      <c r="AK210" s="24"/>
-    </row>
-    <row r="211" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ210" s="28"/>
+      <c r="AK210" s="29"/>
+      <c r="AL210" s="24"/>
+    </row>
+    <row r="211" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="27">
         <v>209</v>
       </c>
@@ -14767,10 +15144,11 @@
       <c r="AG211" s="28"/>
       <c r="AH211" s="28"/>
       <c r="AI211" s="28"/>
-      <c r="AJ211" s="29"/>
-      <c r="AK211" s="24"/>
-    </row>
-    <row r="212" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ211" s="28"/>
+      <c r="AK211" s="29"/>
+      <c r="AL211" s="24"/>
+    </row>
+    <row r="212" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="27">
         <v>210</v>
       </c>
@@ -14808,10 +15186,11 @@
       <c r="AG212" s="28"/>
       <c r="AH212" s="28"/>
       <c r="AI212" s="28"/>
-      <c r="AJ212" s="29"/>
-      <c r="AK212" s="24"/>
-    </row>
-    <row r="213" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ212" s="28"/>
+      <c r="AK212" s="29"/>
+      <c r="AL212" s="24"/>
+    </row>
+    <row r="213" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="27">
         <v>211</v>
       </c>
@@ -14849,10 +15228,11 @@
       <c r="AG213" s="28"/>
       <c r="AH213" s="28"/>
       <c r="AI213" s="28"/>
-      <c r="AJ213" s="29"/>
-      <c r="AK213" s="24"/>
-    </row>
-    <row r="214" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ213" s="28"/>
+      <c r="AK213" s="29"/>
+      <c r="AL213" s="24"/>
+    </row>
+    <row r="214" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="27">
         <v>212</v>
       </c>
@@ -14890,10 +15270,11 @@
       <c r="AG214" s="28"/>
       <c r="AH214" s="28"/>
       <c r="AI214" s="28"/>
-      <c r="AJ214" s="29"/>
-      <c r="AK214" s="24"/>
-    </row>
-    <row r="215" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ214" s="28"/>
+      <c r="AK214" s="29"/>
+      <c r="AL214" s="24"/>
+    </row>
+    <row r="215" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="27">
         <v>213</v>
       </c>
@@ -14931,10 +15312,11 @@
       <c r="AG215" s="28"/>
       <c r="AH215" s="28"/>
       <c r="AI215" s="28"/>
-      <c r="AJ215" s="29"/>
-      <c r="AK215" s="24"/>
-    </row>
-    <row r="216" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ215" s="28"/>
+      <c r="AK215" s="29"/>
+      <c r="AL215" s="24"/>
+    </row>
+    <row r="216" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="27">
         <v>214</v>
       </c>
@@ -14972,10 +15354,11 @@
       <c r="AG216" s="28"/>
       <c r="AH216" s="28"/>
       <c r="AI216" s="28"/>
-      <c r="AJ216" s="29"/>
-      <c r="AK216" s="24"/>
-    </row>
-    <row r="217" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ216" s="28"/>
+      <c r="AK216" s="29"/>
+      <c r="AL216" s="24"/>
+    </row>
+    <row r="217" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="27">
         <v>215</v>
       </c>
@@ -15013,10 +15396,11 @@
       <c r="AG217" s="28"/>
       <c r="AH217" s="28"/>
       <c r="AI217" s="28"/>
-      <c r="AJ217" s="29"/>
-      <c r="AK217" s="24"/>
-    </row>
-    <row r="218" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ217" s="28"/>
+      <c r="AK217" s="29"/>
+      <c r="AL217" s="24"/>
+    </row>
+    <row r="218" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="27">
         <v>216</v>
       </c>
@@ -15054,10 +15438,11 @@
       <c r="AG218" s="28"/>
       <c r="AH218" s="28"/>
       <c r="AI218" s="28"/>
-      <c r="AJ218" s="29"/>
-      <c r="AK218" s="24"/>
-    </row>
-    <row r="219" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ218" s="28"/>
+      <c r="AK218" s="29"/>
+      <c r="AL218" s="24"/>
+    </row>
+    <row r="219" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="27">
         <v>217</v>
       </c>
@@ -15095,10 +15480,11 @@
       <c r="AG219" s="28"/>
       <c r="AH219" s="28"/>
       <c r="AI219" s="28"/>
-      <c r="AJ219" s="29"/>
-      <c r="AK219" s="24"/>
-    </row>
-    <row r="220" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ219" s="28"/>
+      <c r="AK219" s="29"/>
+      <c r="AL219" s="24"/>
+    </row>
+    <row r="220" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="27">
         <v>218</v>
       </c>
@@ -15136,10 +15522,11 @@
       <c r="AG220" s="28"/>
       <c r="AH220" s="28"/>
       <c r="AI220" s="28"/>
-      <c r="AJ220" s="29"/>
-      <c r="AK220" s="24"/>
-    </row>
-    <row r="221" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ220" s="28"/>
+      <c r="AK220" s="29"/>
+      <c r="AL220" s="24"/>
+    </row>
+    <row r="221" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="27">
         <v>219</v>
       </c>
@@ -15177,10 +15564,11 @@
       <c r="AG221" s="28"/>
       <c r="AH221" s="28"/>
       <c r="AI221" s="28"/>
-      <c r="AJ221" s="29"/>
-      <c r="AK221" s="24"/>
-    </row>
-    <row r="222" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ221" s="28"/>
+      <c r="AK221" s="29"/>
+      <c r="AL221" s="24"/>
+    </row>
+    <row r="222" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="27">
         <v>220</v>
       </c>
@@ -15218,10 +15606,11 @@
       <c r="AG222" s="28"/>
       <c r="AH222" s="28"/>
       <c r="AI222" s="28"/>
-      <c r="AJ222" s="29"/>
-      <c r="AK222" s="24"/>
-    </row>
-    <row r="223" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ222" s="28"/>
+      <c r="AK222" s="29"/>
+      <c r="AL222" s="24"/>
+    </row>
+    <row r="223" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="27">
         <v>221</v>
       </c>
@@ -15259,10 +15648,11 @@
       <c r="AG223" s="28"/>
       <c r="AH223" s="28"/>
       <c r="AI223" s="28"/>
-      <c r="AJ223" s="29"/>
-      <c r="AK223" s="24"/>
-    </row>
-    <row r="224" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ223" s="28"/>
+      <c r="AK223" s="29"/>
+      <c r="AL223" s="24"/>
+    </row>
+    <row r="224" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="27">
         <v>222</v>
       </c>
@@ -15300,10 +15690,11 @@
       <c r="AG224" s="28"/>
       <c r="AH224" s="28"/>
       <c r="AI224" s="28"/>
-      <c r="AJ224" s="29"/>
-      <c r="AK224" s="24"/>
-    </row>
-    <row r="225" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ224" s="28"/>
+      <c r="AK224" s="29"/>
+      <c r="AL224" s="24"/>
+    </row>
+    <row r="225" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="27">
         <v>223</v>
       </c>
@@ -15341,10 +15732,11 @@
       <c r="AG225" s="28"/>
       <c r="AH225" s="28"/>
       <c r="AI225" s="28"/>
-      <c r="AJ225" s="29"/>
-      <c r="AK225" s="24"/>
-    </row>
-    <row r="226" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ225" s="28"/>
+      <c r="AK225" s="29"/>
+      <c r="AL225" s="24"/>
+    </row>
+    <row r="226" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="27">
         <v>224</v>
       </c>
@@ -15382,10 +15774,11 @@
       <c r="AG226" s="28"/>
       <c r="AH226" s="28"/>
       <c r="AI226" s="28"/>
-      <c r="AJ226" s="29"/>
-      <c r="AK226" s="24"/>
-    </row>
-    <row r="227" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ226" s="28"/>
+      <c r="AK226" s="29"/>
+      <c r="AL226" s="24"/>
+    </row>
+    <row r="227" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="27">
         <v>225</v>
       </c>
@@ -15423,10 +15816,11 @@
       <c r="AG227" s="28"/>
       <c r="AH227" s="28"/>
       <c r="AI227" s="28"/>
-      <c r="AJ227" s="29"/>
-      <c r="AK227" s="24"/>
-    </row>
-    <row r="228" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ227" s="28"/>
+      <c r="AK227" s="29"/>
+      <c r="AL227" s="24"/>
+    </row>
+    <row r="228" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="27">
         <v>226</v>
       </c>
@@ -15464,10 +15858,11 @@
       <c r="AG228" s="28"/>
       <c r="AH228" s="28"/>
       <c r="AI228" s="28"/>
-      <c r="AJ228" s="29"/>
-      <c r="AK228" s="24"/>
-    </row>
-    <row r="229" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ228" s="28"/>
+      <c r="AK228" s="29"/>
+      <c r="AL228" s="24"/>
+    </row>
+    <row r="229" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="27">
         <v>227</v>
       </c>
@@ -15505,10 +15900,11 @@
       <c r="AG229" s="28"/>
       <c r="AH229" s="28"/>
       <c r="AI229" s="28"/>
-      <c r="AJ229" s="29"/>
-      <c r="AK229" s="24"/>
-    </row>
-    <row r="230" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ229" s="28"/>
+      <c r="AK229" s="29"/>
+      <c r="AL229" s="24"/>
+    </row>
+    <row r="230" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="27">
         <v>228</v>
       </c>
@@ -15546,10 +15942,11 @@
       <c r="AG230" s="28"/>
       <c r="AH230" s="28"/>
       <c r="AI230" s="28"/>
-      <c r="AJ230" s="29"/>
-      <c r="AK230" s="24"/>
-    </row>
-    <row r="231" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ230" s="28"/>
+      <c r="AK230" s="29"/>
+      <c r="AL230" s="24"/>
+    </row>
+    <row r="231" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="27">
         <v>229</v>
       </c>
@@ -15587,10 +15984,11 @@
       <c r="AG231" s="28"/>
       <c r="AH231" s="28"/>
       <c r="AI231" s="28"/>
-      <c r="AJ231" s="29"/>
-      <c r="AK231" s="24"/>
-    </row>
-    <row r="232" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ231" s="28"/>
+      <c r="AK231" s="29"/>
+      <c r="AL231" s="24"/>
+    </row>
+    <row r="232" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="27">
         <v>230</v>
       </c>
@@ -15628,10 +16026,11 @@
       <c r="AG232" s="28"/>
       <c r="AH232" s="28"/>
       <c r="AI232" s="28"/>
-      <c r="AJ232" s="29"/>
-      <c r="AK232" s="24"/>
-    </row>
-    <row r="233" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ232" s="28"/>
+      <c r="AK232" s="29"/>
+      <c r="AL232" s="24"/>
+    </row>
+    <row r="233" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="27">
         <v>231</v>
       </c>
@@ -15669,10 +16068,11 @@
       <c r="AG233" s="28"/>
       <c r="AH233" s="28"/>
       <c r="AI233" s="28"/>
-      <c r="AJ233" s="29"/>
-      <c r="AK233" s="24"/>
-    </row>
-    <row r="234" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ233" s="28"/>
+      <c r="AK233" s="29"/>
+      <c r="AL233" s="24"/>
+    </row>
+    <row r="234" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="27">
         <v>232</v>
       </c>
@@ -15710,10 +16110,11 @@
       <c r="AG234" s="28"/>
       <c r="AH234" s="28"/>
       <c r="AI234" s="28"/>
-      <c r="AJ234" s="29"/>
-      <c r="AK234" s="24"/>
-    </row>
-    <row r="235" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ234" s="28"/>
+      <c r="AK234" s="29"/>
+      <c r="AL234" s="24"/>
+    </row>
+    <row r="235" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="27">
         <v>233</v>
       </c>
@@ -15751,10 +16152,11 @@
       <c r="AG235" s="28"/>
       <c r="AH235" s="28"/>
       <c r="AI235" s="28"/>
-      <c r="AJ235" s="29"/>
-      <c r="AK235" s="24"/>
-    </row>
-    <row r="236" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ235" s="28"/>
+      <c r="AK235" s="29"/>
+      <c r="AL235" s="24"/>
+    </row>
+    <row r="236" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="27">
         <v>234</v>
       </c>
@@ -15792,10 +16194,11 @@
       <c r="AG236" s="28"/>
       <c r="AH236" s="28"/>
       <c r="AI236" s="28"/>
-      <c r="AJ236" s="29"/>
-      <c r="AK236" s="24"/>
-    </row>
-    <row r="237" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ236" s="28"/>
+      <c r="AK236" s="29"/>
+      <c r="AL236" s="24"/>
+    </row>
+    <row r="237" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="27">
         <v>235</v>
       </c>
@@ -15833,10 +16236,11 @@
       <c r="AG237" s="28"/>
       <c r="AH237" s="28"/>
       <c r="AI237" s="28"/>
-      <c r="AJ237" s="29"/>
-      <c r="AK237" s="24"/>
-    </row>
-    <row r="238" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ237" s="28"/>
+      <c r="AK237" s="29"/>
+      <c r="AL237" s="24"/>
+    </row>
+    <row r="238" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="27">
         <v>236</v>
       </c>
@@ -15874,10 +16278,11 @@
       <c r="AG238" s="28"/>
       <c r="AH238" s="28"/>
       <c r="AI238" s="28"/>
-      <c r="AJ238" s="29"/>
-      <c r="AK238" s="24"/>
-    </row>
-    <row r="239" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ238" s="28"/>
+      <c r="AK238" s="29"/>
+      <c r="AL238" s="24"/>
+    </row>
+    <row r="239" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="27">
         <v>237</v>
       </c>
@@ -15915,10 +16320,11 @@
       <c r="AG239" s="28"/>
       <c r="AH239" s="28"/>
       <c r="AI239" s="28"/>
-      <c r="AJ239" s="29"/>
-      <c r="AK239" s="24"/>
-    </row>
-    <row r="240" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ239" s="28"/>
+      <c r="AK239" s="29"/>
+      <c r="AL239" s="24"/>
+    </row>
+    <row r="240" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="27">
         <v>238</v>
       </c>
@@ -15956,10 +16362,11 @@
       <c r="AG240" s="28"/>
       <c r="AH240" s="28"/>
       <c r="AI240" s="28"/>
-      <c r="AJ240" s="29"/>
-      <c r="AK240" s="24"/>
-    </row>
-    <row r="241" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ240" s="28"/>
+      <c r="AK240" s="29"/>
+      <c r="AL240" s="24"/>
+    </row>
+    <row r="241" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="27">
         <v>239</v>
       </c>
@@ -15997,10 +16404,11 @@
       <c r="AG241" s="28"/>
       <c r="AH241" s="28"/>
       <c r="AI241" s="28"/>
-      <c r="AJ241" s="29"/>
-      <c r="AK241" s="24"/>
-    </row>
-    <row r="242" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ241" s="28"/>
+      <c r="AK241" s="29"/>
+      <c r="AL241" s="24"/>
+    </row>
+    <row r="242" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="27">
         <v>240</v>
       </c>
@@ -16038,10 +16446,11 @@
       <c r="AG242" s="28"/>
       <c r="AH242" s="28"/>
       <c r="AI242" s="28"/>
-      <c r="AJ242" s="29"/>
-      <c r="AK242" s="24"/>
-    </row>
-    <row r="243" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ242" s="28"/>
+      <c r="AK242" s="29"/>
+      <c r="AL242" s="24"/>
+    </row>
+    <row r="243" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="27">
         <v>241</v>
       </c>
@@ -16079,10 +16488,11 @@
       <c r="AG243" s="28"/>
       <c r="AH243" s="28"/>
       <c r="AI243" s="28"/>
-      <c r="AJ243" s="29"/>
-      <c r="AK243" s="24"/>
-    </row>
-    <row r="244" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ243" s="28"/>
+      <c r="AK243" s="29"/>
+      <c r="AL243" s="24"/>
+    </row>
+    <row r="244" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="27">
         <v>242</v>
       </c>
@@ -16120,10 +16530,11 @@
       <c r="AG244" s="28"/>
       <c r="AH244" s="28"/>
       <c r="AI244" s="28"/>
-      <c r="AJ244" s="29"/>
-      <c r="AK244" s="24"/>
-    </row>
-    <row r="245" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ244" s="28"/>
+      <c r="AK244" s="29"/>
+      <c r="AL244" s="24"/>
+    </row>
+    <row r="245" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="27">
         <v>243</v>
       </c>
@@ -16161,10 +16572,11 @@
       <c r="AG245" s="28"/>
       <c r="AH245" s="28"/>
       <c r="AI245" s="28"/>
-      <c r="AJ245" s="29"/>
-      <c r="AK245" s="24"/>
-    </row>
-    <row r="246" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ245" s="28"/>
+      <c r="AK245" s="29"/>
+      <c r="AL245" s="24"/>
+    </row>
+    <row r="246" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="27">
         <v>244</v>
       </c>
@@ -16202,10 +16614,11 @@
       <c r="AG246" s="28"/>
       <c r="AH246" s="28"/>
       <c r="AI246" s="28"/>
-      <c r="AJ246" s="29"/>
-      <c r="AK246" s="24"/>
-    </row>
-    <row r="247" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ246" s="28"/>
+      <c r="AK246" s="29"/>
+      <c r="AL246" s="24"/>
+    </row>
+    <row r="247" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="27">
         <v>245</v>
       </c>
@@ -16243,10 +16656,11 @@
       <c r="AG247" s="28"/>
       <c r="AH247" s="28"/>
       <c r="AI247" s="28"/>
-      <c r="AJ247" s="29"/>
-      <c r="AK247" s="24"/>
-    </row>
-    <row r="248" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ247" s="28"/>
+      <c r="AK247" s="29"/>
+      <c r="AL247" s="24"/>
+    </row>
+    <row r="248" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="27">
         <v>246</v>
       </c>
@@ -16284,10 +16698,11 @@
       <c r="AG248" s="28"/>
       <c r="AH248" s="28"/>
       <c r="AI248" s="28"/>
-      <c r="AJ248" s="29"/>
-      <c r="AK248" s="24"/>
-    </row>
-    <row r="249" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ248" s="28"/>
+      <c r="AK248" s="29"/>
+      <c r="AL248" s="24"/>
+    </row>
+    <row r="249" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="27">
         <v>247</v>
       </c>
@@ -16325,10 +16740,11 @@
       <c r="AG249" s="28"/>
       <c r="AH249" s="28"/>
       <c r="AI249" s="28"/>
-      <c r="AJ249" s="29"/>
-      <c r="AK249" s="24"/>
-    </row>
-    <row r="250" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ249" s="28"/>
+      <c r="AK249" s="29"/>
+      <c r="AL249" s="24"/>
+    </row>
+    <row r="250" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="27">
         <v>248</v>
       </c>
@@ -16366,10 +16782,11 @@
       <c r="AG250" s="28"/>
       <c r="AH250" s="28"/>
       <c r="AI250" s="28"/>
-      <c r="AJ250" s="29"/>
-      <c r="AK250" s="24"/>
-    </row>
-    <row r="251" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ250" s="28"/>
+      <c r="AK250" s="29"/>
+      <c r="AL250" s="24"/>
+    </row>
+    <row r="251" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="27">
         <v>249</v>
       </c>
@@ -16407,10 +16824,11 @@
       <c r="AG251" s="28"/>
       <c r="AH251" s="28"/>
       <c r="AI251" s="28"/>
-      <c r="AJ251" s="29"/>
-      <c r="AK251" s="24"/>
-    </row>
-    <row r="252" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ251" s="28"/>
+      <c r="AK251" s="29"/>
+      <c r="AL251" s="24"/>
+    </row>
+    <row r="252" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="27">
         <v>250</v>
       </c>
@@ -16448,10 +16866,11 @@
       <c r="AG252" s="28"/>
       <c r="AH252" s="28"/>
       <c r="AI252" s="28"/>
-      <c r="AJ252" s="29"/>
-      <c r="AK252" s="24"/>
-    </row>
-    <row r="253" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ252" s="28"/>
+      <c r="AK252" s="29"/>
+      <c r="AL252" s="24"/>
+    </row>
+    <row r="253" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="27">
         <v>251</v>
       </c>
@@ -16489,10 +16908,11 @@
       <c r="AG253" s="28"/>
       <c r="AH253" s="28"/>
       <c r="AI253" s="28"/>
-      <c r="AJ253" s="29"/>
-      <c r="AK253" s="24"/>
-    </row>
-    <row r="254" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ253" s="28"/>
+      <c r="AK253" s="29"/>
+      <c r="AL253" s="24"/>
+    </row>
+    <row r="254" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="27">
         <v>252</v>
       </c>
@@ -16530,10 +16950,11 @@
       <c r="AG254" s="28"/>
       <c r="AH254" s="28"/>
       <c r="AI254" s="28"/>
-      <c r="AJ254" s="29"/>
-      <c r="AK254" s="24"/>
-    </row>
-    <row r="255" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ254" s="28"/>
+      <c r="AK254" s="29"/>
+      <c r="AL254" s="24"/>
+    </row>
+    <row r="255" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="27">
         <v>253</v>
       </c>
@@ -16571,10 +16992,11 @@
       <c r="AG255" s="28"/>
       <c r="AH255" s="28"/>
       <c r="AI255" s="28"/>
-      <c r="AJ255" s="29"/>
-      <c r="AK255" s="24"/>
-    </row>
-    <row r="256" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ255" s="28"/>
+      <c r="AK255" s="29"/>
+      <c r="AL255" s="24"/>
+    </row>
+    <row r="256" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="27">
         <v>254</v>
       </c>
@@ -16612,10 +17034,11 @@
       <c r="AG256" s="28"/>
       <c r="AH256" s="28"/>
       <c r="AI256" s="28"/>
-      <c r="AJ256" s="29"/>
-      <c r="AK256" s="24"/>
-    </row>
-    <row r="257" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ256" s="28"/>
+      <c r="AK256" s="29"/>
+      <c r="AL256" s="24"/>
+    </row>
+    <row r="257" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="27">
         <v>255</v>
       </c>
@@ -16653,10 +17076,11 @@
       <c r="AG257" s="28"/>
       <c r="AH257" s="28"/>
       <c r="AI257" s="28"/>
-      <c r="AJ257" s="29"/>
-      <c r="AK257" s="24"/>
-    </row>
-    <row r="258" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ257" s="28"/>
+      <c r="AK257" s="29"/>
+      <c r="AL257" s="24"/>
+    </row>
+    <row r="258" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="27">
         <v>256</v>
       </c>
@@ -16694,10 +17118,11 @@
       <c r="AG258" s="28"/>
       <c r="AH258" s="28"/>
       <c r="AI258" s="28"/>
-      <c r="AJ258" s="29"/>
-      <c r="AK258" s="24"/>
-    </row>
-    <row r="259" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ258" s="28"/>
+      <c r="AK258" s="29"/>
+      <c r="AL258" s="24"/>
+    </row>
+    <row r="259" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="27">
         <v>257</v>
       </c>
@@ -16735,10 +17160,11 @@
       <c r="AG259" s="28"/>
       <c r="AH259" s="28"/>
       <c r="AI259" s="28"/>
-      <c r="AJ259" s="29"/>
-      <c r="AK259" s="24"/>
-    </row>
-    <row r="260" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ259" s="28"/>
+      <c r="AK259" s="29"/>
+      <c r="AL259" s="24"/>
+    </row>
+    <row r="260" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="27">
         <v>258</v>
       </c>
@@ -16776,10 +17202,11 @@
       <c r="AG260" s="28"/>
       <c r="AH260" s="28"/>
       <c r="AI260" s="28"/>
-      <c r="AJ260" s="29"/>
-      <c r="AK260" s="24"/>
-    </row>
-    <row r="261" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ260" s="28"/>
+      <c r="AK260" s="29"/>
+      <c r="AL260" s="24"/>
+    </row>
+    <row r="261" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="27">
         <v>259</v>
       </c>
@@ -16817,10 +17244,11 @@
       <c r="AG261" s="28"/>
       <c r="AH261" s="28"/>
       <c r="AI261" s="28"/>
-      <c r="AJ261" s="29"/>
-      <c r="AK261" s="24"/>
-    </row>
-    <row r="262" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ261" s="28"/>
+      <c r="AK261" s="29"/>
+      <c r="AL261" s="24"/>
+    </row>
+    <row r="262" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="27">
         <v>260</v>
       </c>
@@ -16858,10 +17286,11 @@
       <c r="AG262" s="28"/>
       <c r="AH262" s="28"/>
       <c r="AI262" s="28"/>
-      <c r="AJ262" s="29"/>
-      <c r="AK262" s="24"/>
-    </row>
-    <row r="263" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ262" s="28"/>
+      <c r="AK262" s="29"/>
+      <c r="AL262" s="24"/>
+    </row>
+    <row r="263" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="27">
         <v>261</v>
       </c>
@@ -16899,10 +17328,11 @@
       <c r="AG263" s="28"/>
       <c r="AH263" s="28"/>
       <c r="AI263" s="28"/>
-      <c r="AJ263" s="29"/>
-      <c r="AK263" s="24"/>
-    </row>
-    <row r="264" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ263" s="28"/>
+      <c r="AK263" s="29"/>
+      <c r="AL263" s="24"/>
+    </row>
+    <row r="264" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="27">
         <v>262</v>
       </c>
@@ -16940,10 +17370,11 @@
       <c r="AG264" s="28"/>
       <c r="AH264" s="28"/>
       <c r="AI264" s="28"/>
-      <c r="AJ264" s="29"/>
-      <c r="AK264" s="24"/>
-    </row>
-    <row r="265" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ264" s="28"/>
+      <c r="AK264" s="29"/>
+      <c r="AL264" s="24"/>
+    </row>
+    <row r="265" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="27">
         <v>263</v>
       </c>
@@ -16981,10 +17412,11 @@
       <c r="AG265" s="28"/>
       <c r="AH265" s="28"/>
       <c r="AI265" s="28"/>
-      <c r="AJ265" s="29"/>
-      <c r="AK265" s="24"/>
-    </row>
-    <row r="266" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ265" s="28"/>
+      <c r="AK265" s="29"/>
+      <c r="AL265" s="24"/>
+    </row>
+    <row r="266" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="27">
         <v>264</v>
       </c>
@@ -17022,10 +17454,11 @@
       <c r="AG266" s="28"/>
       <c r="AH266" s="28"/>
       <c r="AI266" s="28"/>
-      <c r="AJ266" s="29"/>
-      <c r="AK266" s="24"/>
-    </row>
-    <row r="267" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ266" s="28"/>
+      <c r="AK266" s="29"/>
+      <c r="AL266" s="24"/>
+    </row>
+    <row r="267" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="27">
         <v>265</v>
       </c>
@@ -17063,10 +17496,11 @@
       <c r="AG267" s="28"/>
       <c r="AH267" s="28"/>
       <c r="AI267" s="28"/>
-      <c r="AJ267" s="29"/>
-      <c r="AK267" s="24"/>
-    </row>
-    <row r="268" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ267" s="28"/>
+      <c r="AK267" s="29"/>
+      <c r="AL267" s="24"/>
+    </row>
+    <row r="268" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="27">
         <v>266</v>
       </c>
@@ -17104,10 +17538,11 @@
       <c r="AG268" s="28"/>
       <c r="AH268" s="28"/>
       <c r="AI268" s="28"/>
-      <c r="AJ268" s="29"/>
-      <c r="AK268" s="24"/>
-    </row>
-    <row r="269" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ268" s="28"/>
+      <c r="AK268" s="29"/>
+      <c r="AL268" s="24"/>
+    </row>
+    <row r="269" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="27">
         <v>267</v>
       </c>
@@ -17145,10 +17580,11 @@
       <c r="AG269" s="28"/>
       <c r="AH269" s="28"/>
       <c r="AI269" s="28"/>
-      <c r="AJ269" s="29"/>
-      <c r="AK269" s="24"/>
-    </row>
-    <row r="270" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ269" s="28"/>
+      <c r="AK269" s="29"/>
+      <c r="AL269" s="24"/>
+    </row>
+    <row r="270" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="27">
         <v>268</v>
       </c>
@@ -17186,10 +17622,11 @@
       <c r="AG270" s="28"/>
       <c r="AH270" s="28"/>
       <c r="AI270" s="28"/>
-      <c r="AJ270" s="29"/>
-      <c r="AK270" s="24"/>
-    </row>
-    <row r="271" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ270" s="28"/>
+      <c r="AK270" s="29"/>
+      <c r="AL270" s="24"/>
+    </row>
+    <row r="271" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="27">
         <v>269</v>
       </c>
@@ -17227,10 +17664,11 @@
       <c r="AG271" s="28"/>
       <c r="AH271" s="28"/>
       <c r="AI271" s="28"/>
-      <c r="AJ271" s="29"/>
-      <c r="AK271" s="24"/>
-    </row>
-    <row r="272" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ271" s="28"/>
+      <c r="AK271" s="29"/>
+      <c r="AL271" s="24"/>
+    </row>
+    <row r="272" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="27">
         <v>270</v>
       </c>
@@ -17268,10 +17706,11 @@
       <c r="AG272" s="28"/>
       <c r="AH272" s="28"/>
       <c r="AI272" s="28"/>
-      <c r="AJ272" s="29"/>
-      <c r="AK272" s="24"/>
-    </row>
-    <row r="273" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ272" s="28"/>
+      <c r="AK272" s="29"/>
+      <c r="AL272" s="24"/>
+    </row>
+    <row r="273" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="27">
         <v>271</v>
       </c>
@@ -17309,10 +17748,11 @@
       <c r="AG273" s="28"/>
       <c r="AH273" s="28"/>
       <c r="AI273" s="28"/>
-      <c r="AJ273" s="29"/>
-      <c r="AK273" s="24"/>
-    </row>
-    <row r="274" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ273" s="28"/>
+      <c r="AK273" s="29"/>
+      <c r="AL273" s="24"/>
+    </row>
+    <row r="274" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="27">
         <v>272</v>
       </c>
@@ -17350,10 +17790,11 @@
       <c r="AG274" s="28"/>
       <c r="AH274" s="28"/>
       <c r="AI274" s="28"/>
-      <c r="AJ274" s="29"/>
-      <c r="AK274" s="24"/>
-    </row>
-    <row r="275" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ274" s="28"/>
+      <c r="AK274" s="29"/>
+      <c r="AL274" s="24"/>
+    </row>
+    <row r="275" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="27">
         <v>273</v>
       </c>
@@ -17391,10 +17832,11 @@
       <c r="AG275" s="28"/>
       <c r="AH275" s="28"/>
       <c r="AI275" s="28"/>
-      <c r="AJ275" s="29"/>
-      <c r="AK275" s="24"/>
-    </row>
-    <row r="276" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ275" s="28"/>
+      <c r="AK275" s="29"/>
+      <c r="AL275" s="24"/>
+    </row>
+    <row r="276" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="27">
         <v>274</v>
       </c>
@@ -17432,10 +17874,11 @@
       <c r="AG276" s="28"/>
       <c r="AH276" s="28"/>
       <c r="AI276" s="28"/>
-      <c r="AJ276" s="29"/>
-      <c r="AK276" s="24"/>
-    </row>
-    <row r="277" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ276" s="28"/>
+      <c r="AK276" s="29"/>
+      <c r="AL276" s="24"/>
+    </row>
+    <row r="277" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="27">
         <v>275</v>
       </c>
@@ -17473,10 +17916,11 @@
       <c r="AG277" s="28"/>
       <c r="AH277" s="28"/>
       <c r="AI277" s="28"/>
-      <c r="AJ277" s="29"/>
-      <c r="AK277" s="24"/>
-    </row>
-    <row r="278" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ277" s="28"/>
+      <c r="AK277" s="29"/>
+      <c r="AL277" s="24"/>
+    </row>
+    <row r="278" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="27">
         <v>276</v>
       </c>
@@ -17514,10 +17958,11 @@
       <c r="AG278" s="28"/>
       <c r="AH278" s="28"/>
       <c r="AI278" s="28"/>
-      <c r="AJ278" s="29"/>
-      <c r="AK278" s="24"/>
-    </row>
-    <row r="279" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ278" s="28"/>
+      <c r="AK278" s="29"/>
+      <c r="AL278" s="24"/>
+    </row>
+    <row r="279" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="27">
         <v>277</v>
       </c>
@@ -17555,10 +18000,11 @@
       <c r="AG279" s="28"/>
       <c r="AH279" s="28"/>
       <c r="AI279" s="28"/>
-      <c r="AJ279" s="29"/>
-      <c r="AK279" s="24"/>
-    </row>
-    <row r="280" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ279" s="28"/>
+      <c r="AK279" s="29"/>
+      <c r="AL279" s="24"/>
+    </row>
+    <row r="280" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="27">
         <v>278</v>
       </c>
@@ -17596,10 +18042,11 @@
       <c r="AG280" s="28"/>
       <c r="AH280" s="28"/>
       <c r="AI280" s="28"/>
-      <c r="AJ280" s="29"/>
-      <c r="AK280" s="24"/>
-    </row>
-    <row r="281" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ280" s="28"/>
+      <c r="AK280" s="29"/>
+      <c r="AL280" s="24"/>
+    </row>
+    <row r="281" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="27">
         <v>279</v>
       </c>
@@ -17637,10 +18084,11 @@
       <c r="AG281" s="28"/>
       <c r="AH281" s="28"/>
       <c r="AI281" s="28"/>
-      <c r="AJ281" s="29"/>
-      <c r="AK281" s="24"/>
-    </row>
-    <row r="282" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ281" s="28"/>
+      <c r="AK281" s="29"/>
+      <c r="AL281" s="24"/>
+    </row>
+    <row r="282" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="27">
         <v>280</v>
       </c>
@@ -17678,10 +18126,11 @@
       <c r="AG282" s="28"/>
       <c r="AH282" s="28"/>
       <c r="AI282" s="28"/>
-      <c r="AJ282" s="29"/>
-      <c r="AK282" s="24"/>
-    </row>
-    <row r="283" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ282" s="28"/>
+      <c r="AK282" s="29"/>
+      <c r="AL282" s="24"/>
+    </row>
+    <row r="283" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="27">
         <v>281</v>
       </c>
@@ -17719,10 +18168,11 @@
       <c r="AG283" s="28"/>
       <c r="AH283" s="28"/>
       <c r="AI283" s="28"/>
-      <c r="AJ283" s="29"/>
-      <c r="AK283" s="24"/>
-    </row>
-    <row r="284" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ283" s="28"/>
+      <c r="AK283" s="29"/>
+      <c r="AL283" s="24"/>
+    </row>
+    <row r="284" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="27">
         <v>282</v>
       </c>
@@ -17760,10 +18210,11 @@
       <c r="AG284" s="28"/>
       <c r="AH284" s="28"/>
       <c r="AI284" s="28"/>
-      <c r="AJ284" s="29"/>
-      <c r="AK284" s="24"/>
-    </row>
-    <row r="285" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ284" s="28"/>
+      <c r="AK284" s="29"/>
+      <c r="AL284" s="24"/>
+    </row>
+    <row r="285" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="27">
         <v>283</v>
       </c>
@@ -17801,10 +18252,11 @@
       <c r="AG285" s="28"/>
       <c r="AH285" s="28"/>
       <c r="AI285" s="28"/>
-      <c r="AJ285" s="29"/>
-      <c r="AK285" s="24"/>
-    </row>
-    <row r="286" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ285" s="28"/>
+      <c r="AK285" s="29"/>
+      <c r="AL285" s="24"/>
+    </row>
+    <row r="286" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="27">
         <v>284</v>
       </c>
@@ -17842,10 +18294,11 @@
       <c r="AG286" s="28"/>
       <c r="AH286" s="28"/>
       <c r="AI286" s="28"/>
-      <c r="AJ286" s="29"/>
-      <c r="AK286" s="24"/>
-    </row>
-    <row r="287" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ286" s="28"/>
+      <c r="AK286" s="29"/>
+      <c r="AL286" s="24"/>
+    </row>
+    <row r="287" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="27">
         <v>285</v>
       </c>
@@ -17883,10 +18336,11 @@
       <c r="AG287" s="28"/>
       <c r="AH287" s="28"/>
       <c r="AI287" s="28"/>
-      <c r="AJ287" s="29"/>
-      <c r="AK287" s="24"/>
-    </row>
-    <row r="288" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ287" s="28"/>
+      <c r="AK287" s="29"/>
+      <c r="AL287" s="24"/>
+    </row>
+    <row r="288" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A288" s="27">
         <v>286</v>
       </c>
@@ -17924,10 +18378,11 @@
       <c r="AG288" s="28"/>
       <c r="AH288" s="28"/>
       <c r="AI288" s="28"/>
-      <c r="AJ288" s="29"/>
-      <c r="AK288" s="24"/>
-    </row>
-    <row r="289" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ288" s="28"/>
+      <c r="AK288" s="29"/>
+      <c r="AL288" s="24"/>
+    </row>
+    <row r="289" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A289" s="27">
         <v>287</v>
       </c>
@@ -17965,10 +18420,11 @@
       <c r="AG289" s="28"/>
       <c r="AH289" s="28"/>
       <c r="AI289" s="28"/>
-      <c r="AJ289" s="29"/>
-      <c r="AK289" s="24"/>
-    </row>
-    <row r="290" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ289" s="28"/>
+      <c r="AK289" s="29"/>
+      <c r="AL289" s="24"/>
+    </row>
+    <row r="290" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" s="27">
         <v>288</v>
       </c>
@@ -18006,10 +18462,11 @@
       <c r="AG290" s="28"/>
       <c r="AH290" s="28"/>
       <c r="AI290" s="28"/>
-      <c r="AJ290" s="29"/>
-      <c r="AK290" s="24"/>
-    </row>
-    <row r="291" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ290" s="28"/>
+      <c r="AK290" s="29"/>
+      <c r="AL290" s="24"/>
+    </row>
+    <row r="291" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="27">
         <v>289</v>
       </c>
@@ -18047,10 +18504,11 @@
       <c r="AG291" s="28"/>
       <c r="AH291" s="28"/>
       <c r="AI291" s="28"/>
-      <c r="AJ291" s="29"/>
-      <c r="AK291" s="24"/>
-    </row>
-    <row r="292" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ291" s="28"/>
+      <c r="AK291" s="29"/>
+      <c r="AL291" s="24"/>
+    </row>
+    <row r="292" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="27">
         <v>290</v>
       </c>
@@ -18088,10 +18546,11 @@
       <c r="AG292" s="28"/>
       <c r="AH292" s="28"/>
       <c r="AI292" s="28"/>
-      <c r="AJ292" s="29"/>
-      <c r="AK292" s="24"/>
-    </row>
-    <row r="293" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ292" s="28"/>
+      <c r="AK292" s="29"/>
+      <c r="AL292" s="24"/>
+    </row>
+    <row r="293" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="27">
         <v>291</v>
       </c>
@@ -18129,10 +18588,11 @@
       <c r="AG293" s="28"/>
       <c r="AH293" s="28"/>
       <c r="AI293" s="28"/>
-      <c r="AJ293" s="29"/>
-      <c r="AK293" s="24"/>
-    </row>
-    <row r="294" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ293" s="28"/>
+      <c r="AK293" s="29"/>
+      <c r="AL293" s="24"/>
+    </row>
+    <row r="294" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="27">
         <v>292</v>
       </c>
@@ -18170,10 +18630,11 @@
       <c r="AG294" s="28"/>
       <c r="AH294" s="28"/>
       <c r="AI294" s="28"/>
-      <c r="AJ294" s="29"/>
-      <c r="AK294" s="24"/>
-    </row>
-    <row r="295" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ294" s="28"/>
+      <c r="AK294" s="29"/>
+      <c r="AL294" s="24"/>
+    </row>
+    <row r="295" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="27">
         <v>293</v>
       </c>
@@ -18211,10 +18672,11 @@
       <c r="AG295" s="28"/>
       <c r="AH295" s="28"/>
       <c r="AI295" s="28"/>
-      <c r="AJ295" s="29"/>
-      <c r="AK295" s="24"/>
-    </row>
-    <row r="296" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ295" s="28"/>
+      <c r="AK295" s="29"/>
+      <c r="AL295" s="24"/>
+    </row>
+    <row r="296" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="27">
         <v>294</v>
       </c>
@@ -18252,10 +18714,11 @@
       <c r="AG296" s="28"/>
       <c r="AH296" s="28"/>
       <c r="AI296" s="28"/>
-      <c r="AJ296" s="29"/>
-      <c r="AK296" s="24"/>
-    </row>
-    <row r="297" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ296" s="28"/>
+      <c r="AK296" s="29"/>
+      <c r="AL296" s="24"/>
+    </row>
+    <row r="297" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="27">
         <v>295</v>
       </c>
@@ -18293,10 +18756,11 @@
       <c r="AG297" s="28"/>
       <c r="AH297" s="28"/>
       <c r="AI297" s="28"/>
-      <c r="AJ297" s="29"/>
-      <c r="AK297" s="24"/>
-    </row>
-    <row r="298" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ297" s="28"/>
+      <c r="AK297" s="29"/>
+      <c r="AL297" s="24"/>
+    </row>
+    <row r="298" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="27">
         <v>296</v>
       </c>
@@ -18334,10 +18798,11 @@
       <c r="AG298" s="28"/>
       <c r="AH298" s="28"/>
       <c r="AI298" s="28"/>
-      <c r="AJ298" s="29"/>
-      <c r="AK298" s="24"/>
-    </row>
-    <row r="299" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ298" s="28"/>
+      <c r="AK298" s="29"/>
+      <c r="AL298" s="24"/>
+    </row>
+    <row r="299" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="27">
         <v>297</v>
       </c>
@@ -18375,10 +18840,11 @@
       <c r="AG299" s="28"/>
       <c r="AH299" s="28"/>
       <c r="AI299" s="28"/>
-      <c r="AJ299" s="29"/>
-      <c r="AK299" s="24"/>
-    </row>
-    <row r="300" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ299" s="28"/>
+      <c r="AK299" s="29"/>
+      <c r="AL299" s="24"/>
+    </row>
+    <row r="300" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="27">
         <v>298</v>
       </c>
@@ -18416,10 +18882,11 @@
       <c r="AG300" s="28"/>
       <c r="AH300" s="28"/>
       <c r="AI300" s="28"/>
-      <c r="AJ300" s="29"/>
-      <c r="AK300" s="24"/>
-    </row>
-    <row r="301" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ300" s="28"/>
+      <c r="AK300" s="29"/>
+      <c r="AL300" s="24"/>
+    </row>
+    <row r="301" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="27">
         <v>299</v>
       </c>
@@ -18457,10 +18924,11 @@
       <c r="AG301" s="28"/>
       <c r="AH301" s="28"/>
       <c r="AI301" s="28"/>
-      <c r="AJ301" s="29"/>
-      <c r="AK301" s="24"/>
-    </row>
-    <row r="302" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ301" s="28"/>
+      <c r="AK301" s="29"/>
+      <c r="AL301" s="24"/>
+    </row>
+    <row r="302" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="27">
         <v>300</v>
       </c>
@@ -18498,10 +18966,11 @@
       <c r="AG302" s="28"/>
       <c r="AH302" s="28"/>
       <c r="AI302" s="28"/>
-      <c r="AJ302" s="29"/>
-      <c r="AK302" s="24"/>
-    </row>
-    <row r="303" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ302" s="28"/>
+      <c r="AK302" s="29"/>
+      <c r="AL302" s="24"/>
+    </row>
+    <row r="303" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="27">
         <v>301</v>
       </c>
@@ -18539,10 +19008,11 @@
       <c r="AG303" s="28"/>
       <c r="AH303" s="28"/>
       <c r="AI303" s="28"/>
-      <c r="AJ303" s="29"/>
-      <c r="AK303" s="24"/>
-    </row>
-    <row r="304" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ303" s="28"/>
+      <c r="AK303" s="29"/>
+      <c r="AL303" s="24"/>
+    </row>
+    <row r="304" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="27">
         <v>302</v>
       </c>
@@ -18580,10 +19050,11 @@
       <c r="AG304" s="28"/>
       <c r="AH304" s="28"/>
       <c r="AI304" s="28"/>
-      <c r="AJ304" s="29"/>
-      <c r="AK304" s="24"/>
-    </row>
-    <row r="305" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ304" s="28"/>
+      <c r="AK304" s="29"/>
+      <c r="AL304" s="24"/>
+    </row>
+    <row r="305" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="27">
         <v>303</v>
       </c>
@@ -18621,10 +19092,11 @@
       <c r="AG305" s="28"/>
       <c r="AH305" s="28"/>
       <c r="AI305" s="28"/>
-      <c r="AJ305" s="29"/>
-      <c r="AK305" s="24"/>
-    </row>
-    <row r="306" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ305" s="28"/>
+      <c r="AK305" s="29"/>
+      <c r="AL305" s="24"/>
+    </row>
+    <row r="306" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="27">
         <v>304</v>
       </c>
@@ -18662,10 +19134,11 @@
       <c r="AG306" s="28"/>
       <c r="AH306" s="28"/>
       <c r="AI306" s="28"/>
-      <c r="AJ306" s="29"/>
-      <c r="AK306" s="24"/>
-    </row>
-    <row r="307" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ306" s="28"/>
+      <c r="AK306" s="29"/>
+      <c r="AL306" s="24"/>
+    </row>
+    <row r="307" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="27">
         <v>305</v>
       </c>
@@ -18703,10 +19176,11 @@
       <c r="AG307" s="28"/>
       <c r="AH307" s="28"/>
       <c r="AI307" s="28"/>
-      <c r="AJ307" s="29"/>
-      <c r="AK307" s="24"/>
-    </row>
-    <row r="308" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ307" s="28"/>
+      <c r="AK307" s="29"/>
+      <c r="AL307" s="24"/>
+    </row>
+    <row r="308" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="27">
         <v>306</v>
       </c>
@@ -18744,10 +19218,11 @@
       <c r="AG308" s="28"/>
       <c r="AH308" s="28"/>
       <c r="AI308" s="28"/>
-      <c r="AJ308" s="29"/>
-      <c r="AK308" s="24"/>
-    </row>
-    <row r="309" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ308" s="28"/>
+      <c r="AK308" s="29"/>
+      <c r="AL308" s="24"/>
+    </row>
+    <row r="309" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="27">
         <v>307</v>
       </c>
@@ -18785,10 +19260,11 @@
       <c r="AG309" s="28"/>
       <c r="AH309" s="28"/>
       <c r="AI309" s="28"/>
-      <c r="AJ309" s="29"/>
-      <c r="AK309" s="24"/>
-    </row>
-    <row r="310" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ309" s="28"/>
+      <c r="AK309" s="29"/>
+      <c r="AL309" s="24"/>
+    </row>
+    <row r="310" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="27">
         <v>308</v>
       </c>
@@ -18826,10 +19302,11 @@
       <c r="AG310" s="28"/>
       <c r="AH310" s="28"/>
       <c r="AI310" s="28"/>
-      <c r="AJ310" s="29"/>
-      <c r="AK310" s="24"/>
-    </row>
-    <row r="311" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ310" s="28"/>
+      <c r="AK310" s="29"/>
+      <c r="AL310" s="24"/>
+    </row>
+    <row r="311" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="27">
         <v>309</v>
       </c>
@@ -18867,10 +19344,11 @@
       <c r="AG311" s="28"/>
       <c r="AH311" s="28"/>
       <c r="AI311" s="28"/>
-      <c r="AJ311" s="29"/>
-      <c r="AK311" s="24"/>
-    </row>
-    <row r="312" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ311" s="28"/>
+      <c r="AK311" s="29"/>
+      <c r="AL311" s="24"/>
+    </row>
+    <row r="312" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="27">
         <v>310</v>
       </c>
@@ -18908,10 +19386,11 @@
       <c r="AG312" s="28"/>
       <c r="AH312" s="28"/>
       <c r="AI312" s="28"/>
-      <c r="AJ312" s="29"/>
-      <c r="AK312" s="24"/>
-    </row>
-    <row r="313" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ312" s="28"/>
+      <c r="AK312" s="29"/>
+      <c r="AL312" s="24"/>
+    </row>
+    <row r="313" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="27">
         <v>311</v>
       </c>
@@ -18949,10 +19428,11 @@
       <c r="AG313" s="28"/>
       <c r="AH313" s="28"/>
       <c r="AI313" s="28"/>
-      <c r="AJ313" s="29"/>
-      <c r="AK313" s="24"/>
-    </row>
-    <row r="314" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ313" s="28"/>
+      <c r="AK313" s="29"/>
+      <c r="AL313" s="24"/>
+    </row>
+    <row r="314" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="27">
         <v>312</v>
       </c>
@@ -18990,10 +19470,11 @@
       <c r="AG314" s="28"/>
       <c r="AH314" s="28"/>
       <c r="AI314" s="28"/>
-      <c r="AJ314" s="29"/>
-      <c r="AK314" s="24"/>
-    </row>
-    <row r="315" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ314" s="28"/>
+      <c r="AK314" s="29"/>
+      <c r="AL314" s="24"/>
+    </row>
+    <row r="315" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="27">
         <v>313</v>
       </c>
@@ -19031,10 +19512,11 @@
       <c r="AG315" s="28"/>
       <c r="AH315" s="28"/>
       <c r="AI315" s="28"/>
-      <c r="AJ315" s="29"/>
-      <c r="AK315" s="24"/>
-    </row>
-    <row r="316" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ315" s="28"/>
+      <c r="AK315" s="29"/>
+      <c r="AL315" s="24"/>
+    </row>
+    <row r="316" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="27">
         <v>314</v>
       </c>
@@ -19072,10 +19554,11 @@
       <c r="AG316" s="28"/>
       <c r="AH316" s="28"/>
       <c r="AI316" s="28"/>
-      <c r="AJ316" s="29"/>
-      <c r="AK316" s="24"/>
-    </row>
-    <row r="317" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ316" s="28"/>
+      <c r="AK316" s="29"/>
+      <c r="AL316" s="24"/>
+    </row>
+    <row r="317" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="27">
         <v>315</v>
       </c>
@@ -19113,10 +19596,11 @@
       <c r="AG317" s="28"/>
       <c r="AH317" s="28"/>
       <c r="AI317" s="28"/>
-      <c r="AJ317" s="29"/>
-      <c r="AK317" s="24"/>
-    </row>
-    <row r="318" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ317" s="28"/>
+      <c r="AK317" s="29"/>
+      <c r="AL317" s="24"/>
+    </row>
+    <row r="318" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="27">
         <v>316</v>
       </c>
@@ -19154,10 +19638,11 @@
       <c r="AG318" s="28"/>
       <c r="AH318" s="28"/>
       <c r="AI318" s="28"/>
-      <c r="AJ318" s="29"/>
-      <c r="AK318" s="24"/>
-    </row>
-    <row r="319" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ318" s="28"/>
+      <c r="AK318" s="29"/>
+      <c r="AL318" s="24"/>
+    </row>
+    <row r="319" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="27">
         <v>317</v>
       </c>
@@ -19195,10 +19680,11 @@
       <c r="AG319" s="28"/>
       <c r="AH319" s="28"/>
       <c r="AI319" s="28"/>
-      <c r="AJ319" s="29"/>
-      <c r="AK319" s="24"/>
-    </row>
-    <row r="320" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ319" s="28"/>
+      <c r="AK319" s="29"/>
+      <c r="AL319" s="24"/>
+    </row>
+    <row r="320" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="27">
         <v>318</v>
       </c>
@@ -19236,10 +19722,11 @@
       <c r="AG320" s="28"/>
       <c r="AH320" s="28"/>
       <c r="AI320" s="28"/>
-      <c r="AJ320" s="29"/>
-      <c r="AK320" s="24"/>
-    </row>
-    <row r="321" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ320" s="28"/>
+      <c r="AK320" s="29"/>
+      <c r="AL320" s="24"/>
+    </row>
+    <row r="321" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="27">
         <v>319</v>
       </c>
@@ -19277,10 +19764,11 @@
       <c r="AG321" s="28"/>
       <c r="AH321" s="28"/>
       <c r="AI321" s="28"/>
-      <c r="AJ321" s="29"/>
-      <c r="AK321" s="24"/>
-    </row>
-    <row r="322" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ321" s="28"/>
+      <c r="AK321" s="29"/>
+      <c r="AL321" s="24"/>
+    </row>
+    <row r="322" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="27">
         <v>320</v>
       </c>
@@ -19318,10 +19806,11 @@
       <c r="AG322" s="28"/>
       <c r="AH322" s="28"/>
       <c r="AI322" s="28"/>
-      <c r="AJ322" s="29"/>
-      <c r="AK322" s="24"/>
-    </row>
-    <row r="323" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ322" s="28"/>
+      <c r="AK322" s="29"/>
+      <c r="AL322" s="24"/>
+    </row>
+    <row r="323" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="27">
         <v>321</v>
       </c>
@@ -19359,10 +19848,11 @@
       <c r="AG323" s="28"/>
       <c r="AH323" s="28"/>
       <c r="AI323" s="28"/>
-      <c r="AJ323" s="29"/>
-      <c r="AK323" s="24"/>
-    </row>
-    <row r="324" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ323" s="28"/>
+      <c r="AK323" s="29"/>
+      <c r="AL323" s="24"/>
+    </row>
+    <row r="324" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="27">
         <v>322</v>
       </c>
@@ -19400,10 +19890,11 @@
       <c r="AG324" s="28"/>
       <c r="AH324" s="28"/>
       <c r="AI324" s="28"/>
-      <c r="AJ324" s="29"/>
-      <c r="AK324" s="24"/>
-    </row>
-    <row r="325" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ324" s="28"/>
+      <c r="AK324" s="29"/>
+      <c r="AL324" s="24"/>
+    </row>
+    <row r="325" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="27">
         <v>323</v>
       </c>
@@ -19441,10 +19932,11 @@
       <c r="AG325" s="28"/>
       <c r="AH325" s="28"/>
       <c r="AI325" s="28"/>
-      <c r="AJ325" s="29"/>
-      <c r="AK325" s="24"/>
-    </row>
-    <row r="326" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ325" s="28"/>
+      <c r="AK325" s="29"/>
+      <c r="AL325" s="24"/>
+    </row>
+    <row r="326" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="27">
         <v>324</v>
       </c>
@@ -19482,10 +19974,11 @@
       <c r="AG326" s="28"/>
       <c r="AH326" s="28"/>
       <c r="AI326" s="28"/>
-      <c r="AJ326" s="29"/>
-      <c r="AK326" s="24"/>
-    </row>
-    <row r="327" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ326" s="28"/>
+      <c r="AK326" s="29"/>
+      <c r="AL326" s="24"/>
+    </row>
+    <row r="327" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="27">
         <v>325</v>
       </c>
@@ -19523,10 +20016,11 @@
       <c r="AG327" s="28"/>
       <c r="AH327" s="28"/>
       <c r="AI327" s="28"/>
-      <c r="AJ327" s="29"/>
-      <c r="AK327" s="24"/>
-    </row>
-    <row r="328" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ327" s="28"/>
+      <c r="AK327" s="29"/>
+      <c r="AL327" s="24"/>
+    </row>
+    <row r="328" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="27">
         <v>326</v>
       </c>
@@ -19564,10 +20058,11 @@
       <c r="AG328" s="28"/>
       <c r="AH328" s="28"/>
       <c r="AI328" s="28"/>
-      <c r="AJ328" s="29"/>
-      <c r="AK328" s="24"/>
-    </row>
-    <row r="329" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ328" s="28"/>
+      <c r="AK328" s="29"/>
+      <c r="AL328" s="24"/>
+    </row>
+    <row r="329" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="27">
         <v>327</v>
       </c>
@@ -19605,10 +20100,11 @@
       <c r="AG329" s="28"/>
       <c r="AH329" s="28"/>
       <c r="AI329" s="28"/>
-      <c r="AJ329" s="29"/>
-      <c r="AK329" s="24"/>
-    </row>
-    <row r="330" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ329" s="28"/>
+      <c r="AK329" s="29"/>
+      <c r="AL329" s="24"/>
+    </row>
+    <row r="330" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="27">
         <v>328</v>
       </c>
@@ -19646,10 +20142,11 @@
       <c r="AG330" s="28"/>
       <c r="AH330" s="28"/>
       <c r="AI330" s="28"/>
-      <c r="AJ330" s="29"/>
-      <c r="AK330" s="24"/>
-    </row>
-    <row r="331" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ330" s="28"/>
+      <c r="AK330" s="29"/>
+      <c r="AL330" s="24"/>
+    </row>
+    <row r="331" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="27">
         <v>329</v>
       </c>
@@ -19687,10 +20184,11 @@
       <c r="AG331" s="28"/>
       <c r="AH331" s="28"/>
       <c r="AI331" s="28"/>
-      <c r="AJ331" s="29"/>
-      <c r="AK331" s="24"/>
-    </row>
-    <row r="332" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ331" s="28"/>
+      <c r="AK331" s="29"/>
+      <c r="AL331" s="24"/>
+    </row>
+    <row r="332" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A332" s="27">
         <v>330</v>
       </c>
@@ -19728,10 +20226,11 @@
       <c r="AG332" s="28"/>
       <c r="AH332" s="28"/>
       <c r="AI332" s="28"/>
-      <c r="AJ332" s="29"/>
-      <c r="AK332" s="24"/>
-    </row>
-    <row r="333" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ332" s="28"/>
+      <c r="AK332" s="29"/>
+      <c r="AL332" s="24"/>
+    </row>
+    <row r="333" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A333" s="27">
         <v>331</v>
       </c>
@@ -19769,10 +20268,11 @@
       <c r="AG333" s="28"/>
       <c r="AH333" s="28"/>
       <c r="AI333" s="28"/>
-      <c r="AJ333" s="29"/>
-      <c r="AK333" s="24"/>
-    </row>
-    <row r="334" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ333" s="28"/>
+      <c r="AK333" s="29"/>
+      <c r="AL333" s="24"/>
+    </row>
+    <row r="334" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="27">
         <v>332</v>
       </c>
@@ -19810,10 +20310,11 @@
       <c r="AG334" s="28"/>
       <c r="AH334" s="28"/>
       <c r="AI334" s="28"/>
-      <c r="AJ334" s="29"/>
-      <c r="AK334" s="24"/>
-    </row>
-    <row r="335" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ334" s="28"/>
+      <c r="AK334" s="29"/>
+      <c r="AL334" s="24"/>
+    </row>
+    <row r="335" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="27">
         <v>333</v>
       </c>
@@ -19851,10 +20352,11 @@
       <c r="AG335" s="28"/>
       <c r="AH335" s="28"/>
       <c r="AI335" s="28"/>
-      <c r="AJ335" s="29"/>
-      <c r="AK335" s="24"/>
-    </row>
-    <row r="336" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ335" s="28"/>
+      <c r="AK335" s="29"/>
+      <c r="AL335" s="24"/>
+    </row>
+    <row r="336" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="27">
         <v>334</v>
       </c>
@@ -19892,10 +20394,11 @@
       <c r="AG336" s="28"/>
       <c r="AH336" s="28"/>
       <c r="AI336" s="28"/>
-      <c r="AJ336" s="29"/>
-      <c r="AK336" s="24"/>
-    </row>
-    <row r="337" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ336" s="28"/>
+      <c r="AK336" s="29"/>
+      <c r="AL336" s="24"/>
+    </row>
+    <row r="337" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="27">
         <v>335</v>
       </c>
@@ -19933,10 +20436,11 @@
       <c r="AG337" s="28"/>
       <c r="AH337" s="28"/>
       <c r="AI337" s="28"/>
-      <c r="AJ337" s="29"/>
-      <c r="AK337" s="24"/>
-    </row>
-    <row r="338" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ337" s="28"/>
+      <c r="AK337" s="29"/>
+      <c r="AL337" s="24"/>
+    </row>
+    <row r="338" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="27">
         <v>336</v>
       </c>
@@ -19974,10 +20478,11 @@
       <c r="AG338" s="28"/>
       <c r="AH338" s="28"/>
       <c r="AI338" s="28"/>
-      <c r="AJ338" s="29"/>
-      <c r="AK338" s="24"/>
-    </row>
-    <row r="339" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ338" s="28"/>
+      <c r="AK338" s="29"/>
+      <c r="AL338" s="24"/>
+    </row>
+    <row r="339" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A339" s="27">
         <v>337</v>
       </c>
@@ -20015,10 +20520,11 @@
       <c r="AG339" s="28"/>
       <c r="AH339" s="28"/>
       <c r="AI339" s="28"/>
-      <c r="AJ339" s="29"/>
-      <c r="AK339" s="24"/>
-    </row>
-    <row r="340" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ339" s="28"/>
+      <c r="AK339" s="29"/>
+      <c r="AL339" s="24"/>
+    </row>
+    <row r="340" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="27">
         <v>338</v>
       </c>
@@ -20056,10 +20562,11 @@
       <c r="AG340" s="28"/>
       <c r="AH340" s="28"/>
       <c r="AI340" s="28"/>
-      <c r="AJ340" s="29"/>
-      <c r="AK340" s="24"/>
-    </row>
-    <row r="341" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ340" s="28"/>
+      <c r="AK340" s="29"/>
+      <c r="AL340" s="24"/>
+    </row>
+    <row r="341" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="27">
         <v>339</v>
       </c>
@@ -20097,10 +20604,11 @@
       <c r="AG341" s="28"/>
       <c r="AH341" s="28"/>
       <c r="AI341" s="28"/>
-      <c r="AJ341" s="29"/>
-      <c r="AK341" s="24"/>
-    </row>
-    <row r="342" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ341" s="28"/>
+      <c r="AK341" s="29"/>
+      <c r="AL341" s="24"/>
+    </row>
+    <row r="342" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="27">
         <v>340</v>
       </c>
@@ -20138,10 +20646,11 @@
       <c r="AG342" s="28"/>
       <c r="AH342" s="28"/>
       <c r="AI342" s="28"/>
-      <c r="AJ342" s="29"/>
-      <c r="AK342" s="24"/>
-    </row>
-    <row r="343" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ342" s="28"/>
+      <c r="AK342" s="29"/>
+      <c r="AL342" s="24"/>
+    </row>
+    <row r="343" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="27">
         <v>341</v>
       </c>
@@ -20179,10 +20688,11 @@
       <c r="AG343" s="28"/>
       <c r="AH343" s="28"/>
       <c r="AI343" s="28"/>
-      <c r="AJ343" s="29"/>
-      <c r="AK343" s="24"/>
-    </row>
-    <row r="344" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ343" s="28"/>
+      <c r="AK343" s="29"/>
+      <c r="AL343" s="24"/>
+    </row>
+    <row r="344" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="27">
         <v>342</v>
       </c>
@@ -20220,10 +20730,11 @@
       <c r="AG344" s="28"/>
       <c r="AH344" s="28"/>
       <c r="AI344" s="28"/>
-      <c r="AJ344" s="29"/>
-      <c r="AK344" s="24"/>
-    </row>
-    <row r="345" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ344" s="28"/>
+      <c r="AK344" s="29"/>
+      <c r="AL344" s="24"/>
+    </row>
+    <row r="345" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="27">
         <v>343</v>
       </c>
@@ -20261,10 +20772,11 @@
       <c r="AG345" s="28"/>
       <c r="AH345" s="28"/>
       <c r="AI345" s="28"/>
-      <c r="AJ345" s="29"/>
-      <c r="AK345" s="24"/>
-    </row>
-    <row r="346" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ345" s="28"/>
+      <c r="AK345" s="29"/>
+      <c r="AL345" s="24"/>
+    </row>
+    <row r="346" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="27">
         <v>344</v>
       </c>
@@ -20302,10 +20814,11 @@
       <c r="AG346" s="28"/>
       <c r="AH346" s="28"/>
       <c r="AI346" s="28"/>
-      <c r="AJ346" s="29"/>
-      <c r="AK346" s="24"/>
-    </row>
-    <row r="347" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ346" s="28"/>
+      <c r="AK346" s="29"/>
+      <c r="AL346" s="24"/>
+    </row>
+    <row r="347" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="27">
         <v>345</v>
       </c>
@@ -20343,10 +20856,11 @@
       <c r="AG347" s="28"/>
       <c r="AH347" s="28"/>
       <c r="AI347" s="28"/>
-      <c r="AJ347" s="29"/>
-      <c r="AK347" s="24"/>
-    </row>
-    <row r="348" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ347" s="28"/>
+      <c r="AK347" s="29"/>
+      <c r="AL347" s="24"/>
+    </row>
+    <row r="348" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="27">
         <v>346</v>
       </c>
@@ -20384,10 +20898,11 @@
       <c r="AG348" s="28"/>
       <c r="AH348" s="28"/>
       <c r="AI348" s="28"/>
-      <c r="AJ348" s="29"/>
-      <c r="AK348" s="24"/>
-    </row>
-    <row r="349" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ348" s="28"/>
+      <c r="AK348" s="29"/>
+      <c r="AL348" s="24"/>
+    </row>
+    <row r="349" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="27">
         <v>347</v>
       </c>
@@ -20425,10 +20940,11 @@
       <c r="AG349" s="28"/>
       <c r="AH349" s="28"/>
       <c r="AI349" s="28"/>
-      <c r="AJ349" s="29"/>
-      <c r="AK349" s="24"/>
-    </row>
-    <row r="350" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ349" s="28"/>
+      <c r="AK349" s="29"/>
+      <c r="AL349" s="24"/>
+    </row>
+    <row r="350" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="27">
         <v>348</v>
       </c>
@@ -20466,10 +20982,11 @@
       <c r="AG350" s="28"/>
       <c r="AH350" s="28"/>
       <c r="AI350" s="28"/>
-      <c r="AJ350" s="29"/>
-      <c r="AK350" s="24"/>
-    </row>
-    <row r="351" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ350" s="28"/>
+      <c r="AK350" s="29"/>
+      <c r="AL350" s="24"/>
+    </row>
+    <row r="351" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="27">
         <v>349</v>
       </c>
@@ -20507,10 +21024,11 @@
       <c r="AG351" s="28"/>
       <c r="AH351" s="28"/>
       <c r="AI351" s="28"/>
-      <c r="AJ351" s="29"/>
-      <c r="AK351" s="24"/>
-    </row>
-    <row r="352" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ351" s="28"/>
+      <c r="AK351" s="29"/>
+      <c r="AL351" s="24"/>
+    </row>
+    <row r="352" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="27">
         <v>350</v>
       </c>
@@ -20548,10 +21066,11 @@
       <c r="AG352" s="28"/>
       <c r="AH352" s="28"/>
       <c r="AI352" s="28"/>
-      <c r="AJ352" s="29"/>
-      <c r="AK352" s="24"/>
-    </row>
-    <row r="353" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ352" s="28"/>
+      <c r="AK352" s="29"/>
+      <c r="AL352" s="24"/>
+    </row>
+    <row r="353" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="27">
         <v>351</v>
       </c>
@@ -20589,10 +21108,11 @@
       <c r="AG353" s="28"/>
       <c r="AH353" s="28"/>
       <c r="AI353" s="28"/>
-      <c r="AJ353" s="29"/>
-      <c r="AK353" s="24"/>
-    </row>
-    <row r="354" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ353" s="28"/>
+      <c r="AK353" s="29"/>
+      <c r="AL353" s="24"/>
+    </row>
+    <row r="354" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="27">
         <v>352</v>
       </c>
@@ -20630,10 +21150,11 @@
       <c r="AG354" s="28"/>
       <c r="AH354" s="28"/>
       <c r="AI354" s="28"/>
-      <c r="AJ354" s="29"/>
-      <c r="AK354" s="24"/>
-    </row>
-    <row r="355" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ354" s="28"/>
+      <c r="AK354" s="29"/>
+      <c r="AL354" s="24"/>
+    </row>
+    <row r="355" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="27">
         <v>353</v>
       </c>
@@ -20671,10 +21192,11 @@
       <c r="AG355" s="28"/>
       <c r="AH355" s="28"/>
       <c r="AI355" s="28"/>
-      <c r="AJ355" s="29"/>
-      <c r="AK355" s="24"/>
-    </row>
-    <row r="356" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ355" s="28"/>
+      <c r="AK355" s="29"/>
+      <c r="AL355" s="24"/>
+    </row>
+    <row r="356" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A356" s="27">
         <v>354</v>
       </c>
@@ -20712,10 +21234,11 @@
       <c r="AG356" s="28"/>
       <c r="AH356" s="28"/>
       <c r="AI356" s="28"/>
-      <c r="AJ356" s="29"/>
-      <c r="AK356" s="24"/>
-    </row>
-    <row r="357" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ356" s="28"/>
+      <c r="AK356" s="29"/>
+      <c r="AL356" s="24"/>
+    </row>
+    <row r="357" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="27">
         <v>355</v>
       </c>
@@ -20753,10 +21276,11 @@
       <c r="AG357" s="28"/>
       <c r="AH357" s="28"/>
       <c r="AI357" s="28"/>
-      <c r="AJ357" s="29"/>
-      <c r="AK357" s="24"/>
-    </row>
-    <row r="358" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ357" s="28"/>
+      <c r="AK357" s="29"/>
+      <c r="AL357" s="24"/>
+    </row>
+    <row r="358" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A358" s="27">
         <v>356</v>
       </c>
@@ -20794,10 +21318,11 @@
       <c r="AG358" s="28"/>
       <c r="AH358" s="28"/>
       <c r="AI358" s="28"/>
-      <c r="AJ358" s="29"/>
-      <c r="AK358" s="24"/>
-    </row>
-    <row r="359" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ358" s="28"/>
+      <c r="AK358" s="29"/>
+      <c r="AL358" s="24"/>
+    </row>
+    <row r="359" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A359" s="27">
         <v>357</v>
       </c>
@@ -20835,10 +21360,11 @@
       <c r="AG359" s="28"/>
       <c r="AH359" s="28"/>
       <c r="AI359" s="28"/>
-      <c r="AJ359" s="29"/>
-      <c r="AK359" s="24"/>
-    </row>
-    <row r="360" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ359" s="28"/>
+      <c r="AK359" s="29"/>
+      <c r="AL359" s="24"/>
+    </row>
+    <row r="360" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A360" s="27">
         <v>358</v>
       </c>
@@ -20876,10 +21402,11 @@
       <c r="AG360" s="28"/>
       <c r="AH360" s="28"/>
       <c r="AI360" s="28"/>
-      <c r="AJ360" s="29"/>
-      <c r="AK360" s="24"/>
-    </row>
-    <row r="361" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ360" s="28"/>
+      <c r="AK360" s="29"/>
+      <c r="AL360" s="24"/>
+    </row>
+    <row r="361" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="27">
         <v>359</v>
       </c>
@@ -20917,10 +21444,11 @@
       <c r="AG361" s="28"/>
       <c r="AH361" s="28"/>
       <c r="AI361" s="28"/>
-      <c r="AJ361" s="29"/>
-      <c r="AK361" s="24"/>
-    </row>
-    <row r="362" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ361" s="28"/>
+      <c r="AK361" s="29"/>
+      <c r="AL361" s="24"/>
+    </row>
+    <row r="362" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A362" s="27">
         <v>360</v>
       </c>
@@ -20958,10 +21486,11 @@
       <c r="AG362" s="28"/>
       <c r="AH362" s="28"/>
       <c r="AI362" s="28"/>
-      <c r="AJ362" s="29"/>
-      <c r="AK362" s="24"/>
-    </row>
-    <row r="363" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ362" s="28"/>
+      <c r="AK362" s="29"/>
+      <c r="AL362" s="24"/>
+    </row>
+    <row r="363" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A363" s="27">
         <v>361</v>
       </c>
@@ -20999,10 +21528,11 @@
       <c r="AG363" s="28"/>
       <c r="AH363" s="28"/>
       <c r="AI363" s="28"/>
-      <c r="AJ363" s="29"/>
-      <c r="AK363" s="24"/>
-    </row>
-    <row r="364" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ363" s="28"/>
+      <c r="AK363" s="29"/>
+      <c r="AL363" s="24"/>
+    </row>
+    <row r="364" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="27">
         <v>362</v>
       </c>
@@ -21040,10 +21570,11 @@
       <c r="AG364" s="28"/>
       <c r="AH364" s="28"/>
       <c r="AI364" s="28"/>
-      <c r="AJ364" s="29"/>
-      <c r="AK364" s="24"/>
-    </row>
-    <row r="365" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ364" s="28"/>
+      <c r="AK364" s="29"/>
+      <c r="AL364" s="24"/>
+    </row>
+    <row r="365" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="27">
         <v>363</v>
       </c>
@@ -21081,10 +21612,11 @@
       <c r="AG365" s="28"/>
       <c r="AH365" s="28"/>
       <c r="AI365" s="28"/>
-      <c r="AJ365" s="29"/>
-      <c r="AK365" s="24"/>
-    </row>
-    <row r="366" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ365" s="28"/>
+      <c r="AK365" s="29"/>
+      <c r="AL365" s="24"/>
+    </row>
+    <row r="366" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A366" s="27">
         <v>364</v>
       </c>
@@ -21122,10 +21654,11 @@
       <c r="AG366" s="28"/>
       <c r="AH366" s="28"/>
       <c r="AI366" s="28"/>
-      <c r="AJ366" s="29"/>
-      <c r="AK366" s="24"/>
-    </row>
-    <row r="367" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ366" s="28"/>
+      <c r="AK366" s="29"/>
+      <c r="AL366" s="24"/>
+    </row>
+    <row r="367" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A367" s="27">
         <v>365</v>
       </c>
@@ -21163,10 +21696,11 @@
       <c r="AG367" s="28"/>
       <c r="AH367" s="28"/>
       <c r="AI367" s="28"/>
-      <c r="AJ367" s="29"/>
-      <c r="AK367" s="24"/>
-    </row>
-    <row r="368" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ367" s="28"/>
+      <c r="AK367" s="29"/>
+      <c r="AL367" s="24"/>
+    </row>
+    <row r="368" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="27">
         <v>366</v>
       </c>
@@ -21204,10 +21738,11 @@
       <c r="AG368" s="28"/>
       <c r="AH368" s="28"/>
       <c r="AI368" s="28"/>
-      <c r="AJ368" s="29"/>
-      <c r="AK368" s="24"/>
-    </row>
-    <row r="369" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ368" s="28"/>
+      <c r="AK368" s="29"/>
+      <c r="AL368" s="24"/>
+    </row>
+    <row r="369" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="27">
         <v>367</v>
       </c>
@@ -21245,10 +21780,11 @@
       <c r="AG369" s="28"/>
       <c r="AH369" s="28"/>
       <c r="AI369" s="28"/>
-      <c r="AJ369" s="29"/>
-      <c r="AK369" s="24"/>
-    </row>
-    <row r="370" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ369" s="28"/>
+      <c r="AK369" s="29"/>
+      <c r="AL369" s="24"/>
+    </row>
+    <row r="370" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="27">
         <v>368</v>
       </c>
@@ -21286,10 +21822,11 @@
       <c r="AG370" s="28"/>
       <c r="AH370" s="28"/>
       <c r="AI370" s="28"/>
-      <c r="AJ370" s="29"/>
-      <c r="AK370" s="24"/>
-    </row>
-    <row r="371" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ370" s="28"/>
+      <c r="AK370" s="29"/>
+      <c r="AL370" s="24"/>
+    </row>
+    <row r="371" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="27">
         <v>369</v>
       </c>
@@ -21327,10 +21864,11 @@
       <c r="AG371" s="28"/>
       <c r="AH371" s="28"/>
       <c r="AI371" s="28"/>
-      <c r="AJ371" s="29"/>
-      <c r="AK371" s="24"/>
-    </row>
-    <row r="372" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ371" s="28"/>
+      <c r="AK371" s="29"/>
+      <c r="AL371" s="24"/>
+    </row>
+    <row r="372" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="27">
         <v>370</v>
       </c>
@@ -21368,10 +21906,11 @@
       <c r="AG372" s="28"/>
       <c r="AH372" s="28"/>
       <c r="AI372" s="28"/>
-      <c r="AJ372" s="29"/>
-      <c r="AK372" s="24"/>
-    </row>
-    <row r="373" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ372" s="28"/>
+      <c r="AK372" s="29"/>
+      <c r="AL372" s="24"/>
+    </row>
+    <row r="373" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="27">
         <v>371</v>
       </c>
@@ -21409,10 +21948,11 @@
       <c r="AG373" s="28"/>
       <c r="AH373" s="28"/>
       <c r="AI373" s="28"/>
-      <c r="AJ373" s="29"/>
-      <c r="AK373" s="24"/>
-    </row>
-    <row r="374" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ373" s="28"/>
+      <c r="AK373" s="29"/>
+      <c r="AL373" s="24"/>
+    </row>
+    <row r="374" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="27">
         <v>372</v>
       </c>
@@ -21450,10 +21990,11 @@
       <c r="AG374" s="28"/>
       <c r="AH374" s="28"/>
       <c r="AI374" s="28"/>
-      <c r="AJ374" s="29"/>
-      <c r="AK374" s="24"/>
-    </row>
-    <row r="375" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ374" s="28"/>
+      <c r="AK374" s="29"/>
+      <c r="AL374" s="24"/>
+    </row>
+    <row r="375" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="27">
         <v>373</v>
       </c>
@@ -21491,10 +22032,11 @@
       <c r="AG375" s="28"/>
       <c r="AH375" s="28"/>
       <c r="AI375" s="28"/>
-      <c r="AJ375" s="29"/>
-      <c r="AK375" s="24"/>
-    </row>
-    <row r="376" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ375" s="28"/>
+      <c r="AK375" s="29"/>
+      <c r="AL375" s="24"/>
+    </row>
+    <row r="376" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="27">
         <v>374</v>
       </c>
@@ -21532,10 +22074,11 @@
       <c r="AG376" s="28"/>
       <c r="AH376" s="28"/>
       <c r="AI376" s="28"/>
-      <c r="AJ376" s="29"/>
-      <c r="AK376" s="24"/>
-    </row>
-    <row r="377" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ376" s="28"/>
+      <c r="AK376" s="29"/>
+      <c r="AL376" s="24"/>
+    </row>
+    <row r="377" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="27">
         <v>375</v>
       </c>
@@ -21573,10 +22116,11 @@
       <c r="AG377" s="28"/>
       <c r="AH377" s="28"/>
       <c r="AI377" s="28"/>
-      <c r="AJ377" s="29"/>
-      <c r="AK377" s="24"/>
-    </row>
-    <row r="378" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ377" s="28"/>
+      <c r="AK377" s="29"/>
+      <c r="AL377" s="24"/>
+    </row>
+    <row r="378" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="27">
         <v>376</v>
       </c>
@@ -21614,10 +22158,11 @@
       <c r="AG378" s="28"/>
       <c r="AH378" s="28"/>
       <c r="AI378" s="28"/>
-      <c r="AJ378" s="29"/>
-      <c r="AK378" s="24"/>
-    </row>
-    <row r="379" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ378" s="28"/>
+      <c r="AK378" s="29"/>
+      <c r="AL378" s="24"/>
+    </row>
+    <row r="379" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="27">
         <v>377</v>
       </c>
@@ -21655,10 +22200,11 @@
       <c r="AG379" s="28"/>
       <c r="AH379" s="28"/>
       <c r="AI379" s="28"/>
-      <c r="AJ379" s="29"/>
-      <c r="AK379" s="24"/>
-    </row>
-    <row r="380" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ379" s="28"/>
+      <c r="AK379" s="29"/>
+      <c r="AL379" s="24"/>
+    </row>
+    <row r="380" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="27">
         <v>378</v>
       </c>
@@ -21696,10 +22242,11 @@
       <c r="AG380" s="28"/>
       <c r="AH380" s="28"/>
       <c r="AI380" s="28"/>
-      <c r="AJ380" s="29"/>
-      <c r="AK380" s="24"/>
-    </row>
-    <row r="381" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ380" s="28"/>
+      <c r="AK380" s="29"/>
+      <c r="AL380" s="24"/>
+    </row>
+    <row r="381" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="27">
         <v>379</v>
       </c>
@@ -21737,10 +22284,11 @@
       <c r="AG381" s="28"/>
       <c r="AH381" s="28"/>
       <c r="AI381" s="28"/>
-      <c r="AJ381" s="29"/>
-      <c r="AK381" s="24"/>
-    </row>
-    <row r="382" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ381" s="28"/>
+      <c r="AK381" s="29"/>
+      <c r="AL381" s="24"/>
+    </row>
+    <row r="382" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="27">
         <v>380</v>
       </c>
@@ -21778,10 +22326,11 @@
       <c r="AG382" s="28"/>
       <c r="AH382" s="28"/>
       <c r="AI382" s="28"/>
-      <c r="AJ382" s="29"/>
-      <c r="AK382" s="24"/>
-    </row>
-    <row r="383" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ382" s="28"/>
+      <c r="AK382" s="29"/>
+      <c r="AL382" s="24"/>
+    </row>
+    <row r="383" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="27">
         <v>381</v>
       </c>
@@ -21819,10 +22368,11 @@
       <c r="AG383" s="28"/>
       <c r="AH383" s="28"/>
       <c r="AI383" s="28"/>
-      <c r="AJ383" s="29"/>
-      <c r="AK383" s="24"/>
-    </row>
-    <row r="384" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ383" s="28"/>
+      <c r="AK383" s="29"/>
+      <c r="AL383" s="24"/>
+    </row>
+    <row r="384" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="27">
         <v>382</v>
       </c>
@@ -21860,10 +22410,11 @@
       <c r="AG384" s="28"/>
       <c r="AH384" s="28"/>
       <c r="AI384" s="28"/>
-      <c r="AJ384" s="29"/>
-      <c r="AK384" s="24"/>
-    </row>
-    <row r="385" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ384" s="28"/>
+      <c r="AK384" s="29"/>
+      <c r="AL384" s="24"/>
+    </row>
+    <row r="385" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="27">
         <v>383</v>
       </c>
@@ -21901,10 +22452,11 @@
       <c r="AG385" s="28"/>
       <c r="AH385" s="28"/>
       <c r="AI385" s="28"/>
-      <c r="AJ385" s="29"/>
-      <c r="AK385" s="24"/>
-    </row>
-    <row r="386" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ385" s="28"/>
+      <c r="AK385" s="29"/>
+      <c r="AL385" s="24"/>
+    </row>
+    <row r="386" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="27">
         <v>384</v>
       </c>
@@ -21942,10 +22494,11 @@
       <c r="AG386" s="28"/>
       <c r="AH386" s="28"/>
       <c r="AI386" s="28"/>
-      <c r="AJ386" s="29"/>
-      <c r="AK386" s="24"/>
-    </row>
-    <row r="387" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ386" s="28"/>
+      <c r="AK386" s="29"/>
+      <c r="AL386" s="24"/>
+    </row>
+    <row r="387" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A387" s="27">
         <v>385</v>
       </c>
@@ -21983,10 +22536,11 @@
       <c r="AG387" s="28"/>
       <c r="AH387" s="28"/>
       <c r="AI387" s="28"/>
-      <c r="AJ387" s="29"/>
-      <c r="AK387" s="24"/>
-    </row>
-    <row r="388" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ387" s="28"/>
+      <c r="AK387" s="29"/>
+      <c r="AL387" s="24"/>
+    </row>
+    <row r="388" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="27">
         <v>386</v>
       </c>
@@ -22024,10 +22578,11 @@
       <c r="AG388" s="28"/>
       <c r="AH388" s="28"/>
       <c r="AI388" s="28"/>
-      <c r="AJ388" s="29"/>
-      <c r="AK388" s="24"/>
-    </row>
-    <row r="389" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ388" s="28"/>
+      <c r="AK388" s="29"/>
+      <c r="AL388" s="24"/>
+    </row>
+    <row r="389" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="27">
         <v>387</v>
       </c>
@@ -22065,10 +22620,11 @@
       <c r="AG389" s="28"/>
       <c r="AH389" s="28"/>
       <c r="AI389" s="28"/>
-      <c r="AJ389" s="29"/>
-      <c r="AK389" s="24"/>
-    </row>
-    <row r="390" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ389" s="28"/>
+      <c r="AK389" s="29"/>
+      <c r="AL389" s="24"/>
+    </row>
+    <row r="390" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A390" s="27">
         <v>388</v>
       </c>
@@ -22106,10 +22662,11 @@
       <c r="AG390" s="28"/>
       <c r="AH390" s="28"/>
       <c r="AI390" s="28"/>
-      <c r="AJ390" s="29"/>
-      <c r="AK390" s="24"/>
-    </row>
-    <row r="391" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ390" s="28"/>
+      <c r="AK390" s="29"/>
+      <c r="AL390" s="24"/>
+    </row>
+    <row r="391" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="27">
         <v>389</v>
       </c>
@@ -22147,10 +22704,11 @@
       <c r="AG391" s="28"/>
       <c r="AH391" s="28"/>
       <c r="AI391" s="28"/>
-      <c r="AJ391" s="29"/>
-      <c r="AK391" s="24"/>
-    </row>
-    <row r="392" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ391" s="28"/>
+      <c r="AK391" s="29"/>
+      <c r="AL391" s="24"/>
+    </row>
+    <row r="392" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="27">
         <v>390</v>
       </c>
@@ -22188,10 +22746,11 @@
       <c r="AG392" s="28"/>
       <c r="AH392" s="28"/>
       <c r="AI392" s="28"/>
-      <c r="AJ392" s="29"/>
-      <c r="AK392" s="24"/>
-    </row>
-    <row r="393" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ392" s="28"/>
+      <c r="AK392" s="29"/>
+      <c r="AL392" s="24"/>
+    </row>
+    <row r="393" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="27">
         <v>391</v>
       </c>
@@ -22229,10 +22788,11 @@
       <c r="AG393" s="28"/>
       <c r="AH393" s="28"/>
       <c r="AI393" s="28"/>
-      <c r="AJ393" s="29"/>
-      <c r="AK393" s="24"/>
-    </row>
-    <row r="394" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ393" s="28"/>
+      <c r="AK393" s="29"/>
+      <c r="AL393" s="24"/>
+    </row>
+    <row r="394" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="27">
         <v>392</v>
       </c>
@@ -22270,10 +22830,11 @@
       <c r="AG394" s="28"/>
       <c r="AH394" s="28"/>
       <c r="AI394" s="28"/>
-      <c r="AJ394" s="29"/>
-      <c r="AK394" s="24"/>
-    </row>
-    <row r="395" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ394" s="28"/>
+      <c r="AK394" s="29"/>
+      <c r="AL394" s="24"/>
+    </row>
+    <row r="395" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="27">
         <v>393</v>
       </c>
@@ -22311,10 +22872,11 @@
       <c r="AG395" s="28"/>
       <c r="AH395" s="28"/>
       <c r="AI395" s="28"/>
-      <c r="AJ395" s="29"/>
-      <c r="AK395" s="24"/>
-    </row>
-    <row r="396" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ395" s="28"/>
+      <c r="AK395" s="29"/>
+      <c r="AL395" s="24"/>
+    </row>
+    <row r="396" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="27">
         <v>394</v>
       </c>
@@ -22352,10 +22914,11 @@
       <c r="AG396" s="28"/>
       <c r="AH396" s="28"/>
       <c r="AI396" s="28"/>
-      <c r="AJ396" s="29"/>
-      <c r="AK396" s="24"/>
-    </row>
-    <row r="397" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ396" s="28"/>
+      <c r="AK396" s="29"/>
+      <c r="AL396" s="24"/>
+    </row>
+    <row r="397" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A397" s="27">
         <v>395</v>
       </c>
@@ -22393,10 +22956,11 @@
       <c r="AG397" s="28"/>
       <c r="AH397" s="28"/>
       <c r="AI397" s="28"/>
-      <c r="AJ397" s="29"/>
-      <c r="AK397" s="24"/>
-    </row>
-    <row r="398" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ397" s="28"/>
+      <c r="AK397" s="29"/>
+      <c r="AL397" s="24"/>
+    </row>
+    <row r="398" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A398" s="27">
         <v>396</v>
       </c>
@@ -22434,10 +22998,11 @@
       <c r="AG398" s="28"/>
       <c r="AH398" s="28"/>
       <c r="AI398" s="28"/>
-      <c r="AJ398" s="29"/>
-      <c r="AK398" s="24"/>
-    </row>
-    <row r="399" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ398" s="28"/>
+      <c r="AK398" s="29"/>
+      <c r="AL398" s="24"/>
+    </row>
+    <row r="399" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="27">
         <v>397</v>
       </c>
@@ -22475,10 +23040,11 @@
       <c r="AG399" s="28"/>
       <c r="AH399" s="28"/>
       <c r="AI399" s="28"/>
-      <c r="AJ399" s="29"/>
-      <c r="AK399" s="24"/>
-    </row>
-    <row r="400" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ399" s="28"/>
+      <c r="AK399" s="29"/>
+      <c r="AL399" s="24"/>
+    </row>
+    <row r="400" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="27">
         <v>398</v>
       </c>
@@ -22516,10 +23082,11 @@
       <c r="AG400" s="28"/>
       <c r="AH400" s="28"/>
       <c r="AI400" s="28"/>
-      <c r="AJ400" s="29"/>
-      <c r="AK400" s="24"/>
-    </row>
-    <row r="401" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ400" s="28"/>
+      <c r="AK400" s="29"/>
+      <c r="AL400" s="24"/>
+    </row>
+    <row r="401" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A401" s="27">
         <v>399</v>
       </c>
@@ -22557,10 +23124,11 @@
       <c r="AG401" s="28"/>
       <c r="AH401" s="28"/>
       <c r="AI401" s="28"/>
-      <c r="AJ401" s="29"/>
-      <c r="AK401" s="24"/>
-    </row>
-    <row r="402" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ401" s="28"/>
+      <c r="AK401" s="29"/>
+      <c r="AL401" s="24"/>
+    </row>
+    <row r="402" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A402" s="27">
         <v>400</v>
       </c>
@@ -22598,10 +23166,11 @@
       <c r="AG402" s="28"/>
       <c r="AH402" s="28"/>
       <c r="AI402" s="28"/>
-      <c r="AJ402" s="29"/>
-      <c r="AK402" s="24"/>
-    </row>
-    <row r="403" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ402" s="28"/>
+      <c r="AK402" s="29"/>
+      <c r="AL402" s="24"/>
+    </row>
+    <row r="403" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A403" s="27">
         <v>401</v>
       </c>
@@ -22639,10 +23208,11 @@
       <c r="AG403" s="28"/>
       <c r="AH403" s="28"/>
       <c r="AI403" s="28"/>
-      <c r="AJ403" s="29"/>
-      <c r="AK403" s="24"/>
-    </row>
-    <row r="404" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ403" s="28"/>
+      <c r="AK403" s="29"/>
+      <c r="AL403" s="24"/>
+    </row>
+    <row r="404" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A404" s="27">
         <v>402</v>
       </c>
@@ -22680,10 +23250,11 @@
       <c r="AG404" s="28"/>
       <c r="AH404" s="28"/>
       <c r="AI404" s="28"/>
-      <c r="AJ404" s="29"/>
-      <c r="AK404" s="24"/>
-    </row>
-    <row r="405" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ404" s="28"/>
+      <c r="AK404" s="29"/>
+      <c r="AL404" s="24"/>
+    </row>
+    <row r="405" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A405" s="27">
         <v>403</v>
       </c>
@@ -22721,10 +23292,11 @@
       <c r="AG405" s="28"/>
       <c r="AH405" s="28"/>
       <c r="AI405" s="28"/>
-      <c r="AJ405" s="29"/>
-      <c r="AK405" s="24"/>
-    </row>
-    <row r="406" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ405" s="28"/>
+      <c r="AK405" s="29"/>
+      <c r="AL405" s="24"/>
+    </row>
+    <row r="406" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A406" s="27">
         <v>404</v>
       </c>
@@ -22762,10 +23334,11 @@
       <c r="AG406" s="28"/>
       <c r="AH406" s="28"/>
       <c r="AI406" s="28"/>
-      <c r="AJ406" s="29"/>
-      <c r="AK406" s="24"/>
-    </row>
-    <row r="407" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ406" s="28"/>
+      <c r="AK406" s="29"/>
+      <c r="AL406" s="24"/>
+    </row>
+    <row r="407" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="27">
         <v>405</v>
       </c>
@@ -22803,10 +23376,11 @@
       <c r="AG407" s="28"/>
       <c r="AH407" s="28"/>
       <c r="AI407" s="28"/>
-      <c r="AJ407" s="29"/>
-      <c r="AK407" s="24"/>
-    </row>
-    <row r="408" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ407" s="28"/>
+      <c r="AK407" s="29"/>
+      <c r="AL407" s="24"/>
+    </row>
+    <row r="408" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A408" s="27">
         <v>406</v>
       </c>
@@ -22844,10 +23418,11 @@
       <c r="AG408" s="28"/>
       <c r="AH408" s="28"/>
       <c r="AI408" s="28"/>
-      <c r="AJ408" s="29"/>
-      <c r="AK408" s="24"/>
-    </row>
-    <row r="409" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ408" s="28"/>
+      <c r="AK408" s="29"/>
+      <c r="AL408" s="24"/>
+    </row>
+    <row r="409" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A409" s="27">
         <v>407</v>
       </c>
@@ -22885,10 +23460,11 @@
       <c r="AG409" s="28"/>
       <c r="AH409" s="28"/>
       <c r="AI409" s="28"/>
-      <c r="AJ409" s="29"/>
-      <c r="AK409" s="24"/>
-    </row>
-    <row r="410" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ409" s="28"/>
+      <c r="AK409" s="29"/>
+      <c r="AL409" s="24"/>
+    </row>
+    <row r="410" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="27">
         <v>408</v>
       </c>
@@ -22926,10 +23502,11 @@
       <c r="AG410" s="28"/>
       <c r="AH410" s="28"/>
       <c r="AI410" s="28"/>
-      <c r="AJ410" s="29"/>
-      <c r="AK410" s="24"/>
-    </row>
-    <row r="411" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ410" s="28"/>
+      <c r="AK410" s="29"/>
+      <c r="AL410" s="24"/>
+    </row>
+    <row r="411" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="27">
         <v>409</v>
       </c>
@@ -22967,10 +23544,11 @@
       <c r="AG411" s="28"/>
       <c r="AH411" s="28"/>
       <c r="AI411" s="28"/>
-      <c r="AJ411" s="29"/>
-      <c r="AK411" s="24"/>
-    </row>
-    <row r="412" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ411" s="28"/>
+      <c r="AK411" s="29"/>
+      <c r="AL411" s="24"/>
+    </row>
+    <row r="412" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="27">
         <v>410</v>
       </c>
@@ -23008,10 +23586,11 @@
       <c r="AG412" s="28"/>
       <c r="AH412" s="28"/>
       <c r="AI412" s="28"/>
-      <c r="AJ412" s="29"/>
-      <c r="AK412" s="24"/>
-    </row>
-    <row r="413" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ412" s="28"/>
+      <c r="AK412" s="29"/>
+      <c r="AL412" s="24"/>
+    </row>
+    <row r="413" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="27">
         <v>411</v>
       </c>
@@ -23049,10 +23628,11 @@
       <c r="AG413" s="28"/>
       <c r="AH413" s="28"/>
       <c r="AI413" s="28"/>
-      <c r="AJ413" s="29"/>
-      <c r="AK413" s="24"/>
-    </row>
-    <row r="414" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ413" s="28"/>
+      <c r="AK413" s="29"/>
+      <c r="AL413" s="24"/>
+    </row>
+    <row r="414" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="27">
         <v>412</v>
       </c>
@@ -23090,10 +23670,11 @@
       <c r="AG414" s="28"/>
       <c r="AH414" s="28"/>
       <c r="AI414" s="28"/>
-      <c r="AJ414" s="29"/>
-      <c r="AK414" s="24"/>
-    </row>
-    <row r="415" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ414" s="28"/>
+      <c r="AK414" s="29"/>
+      <c r="AL414" s="24"/>
+    </row>
+    <row r="415" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A415" s="27">
         <v>413</v>
       </c>
@@ -23131,10 +23712,11 @@
       <c r="AG415" s="28"/>
       <c r="AH415" s="28"/>
       <c r="AI415" s="28"/>
-      <c r="AJ415" s="29"/>
-      <c r="AK415" s="24"/>
-    </row>
-    <row r="416" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ415" s="28"/>
+      <c r="AK415" s="29"/>
+      <c r="AL415" s="24"/>
+    </row>
+    <row r="416" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A416" s="27">
         <v>414</v>
       </c>
@@ -23172,10 +23754,11 @@
       <c r="AG416" s="28"/>
       <c r="AH416" s="28"/>
       <c r="AI416" s="28"/>
-      <c r="AJ416" s="29"/>
-      <c r="AK416" s="24"/>
-    </row>
-    <row r="417" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ416" s="28"/>
+      <c r="AK416" s="29"/>
+      <c r="AL416" s="24"/>
+    </row>
+    <row r="417" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A417" s="27">
         <v>415</v>
       </c>
@@ -23213,10 +23796,11 @@
       <c r="AG417" s="28"/>
       <c r="AH417" s="28"/>
       <c r="AI417" s="28"/>
-      <c r="AJ417" s="29"/>
-      <c r="AK417" s="24"/>
-    </row>
-    <row r="418" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ417" s="28"/>
+      <c r="AK417" s="29"/>
+      <c r="AL417" s="24"/>
+    </row>
+    <row r="418" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A418" s="27">
         <v>416</v>
       </c>
@@ -23254,10 +23838,11 @@
       <c r="AG418" s="28"/>
       <c r="AH418" s="28"/>
       <c r="AI418" s="28"/>
-      <c r="AJ418" s="29"/>
-      <c r="AK418" s="24"/>
-    </row>
-    <row r="419" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ418" s="28"/>
+      <c r="AK418" s="29"/>
+      <c r="AL418" s="24"/>
+    </row>
+    <row r="419" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A419" s="27">
         <v>417</v>
       </c>
@@ -23295,10 +23880,11 @@
       <c r="AG419" s="28"/>
       <c r="AH419" s="28"/>
       <c r="AI419" s="28"/>
-      <c r="AJ419" s="29"/>
-      <c r="AK419" s="24"/>
-    </row>
-    <row r="420" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ419" s="28"/>
+      <c r="AK419" s="29"/>
+      <c r="AL419" s="24"/>
+    </row>
+    <row r="420" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A420" s="27">
         <v>418</v>
       </c>
@@ -23336,10 +23922,11 @@
       <c r="AG420" s="28"/>
       <c r="AH420" s="28"/>
       <c r="AI420" s="28"/>
-      <c r="AJ420" s="29"/>
-      <c r="AK420" s="24"/>
-    </row>
-    <row r="421" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ420" s="28"/>
+      <c r="AK420" s="29"/>
+      <c r="AL420" s="24"/>
+    </row>
+    <row r="421" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="27">
         <v>419</v>
       </c>
@@ -23377,10 +23964,11 @@
       <c r="AG421" s="28"/>
       <c r="AH421" s="28"/>
       <c r="AI421" s="28"/>
-      <c r="AJ421" s="29"/>
-      <c r="AK421" s="24"/>
-    </row>
-    <row r="422" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ421" s="28"/>
+      <c r="AK421" s="29"/>
+      <c r="AL421" s="24"/>
+    </row>
+    <row r="422" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A422" s="27">
         <v>420</v>
       </c>
@@ -23418,10 +24006,11 @@
       <c r="AG422" s="28"/>
       <c r="AH422" s="28"/>
       <c r="AI422" s="28"/>
-      <c r="AJ422" s="29"/>
-      <c r="AK422" s="24"/>
-    </row>
-    <row r="423" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ422" s="28"/>
+      <c r="AK422" s="29"/>
+      <c r="AL422" s="24"/>
+    </row>
+    <row r="423" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A423" s="27">
         <v>421</v>
       </c>
@@ -23459,10 +24048,11 @@
       <c r="AG423" s="28"/>
       <c r="AH423" s="28"/>
       <c r="AI423" s="28"/>
-      <c r="AJ423" s="29"/>
-      <c r="AK423" s="24"/>
-    </row>
-    <row r="424" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ423" s="28"/>
+      <c r="AK423" s="29"/>
+      <c r="AL423" s="24"/>
+    </row>
+    <row r="424" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A424" s="27">
         <v>422</v>
       </c>
@@ -23500,10 +24090,11 @@
       <c r="AG424" s="28"/>
       <c r="AH424" s="28"/>
       <c r="AI424" s="28"/>
-      <c r="AJ424" s="29"/>
-      <c r="AK424" s="24"/>
-    </row>
-    <row r="425" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ424" s="28"/>
+      <c r="AK424" s="29"/>
+      <c r="AL424" s="24"/>
+    </row>
+    <row r="425" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A425" s="27">
         <v>423</v>
       </c>
@@ -23541,10 +24132,11 @@
       <c r="AG425" s="28"/>
       <c r="AH425" s="28"/>
       <c r="AI425" s="28"/>
-      <c r="AJ425" s="29"/>
-      <c r="AK425" s="24"/>
-    </row>
-    <row r="426" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ425" s="28"/>
+      <c r="AK425" s="29"/>
+      <c r="AL425" s="24"/>
+    </row>
+    <row r="426" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A426" s="27">
         <v>424</v>
       </c>
@@ -23582,10 +24174,11 @@
       <c r="AG426" s="28"/>
       <c r="AH426" s="28"/>
       <c r="AI426" s="28"/>
-      <c r="AJ426" s="29"/>
-      <c r="AK426" s="24"/>
-    </row>
-    <row r="427" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ426" s="28"/>
+      <c r="AK426" s="29"/>
+      <c r="AL426" s="24"/>
+    </row>
+    <row r="427" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A427" s="27">
         <v>425</v>
       </c>
@@ -23623,10 +24216,11 @@
       <c r="AG427" s="28"/>
       <c r="AH427" s="28"/>
       <c r="AI427" s="28"/>
-      <c r="AJ427" s="29"/>
-      <c r="AK427" s="24"/>
-    </row>
-    <row r="428" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ427" s="28"/>
+      <c r="AK427" s="29"/>
+      <c r="AL427" s="24"/>
+    </row>
+    <row r="428" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A428" s="27">
         <v>426</v>
       </c>
@@ -23664,10 +24258,11 @@
       <c r="AG428" s="28"/>
       <c r="AH428" s="28"/>
       <c r="AI428" s="28"/>
-      <c r="AJ428" s="29"/>
-      <c r="AK428" s="24"/>
-    </row>
-    <row r="429" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ428" s="28"/>
+      <c r="AK428" s="29"/>
+      <c r="AL428" s="24"/>
+    </row>
+    <row r="429" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A429" s="27">
         <v>427</v>
       </c>
@@ -23705,10 +24300,11 @@
       <c r="AG429" s="28"/>
       <c r="AH429" s="28"/>
       <c r="AI429" s="28"/>
-      <c r="AJ429" s="29"/>
-      <c r="AK429" s="24"/>
-    </row>
-    <row r="430" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ429" s="28"/>
+      <c r="AK429" s="29"/>
+      <c r="AL429" s="24"/>
+    </row>
+    <row r="430" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="27">
         <v>428</v>
       </c>
@@ -23746,10 +24342,11 @@
       <c r="AG430" s="28"/>
       <c r="AH430" s="28"/>
       <c r="AI430" s="28"/>
-      <c r="AJ430" s="29"/>
-      <c r="AK430" s="24"/>
-    </row>
-    <row r="431" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ430" s="28"/>
+      <c r="AK430" s="29"/>
+      <c r="AL430" s="24"/>
+    </row>
+    <row r="431" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A431" s="27">
         <v>429</v>
       </c>
@@ -23787,10 +24384,11 @@
       <c r="AG431" s="28"/>
       <c r="AH431" s="28"/>
       <c r="AI431" s="28"/>
-      <c r="AJ431" s="29"/>
-      <c r="AK431" s="24"/>
-    </row>
-    <row r="432" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ431" s="28"/>
+      <c r="AK431" s="29"/>
+      <c r="AL431" s="24"/>
+    </row>
+    <row r="432" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A432" s="27">
         <v>430</v>
       </c>
@@ -23828,10 +24426,11 @@
       <c r="AG432" s="28"/>
       <c r="AH432" s="28"/>
       <c r="AI432" s="28"/>
-      <c r="AJ432" s="29"/>
-      <c r="AK432" s="24"/>
-    </row>
-    <row r="433" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ432" s="28"/>
+      <c r="AK432" s="29"/>
+      <c r="AL432" s="24"/>
+    </row>
+    <row r="433" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A433" s="27">
         <v>431</v>
       </c>
@@ -23869,10 +24468,11 @@
       <c r="AG433" s="28"/>
       <c r="AH433" s="28"/>
       <c r="AI433" s="28"/>
-      <c r="AJ433" s="29"/>
-      <c r="AK433" s="24"/>
-    </row>
-    <row r="434" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ433" s="28"/>
+      <c r="AK433" s="29"/>
+      <c r="AL433" s="24"/>
+    </row>
+    <row r="434" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A434" s="27">
         <v>432</v>
       </c>
@@ -23910,10 +24510,11 @@
       <c r="AG434" s="28"/>
       <c r="AH434" s="28"/>
       <c r="AI434" s="28"/>
-      <c r="AJ434" s="29"/>
-      <c r="AK434" s="24"/>
-    </row>
-    <row r="435" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ434" s="28"/>
+      <c r="AK434" s="29"/>
+      <c r="AL434" s="24"/>
+    </row>
+    <row r="435" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A435" s="27">
         <v>433</v>
       </c>
@@ -23951,10 +24552,11 @@
       <c r="AG435" s="28"/>
       <c r="AH435" s="28"/>
       <c r="AI435" s="28"/>
-      <c r="AJ435" s="29"/>
-      <c r="AK435" s="24"/>
-    </row>
-    <row r="436" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ435" s="28"/>
+      <c r="AK435" s="29"/>
+      <c r="AL435" s="24"/>
+    </row>
+    <row r="436" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="27">
         <v>434</v>
       </c>
@@ -23992,10 +24594,11 @@
       <c r="AG436" s="28"/>
       <c r="AH436" s="28"/>
       <c r="AI436" s="28"/>
-      <c r="AJ436" s="29"/>
-      <c r="AK436" s="24"/>
-    </row>
-    <row r="437" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ436" s="28"/>
+      <c r="AK436" s="29"/>
+      <c r="AL436" s="24"/>
+    </row>
+    <row r="437" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="27">
         <v>435</v>
       </c>
@@ -24033,10 +24636,11 @@
       <c r="AG437" s="28"/>
       <c r="AH437" s="28"/>
       <c r="AI437" s="28"/>
-      <c r="AJ437" s="29"/>
-      <c r="AK437" s="24"/>
-    </row>
-    <row r="438" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ437" s="28"/>
+      <c r="AK437" s="29"/>
+      <c r="AL437" s="24"/>
+    </row>
+    <row r="438" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A438" s="27">
         <v>436</v>
       </c>
@@ -24074,10 +24678,11 @@
       <c r="AG438" s="28"/>
       <c r="AH438" s="28"/>
       <c r="AI438" s="28"/>
-      <c r="AJ438" s="29"/>
-      <c r="AK438" s="24"/>
-    </row>
-    <row r="439" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ438" s="28"/>
+      <c r="AK438" s="29"/>
+      <c r="AL438" s="24"/>
+    </row>
+    <row r="439" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A439" s="27">
         <v>437</v>
       </c>
@@ -24115,10 +24720,11 @@
       <c r="AG439" s="28"/>
       <c r="AH439" s="28"/>
       <c r="AI439" s="28"/>
-      <c r="AJ439" s="29"/>
-      <c r="AK439" s="24"/>
-    </row>
-    <row r="440" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ439" s="28"/>
+      <c r="AK439" s="29"/>
+      <c r="AL439" s="24"/>
+    </row>
+    <row r="440" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="27">
         <v>438</v>
       </c>
@@ -24156,10 +24762,11 @@
       <c r="AG440" s="28"/>
       <c r="AH440" s="28"/>
       <c r="AI440" s="28"/>
-      <c r="AJ440" s="29"/>
-      <c r="AK440" s="24"/>
-    </row>
-    <row r="441" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ440" s="28"/>
+      <c r="AK440" s="29"/>
+      <c r="AL440" s="24"/>
+    </row>
+    <row r="441" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A441" s="27">
         <v>439</v>
       </c>
@@ -24197,10 +24804,11 @@
       <c r="AG441" s="28"/>
       <c r="AH441" s="28"/>
       <c r="AI441" s="28"/>
-      <c r="AJ441" s="29"/>
-      <c r="AK441" s="24"/>
-    </row>
-    <row r="442" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ441" s="28"/>
+      <c r="AK441" s="29"/>
+      <c r="AL441" s="24"/>
+    </row>
+    <row r="442" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A442" s="27">
         <v>440</v>
       </c>
@@ -24238,10 +24846,11 @@
       <c r="AG442" s="28"/>
       <c r="AH442" s="28"/>
       <c r="AI442" s="28"/>
-      <c r="AJ442" s="29"/>
-      <c r="AK442" s="24"/>
-    </row>
-    <row r="443" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ442" s="28"/>
+      <c r="AK442" s="29"/>
+      <c r="AL442" s="24"/>
+    </row>
+    <row r="443" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A443" s="27">
         <v>441</v>
       </c>
@@ -24279,10 +24888,11 @@
       <c r="AG443" s="28"/>
       <c r="AH443" s="28"/>
       <c r="AI443" s="28"/>
-      <c r="AJ443" s="29"/>
-      <c r="AK443" s="24"/>
-    </row>
-    <row r="444" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ443" s="28"/>
+      <c r="AK443" s="29"/>
+      <c r="AL443" s="24"/>
+    </row>
+    <row r="444" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A444" s="27">
         <v>442</v>
       </c>
@@ -24320,10 +24930,11 @@
       <c r="AG444" s="28"/>
       <c r="AH444" s="28"/>
       <c r="AI444" s="28"/>
-      <c r="AJ444" s="29"/>
-      <c r="AK444" s="24"/>
-    </row>
-    <row r="445" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ444" s="28"/>
+      <c r="AK444" s="29"/>
+      <c r="AL444" s="24"/>
+    </row>
+    <row r="445" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A445" s="27">
         <v>443</v>
       </c>
@@ -24361,10 +24972,11 @@
       <c r="AG445" s="28"/>
       <c r="AH445" s="28"/>
       <c r="AI445" s="28"/>
-      <c r="AJ445" s="29"/>
-      <c r="AK445" s="24"/>
-    </row>
-    <row r="446" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ445" s="28"/>
+      <c r="AK445" s="29"/>
+      <c r="AL445" s="24"/>
+    </row>
+    <row r="446" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="27">
         <v>444</v>
       </c>
@@ -24402,10 +25014,11 @@
       <c r="AG446" s="28"/>
       <c r="AH446" s="28"/>
       <c r="AI446" s="28"/>
-      <c r="AJ446" s="29"/>
-      <c r="AK446" s="24"/>
-    </row>
-    <row r="447" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ446" s="28"/>
+      <c r="AK446" s="29"/>
+      <c r="AL446" s="24"/>
+    </row>
+    <row r="447" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A447" s="27">
         <v>445</v>
       </c>
@@ -24443,10 +25056,11 @@
       <c r="AG447" s="28"/>
       <c r="AH447" s="28"/>
       <c r="AI447" s="28"/>
-      <c r="AJ447" s="29"/>
-      <c r="AK447" s="24"/>
-    </row>
-    <row r="448" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ447" s="28"/>
+      <c r="AK447" s="29"/>
+      <c r="AL447" s="24"/>
+    </row>
+    <row r="448" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A448" s="27">
         <v>446</v>
       </c>
@@ -24484,10 +25098,11 @@
       <c r="AG448" s="28"/>
       <c r="AH448" s="28"/>
       <c r="AI448" s="28"/>
-      <c r="AJ448" s="29"/>
-      <c r="AK448" s="24"/>
-    </row>
-    <row r="449" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ448" s="28"/>
+      <c r="AK448" s="29"/>
+      <c r="AL448" s="24"/>
+    </row>
+    <row r="449" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A449" s="27">
         <v>447</v>
       </c>
@@ -24525,10 +25140,11 @@
       <c r="AG449" s="28"/>
       <c r="AH449" s="28"/>
       <c r="AI449" s="28"/>
-      <c r="AJ449" s="29"/>
-      <c r="AK449" s="24"/>
-    </row>
-    <row r="450" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ449" s="28"/>
+      <c r="AK449" s="29"/>
+      <c r="AL449" s="24"/>
+    </row>
+    <row r="450" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A450" s="27">
         <v>448</v>
       </c>
@@ -24566,10 +25182,11 @@
       <c r="AG450" s="28"/>
       <c r="AH450" s="28"/>
       <c r="AI450" s="28"/>
-      <c r="AJ450" s="29"/>
-      <c r="AK450" s="24"/>
-    </row>
-    <row r="451" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ450" s="28"/>
+      <c r="AK450" s="29"/>
+      <c r="AL450" s="24"/>
+    </row>
+    <row r="451" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A451" s="27">
         <v>449</v>
       </c>
@@ -24607,10 +25224,11 @@
       <c r="AG451" s="28"/>
       <c r="AH451" s="28"/>
       <c r="AI451" s="28"/>
-      <c r="AJ451" s="29"/>
-      <c r="AK451" s="24"/>
-    </row>
-    <row r="452" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ451" s="28"/>
+      <c r="AK451" s="29"/>
+      <c r="AL451" s="24"/>
+    </row>
+    <row r="452" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A452" s="27">
         <v>450</v>
       </c>
@@ -24648,10 +25266,11 @@
       <c r="AG452" s="28"/>
       <c r="AH452" s="28"/>
       <c r="AI452" s="28"/>
-      <c r="AJ452" s="29"/>
-      <c r="AK452" s="24"/>
-    </row>
-    <row r="453" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ452" s="28"/>
+      <c r="AK452" s="29"/>
+      <c r="AL452" s="24"/>
+    </row>
+    <row r="453" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="27">
         <v>451</v>
       </c>
@@ -24689,10 +25308,11 @@
       <c r="AG453" s="28"/>
       <c r="AH453" s="28"/>
       <c r="AI453" s="28"/>
-      <c r="AJ453" s="29"/>
-      <c r="AK453" s="24"/>
-    </row>
-    <row r="454" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ453" s="28"/>
+      <c r="AK453" s="29"/>
+      <c r="AL453" s="24"/>
+    </row>
+    <row r="454" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A454" s="27">
         <v>452</v>
       </c>
@@ -24730,10 +25350,11 @@
       <c r="AG454" s="28"/>
       <c r="AH454" s="28"/>
       <c r="AI454" s="28"/>
-      <c r="AJ454" s="29"/>
-      <c r="AK454" s="24"/>
-    </row>
-    <row r="455" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ454" s="28"/>
+      <c r="AK454" s="29"/>
+      <c r="AL454" s="24"/>
+    </row>
+    <row r="455" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A455" s="27">
         <v>453</v>
       </c>
@@ -24771,10 +25392,11 @@
       <c r="AG455" s="28"/>
       <c r="AH455" s="28"/>
       <c r="AI455" s="28"/>
-      <c r="AJ455" s="29"/>
-      <c r="AK455" s="24"/>
-    </row>
-    <row r="456" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ455" s="28"/>
+      <c r="AK455" s="29"/>
+      <c r="AL455" s="24"/>
+    </row>
+    <row r="456" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="27">
         <v>454</v>
       </c>
@@ -24812,10 +25434,11 @@
       <c r="AG456" s="28"/>
       <c r="AH456" s="28"/>
       <c r="AI456" s="28"/>
-      <c r="AJ456" s="29"/>
-      <c r="AK456" s="24"/>
-    </row>
-    <row r="457" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ456" s="28"/>
+      <c r="AK456" s="29"/>
+      <c r="AL456" s="24"/>
+    </row>
+    <row r="457" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="27">
         <v>455</v>
       </c>
@@ -24853,10 +25476,11 @@
       <c r="AG457" s="28"/>
       <c r="AH457" s="28"/>
       <c r="AI457" s="28"/>
-      <c r="AJ457" s="29"/>
-      <c r="AK457" s="24"/>
-    </row>
-    <row r="458" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ457" s="28"/>
+      <c r="AK457" s="29"/>
+      <c r="AL457" s="24"/>
+    </row>
+    <row r="458" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A458" s="27">
         <v>456</v>
       </c>
@@ -24894,10 +25518,11 @@
       <c r="AG458" s="28"/>
       <c r="AH458" s="28"/>
       <c r="AI458" s="28"/>
-      <c r="AJ458" s="29"/>
-      <c r="AK458" s="24"/>
-    </row>
-    <row r="459" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ458" s="28"/>
+      <c r="AK458" s="29"/>
+      <c r="AL458" s="24"/>
+    </row>
+    <row r="459" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="27">
         <v>457</v>
       </c>
@@ -24935,10 +25560,11 @@
       <c r="AG459" s="28"/>
       <c r="AH459" s="28"/>
       <c r="AI459" s="28"/>
-      <c r="AJ459" s="29"/>
-      <c r="AK459" s="24"/>
-    </row>
-    <row r="460" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ459" s="28"/>
+      <c r="AK459" s="29"/>
+      <c r="AL459" s="24"/>
+    </row>
+    <row r="460" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A460" s="27">
         <v>458</v>
       </c>
@@ -24976,10 +25602,11 @@
       <c r="AG460" s="28"/>
       <c r="AH460" s="28"/>
       <c r="AI460" s="28"/>
-      <c r="AJ460" s="29"/>
-      <c r="AK460" s="24"/>
-    </row>
-    <row r="461" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ460" s="28"/>
+      <c r="AK460" s="29"/>
+      <c r="AL460" s="24"/>
+    </row>
+    <row r="461" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A461" s="27">
         <v>459</v>
       </c>
@@ -25017,10 +25644,11 @@
       <c r="AG461" s="28"/>
       <c r="AH461" s="28"/>
       <c r="AI461" s="28"/>
-      <c r="AJ461" s="29"/>
-      <c r="AK461" s="24"/>
-    </row>
-    <row r="462" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ461" s="28"/>
+      <c r="AK461" s="29"/>
+      <c r="AL461" s="24"/>
+    </row>
+    <row r="462" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A462" s="27">
         <v>460</v>
       </c>
@@ -25058,10 +25686,11 @@
       <c r="AG462" s="28"/>
       <c r="AH462" s="28"/>
       <c r="AI462" s="28"/>
-      <c r="AJ462" s="29"/>
-      <c r="AK462" s="24"/>
-    </row>
-    <row r="463" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ462" s="28"/>
+      <c r="AK462" s="29"/>
+      <c r="AL462" s="24"/>
+    </row>
+    <row r="463" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A463" s="27">
         <v>461</v>
       </c>
@@ -25099,10 +25728,11 @@
       <c r="AG463" s="28"/>
       <c r="AH463" s="28"/>
       <c r="AI463" s="28"/>
-      <c r="AJ463" s="29"/>
-      <c r="AK463" s="24"/>
-    </row>
-    <row r="464" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ463" s="28"/>
+      <c r="AK463" s="29"/>
+      <c r="AL463" s="24"/>
+    </row>
+    <row r="464" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A464" s="27">
         <v>462</v>
       </c>
@@ -25140,10 +25770,11 @@
       <c r="AG464" s="28"/>
       <c r="AH464" s="28"/>
       <c r="AI464" s="28"/>
-      <c r="AJ464" s="29"/>
-      <c r="AK464" s="24"/>
-    </row>
-    <row r="465" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ464" s="28"/>
+      <c r="AK464" s="29"/>
+      <c r="AL464" s="24"/>
+    </row>
+    <row r="465" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A465" s="27">
         <v>463</v>
       </c>
@@ -25181,10 +25812,11 @@
       <c r="AG465" s="28"/>
       <c r="AH465" s="28"/>
       <c r="AI465" s="28"/>
-      <c r="AJ465" s="29"/>
-      <c r="AK465" s="24"/>
-    </row>
-    <row r="466" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ465" s="28"/>
+      <c r="AK465" s="29"/>
+      <c r="AL465" s="24"/>
+    </row>
+    <row r="466" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="27">
         <v>464</v>
       </c>
@@ -25222,10 +25854,11 @@
       <c r="AG466" s="28"/>
       <c r="AH466" s="28"/>
       <c r="AI466" s="28"/>
-      <c r="AJ466" s="29"/>
-      <c r="AK466" s="24"/>
-    </row>
-    <row r="467" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ466" s="28"/>
+      <c r="AK466" s="29"/>
+      <c r="AL466" s="24"/>
+    </row>
+    <row r="467" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="27">
         <v>465</v>
       </c>
@@ -25263,10 +25896,11 @@
       <c r="AG467" s="28"/>
       <c r="AH467" s="28"/>
       <c r="AI467" s="28"/>
-      <c r="AJ467" s="29"/>
-      <c r="AK467" s="24"/>
-    </row>
-    <row r="468" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ467" s="28"/>
+      <c r="AK467" s="29"/>
+      <c r="AL467" s="24"/>
+    </row>
+    <row r="468" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="27">
         <v>466</v>
       </c>
@@ -25304,10 +25938,11 @@
       <c r="AG468" s="28"/>
       <c r="AH468" s="28"/>
       <c r="AI468" s="28"/>
-      <c r="AJ468" s="29"/>
-      <c r="AK468" s="24"/>
-    </row>
-    <row r="469" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ468" s="28"/>
+      <c r="AK468" s="29"/>
+      <c r="AL468" s="24"/>
+    </row>
+    <row r="469" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A469" s="27">
         <v>467</v>
       </c>
@@ -25345,10 +25980,11 @@
       <c r="AG469" s="28"/>
       <c r="AH469" s="28"/>
       <c r="AI469" s="28"/>
-      <c r="AJ469" s="29"/>
-      <c r="AK469" s="24"/>
-    </row>
-    <row r="470" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ469" s="28"/>
+      <c r="AK469" s="29"/>
+      <c r="AL469" s="24"/>
+    </row>
+    <row r="470" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A470" s="27">
         <v>468</v>
       </c>
@@ -25386,10 +26022,11 @@
       <c r="AG470" s="28"/>
       <c r="AH470" s="28"/>
       <c r="AI470" s="28"/>
-      <c r="AJ470" s="29"/>
-      <c r="AK470" s="24"/>
-    </row>
-    <row r="471" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ470" s="28"/>
+      <c r="AK470" s="29"/>
+      <c r="AL470" s="24"/>
+    </row>
+    <row r="471" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A471" s="27">
         <v>469</v>
       </c>
@@ -25427,10 +26064,11 @@
       <c r="AG471" s="28"/>
       <c r="AH471" s="28"/>
       <c r="AI471" s="28"/>
-      <c r="AJ471" s="29"/>
-      <c r="AK471" s="24"/>
-    </row>
-    <row r="472" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ471" s="28"/>
+      <c r="AK471" s="29"/>
+      <c r="AL471" s="24"/>
+    </row>
+    <row r="472" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A472" s="27">
         <v>470</v>
       </c>
@@ -25468,10 +26106,11 @@
       <c r="AG472" s="28"/>
       <c r="AH472" s="28"/>
       <c r="AI472" s="28"/>
-      <c r="AJ472" s="29"/>
-      <c r="AK472" s="24"/>
-    </row>
-    <row r="473" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ472" s="28"/>
+      <c r="AK472" s="29"/>
+      <c r="AL472" s="24"/>
+    </row>
+    <row r="473" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A473" s="27">
         <v>471</v>
       </c>
@@ -25509,10 +26148,11 @@
       <c r="AG473" s="28"/>
       <c r="AH473" s="28"/>
       <c r="AI473" s="28"/>
-      <c r="AJ473" s="29"/>
-      <c r="AK473" s="24"/>
-    </row>
-    <row r="474" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ473" s="28"/>
+      <c r="AK473" s="29"/>
+      <c r="AL473" s="24"/>
+    </row>
+    <row r="474" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A474" s="27">
         <v>472</v>
       </c>
@@ -25550,10 +26190,11 @@
       <c r="AG474" s="28"/>
       <c r="AH474" s="28"/>
       <c r="AI474" s="28"/>
-      <c r="AJ474" s="29"/>
-      <c r="AK474" s="24"/>
-    </row>
-    <row r="475" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ474" s="28"/>
+      <c r="AK474" s="29"/>
+      <c r="AL474" s="24"/>
+    </row>
+    <row r="475" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="27">
         <v>473</v>
       </c>
@@ -25591,10 +26232,11 @@
       <c r="AG475" s="28"/>
       <c r="AH475" s="28"/>
       <c r="AI475" s="28"/>
-      <c r="AJ475" s="29"/>
-      <c r="AK475" s="24"/>
-    </row>
-    <row r="476" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ475" s="28"/>
+      <c r="AK475" s="29"/>
+      <c r="AL475" s="24"/>
+    </row>
+    <row r="476" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A476" s="27">
         <v>474</v>
       </c>
@@ -25632,10 +26274,11 @@
       <c r="AG476" s="28"/>
       <c r="AH476" s="28"/>
       <c r="AI476" s="28"/>
-      <c r="AJ476" s="29"/>
-      <c r="AK476" s="24"/>
-    </row>
-    <row r="477" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ476" s="28"/>
+      <c r="AK476" s="29"/>
+      <c r="AL476" s="24"/>
+    </row>
+    <row r="477" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A477" s="27">
         <v>475</v>
       </c>
@@ -25673,10 +26316,11 @@
       <c r="AG477" s="28"/>
       <c r="AH477" s="28"/>
       <c r="AI477" s="28"/>
-      <c r="AJ477" s="29"/>
-      <c r="AK477" s="24"/>
-    </row>
-    <row r="478" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ477" s="28"/>
+      <c r="AK477" s="29"/>
+      <c r="AL477" s="24"/>
+    </row>
+    <row r="478" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A478" s="27">
         <v>476</v>
       </c>
@@ -25714,10 +26358,11 @@
       <c r="AG478" s="28"/>
       <c r="AH478" s="28"/>
       <c r="AI478" s="28"/>
-      <c r="AJ478" s="29"/>
-      <c r="AK478" s="24"/>
-    </row>
-    <row r="479" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ478" s="28"/>
+      <c r="AK478" s="29"/>
+      <c r="AL478" s="24"/>
+    </row>
+    <row r="479" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A479" s="27">
         <v>477</v>
       </c>
@@ -25755,10 +26400,11 @@
       <c r="AG479" s="28"/>
       <c r="AH479" s="28"/>
       <c r="AI479" s="28"/>
-      <c r="AJ479" s="29"/>
-      <c r="AK479" s="24"/>
-    </row>
-    <row r="480" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ479" s="28"/>
+      <c r="AK479" s="29"/>
+      <c r="AL479" s="24"/>
+    </row>
+    <row r="480" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A480" s="27">
         <v>478</v>
       </c>
@@ -25796,10 +26442,11 @@
       <c r="AG480" s="28"/>
       <c r="AH480" s="28"/>
       <c r="AI480" s="28"/>
-      <c r="AJ480" s="29"/>
-      <c r="AK480" s="24"/>
-    </row>
-    <row r="481" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ480" s="28"/>
+      <c r="AK480" s="29"/>
+      <c r="AL480" s="24"/>
+    </row>
+    <row r="481" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A481" s="27">
         <v>479</v>
       </c>
@@ -25837,10 +26484,11 @@
       <c r="AG481" s="28"/>
       <c r="AH481" s="28"/>
       <c r="AI481" s="28"/>
-      <c r="AJ481" s="29"/>
-      <c r="AK481" s="24"/>
-    </row>
-    <row r="482" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ481" s="28"/>
+      <c r="AK481" s="29"/>
+      <c r="AL481" s="24"/>
+    </row>
+    <row r="482" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="27">
         <v>480</v>
       </c>
@@ -25878,10 +26526,11 @@
       <c r="AG482" s="28"/>
       <c r="AH482" s="28"/>
       <c r="AI482" s="28"/>
-      <c r="AJ482" s="29"/>
-      <c r="AK482" s="24"/>
-    </row>
-    <row r="483" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ482" s="28"/>
+      <c r="AK482" s="29"/>
+      <c r="AL482" s="24"/>
+    </row>
+    <row r="483" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A483" s="27">
         <v>481</v>
       </c>
@@ -25919,10 +26568,11 @@
       <c r="AG483" s="28"/>
       <c r="AH483" s="28"/>
       <c r="AI483" s="28"/>
-      <c r="AJ483" s="29"/>
-      <c r="AK483" s="24"/>
-    </row>
-    <row r="484" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ483" s="28"/>
+      <c r="AK483" s="29"/>
+      <c r="AL483" s="24"/>
+    </row>
+    <row r="484" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A484" s="27">
         <v>482</v>
       </c>
@@ -25960,10 +26610,11 @@
       <c r="AG484" s="28"/>
       <c r="AH484" s="28"/>
       <c r="AI484" s="28"/>
-      <c r="AJ484" s="29"/>
-      <c r="AK484" s="24"/>
-    </row>
-    <row r="485" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ484" s="28"/>
+      <c r="AK484" s="29"/>
+      <c r="AL484" s="24"/>
+    </row>
+    <row r="485" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="27">
         <v>483</v>
       </c>
@@ -26001,10 +26652,11 @@
       <c r="AG485" s="28"/>
       <c r="AH485" s="28"/>
       <c r="AI485" s="28"/>
-      <c r="AJ485" s="29"/>
-      <c r="AK485" s="24"/>
-    </row>
-    <row r="486" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ485" s="28"/>
+      <c r="AK485" s="29"/>
+      <c r="AL485" s="24"/>
+    </row>
+    <row r="486" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="27">
         <v>484</v>
       </c>
@@ -26042,10 +26694,11 @@
       <c r="AG486" s="28"/>
       <c r="AH486" s="28"/>
       <c r="AI486" s="28"/>
-      <c r="AJ486" s="29"/>
-      <c r="AK486" s="24"/>
-    </row>
-    <row r="487" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ486" s="28"/>
+      <c r="AK486" s="29"/>
+      <c r="AL486" s="24"/>
+    </row>
+    <row r="487" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="27">
         <v>485</v>
       </c>
@@ -26083,10 +26736,11 @@
       <c r="AG487" s="28"/>
       <c r="AH487" s="28"/>
       <c r="AI487" s="28"/>
-      <c r="AJ487" s="29"/>
-      <c r="AK487" s="24"/>
-    </row>
-    <row r="488" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ487" s="28"/>
+      <c r="AK487" s="29"/>
+      <c r="AL487" s="24"/>
+    </row>
+    <row r="488" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A488" s="27">
         <v>486</v>
       </c>
@@ -26124,10 +26778,11 @@
       <c r="AG488" s="28"/>
       <c r="AH488" s="28"/>
       <c r="AI488" s="28"/>
-      <c r="AJ488" s="29"/>
-      <c r="AK488" s="24"/>
-    </row>
-    <row r="489" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ488" s="28"/>
+      <c r="AK488" s="29"/>
+      <c r="AL488" s="24"/>
+    </row>
+    <row r="489" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A489" s="27">
         <v>487</v>
       </c>
@@ -26165,10 +26820,11 @@
       <c r="AG489" s="28"/>
       <c r="AH489" s="28"/>
       <c r="AI489" s="28"/>
-      <c r="AJ489" s="29"/>
-      <c r="AK489" s="24"/>
-    </row>
-    <row r="490" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ489" s="28"/>
+      <c r="AK489" s="29"/>
+      <c r="AL489" s="24"/>
+    </row>
+    <row r="490" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A490" s="27">
         <v>488</v>
       </c>
@@ -26206,10 +26862,11 @@
       <c r="AG490" s="28"/>
       <c r="AH490" s="28"/>
       <c r="AI490" s="28"/>
-      <c r="AJ490" s="29"/>
-      <c r="AK490" s="24"/>
-    </row>
-    <row r="491" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ490" s="28"/>
+      <c r="AK490" s="29"/>
+      <c r="AL490" s="24"/>
+    </row>
+    <row r="491" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="27">
         <v>489</v>
       </c>
@@ -26247,10 +26904,11 @@
       <c r="AG491" s="28"/>
       <c r="AH491" s="28"/>
       <c r="AI491" s="28"/>
-      <c r="AJ491" s="29"/>
-      <c r="AK491" s="24"/>
-    </row>
-    <row r="492" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ491" s="28"/>
+      <c r="AK491" s="29"/>
+      <c r="AL491" s="24"/>
+    </row>
+    <row r="492" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A492" s="27">
         <v>490</v>
       </c>
@@ -26288,10 +26946,11 @@
       <c r="AG492" s="28"/>
       <c r="AH492" s="28"/>
       <c r="AI492" s="28"/>
-      <c r="AJ492" s="29"/>
-      <c r="AK492" s="24"/>
-    </row>
-    <row r="493" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ492" s="28"/>
+      <c r="AK492" s="29"/>
+      <c r="AL492" s="24"/>
+    </row>
+    <row r="493" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A493" s="27">
         <v>491</v>
       </c>
@@ -26329,10 +26988,11 @@
       <c r="AG493" s="28"/>
       <c r="AH493" s="28"/>
       <c r="AI493" s="28"/>
-      <c r="AJ493" s="29"/>
-      <c r="AK493" s="24"/>
-    </row>
-    <row r="494" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ493" s="28"/>
+      <c r="AK493" s="29"/>
+      <c r="AL493" s="24"/>
+    </row>
+    <row r="494" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A494" s="27">
         <v>492</v>
       </c>
@@ -26370,10 +27030,11 @@
       <c r="AG494" s="28"/>
       <c r="AH494" s="28"/>
       <c r="AI494" s="28"/>
-      <c r="AJ494" s="29"/>
-      <c r="AK494" s="24"/>
-    </row>
-    <row r="495" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ494" s="28"/>
+      <c r="AK494" s="29"/>
+      <c r="AL494" s="24"/>
+    </row>
+    <row r="495" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A495" s="27">
         <v>493</v>
       </c>
@@ -26411,10 +27072,11 @@
       <c r="AG495" s="28"/>
       <c r="AH495" s="28"/>
       <c r="AI495" s="28"/>
-      <c r="AJ495" s="29"/>
-      <c r="AK495" s="24"/>
-    </row>
-    <row r="496" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ495" s="28"/>
+      <c r="AK495" s="29"/>
+      <c r="AL495" s="24"/>
+    </row>
+    <row r="496" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A496" s="27">
         <v>494</v>
       </c>
@@ -26452,10 +27114,11 @@
       <c r="AG496" s="28"/>
       <c r="AH496" s="28"/>
       <c r="AI496" s="28"/>
-      <c r="AJ496" s="29"/>
-      <c r="AK496" s="24"/>
-    </row>
-    <row r="497" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ496" s="28"/>
+      <c r="AK496" s="29"/>
+      <c r="AL496" s="24"/>
+    </row>
+    <row r="497" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A497" s="27">
         <v>495</v>
       </c>
@@ -26493,10 +27156,11 @@
       <c r="AG497" s="28"/>
       <c r="AH497" s="28"/>
       <c r="AI497" s="28"/>
-      <c r="AJ497" s="29"/>
-      <c r="AK497" s="24"/>
-    </row>
-    <row r="498" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ497" s="28"/>
+      <c r="AK497" s="29"/>
+      <c r="AL497" s="24"/>
+    </row>
+    <row r="498" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="27">
         <v>496</v>
       </c>
@@ -26534,10 +27198,11 @@
       <c r="AG498" s="28"/>
       <c r="AH498" s="28"/>
       <c r="AI498" s="28"/>
-      <c r="AJ498" s="29"/>
-      <c r="AK498" s="24"/>
-    </row>
-    <row r="499" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ498" s="28"/>
+      <c r="AK498" s="29"/>
+      <c r="AL498" s="24"/>
+    </row>
+    <row r="499" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A499" s="27">
         <v>497</v>
       </c>
@@ -26575,10 +27240,11 @@
       <c r="AG499" s="28"/>
       <c r="AH499" s="28"/>
       <c r="AI499" s="28"/>
-      <c r="AJ499" s="29"/>
-      <c r="AK499" s="24"/>
-    </row>
-    <row r="500" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ499" s="28"/>
+      <c r="AK499" s="29"/>
+      <c r="AL499" s="24"/>
+    </row>
+    <row r="500" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A500" s="27">
         <v>498</v>
       </c>
@@ -26616,10 +27282,11 @@
       <c r="AG500" s="28"/>
       <c r="AH500" s="28"/>
       <c r="AI500" s="28"/>
-      <c r="AJ500" s="29"/>
-      <c r="AK500" s="24"/>
-    </row>
-    <row r="501" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ500" s="28"/>
+      <c r="AK500" s="29"/>
+      <c r="AL500" s="24"/>
+    </row>
+    <row r="501" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="27">
         <v>499</v>
       </c>
@@ -26657,10 +27324,11 @@
       <c r="AG501" s="28"/>
       <c r="AH501" s="28"/>
       <c r="AI501" s="28"/>
-      <c r="AJ501" s="29"/>
-      <c r="AK501" s="24"/>
-    </row>
-    <row r="502" spans="1:37" ht="16" x14ac:dyDescent="0.2">
+      <c r="AJ501" s="28"/>
+      <c r="AK501" s="29"/>
+      <c r="AL501" s="24"/>
+    </row>
+    <row r="502" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="45">
         <v>500</v>
       </c>
@@ -26698,14 +27366,15 @@
       <c r="AG502" s="46"/>
       <c r="AH502" s="46"/>
       <c r="AI502" s="46"/>
-      <c r="AJ502" s="47"/>
-      <c r="AK502" s="24"/>
+      <c r="AJ502" s="46"/>
+      <c r="AK502" s="47"/>
+      <c r="AL502" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="AA1:AI1"/>
-    <mergeCell ref="D1:Z1"/>
+    <mergeCell ref="AB1:AJ1"/>
+    <mergeCell ref="D1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.875" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
